--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kitchen_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05B80E-A142-4D93-9FEC-42E95BC28729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332EFEB0-0BDD-4B76-94A9-D06CEF875DDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
@@ -1432,36 +1432,6 @@
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{702D37C1-FD0B-45E0-8955-AA0F39D7F389}"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2525,6 +2495,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="none">
@@ -2843,6 +2823,26 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3698,79 +3698,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:BR85" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:BR85" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:BR85" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
   <tableColumns count="70">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты наполнения" dataDxfId="93"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид модуля" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль Gola" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки для фильтров" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота min" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота max" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина min" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина max" dataDxfId="86"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина min" dataDxfId="85"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина max" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая цена" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая цена цветной корпус" dataDxfId="82"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая высота" dataDxfId="81"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая ширина" dataDxfId="80"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая глубина" dataDxfId="79"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="78"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="77"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="76"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая ниша" dataDxfId="0"/>
-    <tableColumn id="38" xr3:uid="{921A8997-D906-49E9-A998-8A2C49992A49}" name="КФ петли SENS накл.110 гр. с крестообр. Планкой" dataDxfId="75"/>
-    <tableColumn id="39" xr3:uid="{038C4C49-1A01-41C4-8A8A-54C48EFB70B4}" name="KFP-SB-N110" dataDxfId="74"/>
-    <tableColumn id="43" xr3:uid="{C1D2835A-EC10-4DF9-ADF7-B436F7465B0E}" name="КФ петли вклад. 95 гр. с крестообр. планкой" dataDxfId="73"/>
-    <tableColumn id="44" xr3:uid="{6813E745-D09D-47FA-8C79-1B51C9280EFC}" name="KFP-SB-PY94" dataDxfId="72"/>
-    <tableColumn id="45" xr3:uid="{E30111B6-872F-4DF0-A93A-AAF0EA079F46}" name="КKFP-SB-GT45" dataDxfId="71"/>
-    <tableColumn id="46" xr3:uid="{29C8792E-FD0D-400B-B831-60F115B6D86D}" name="KFP-SB-N45" dataDxfId="70"/>
-    <tableColumn id="61" xr3:uid="{CCDF8B5A-C6C8-4E35-83B8-4709ED56B170}" name="KFS-SB-45 (посудосушители)" dataDxfId="69"/>
-    <tableColumn id="62" xr3:uid="{9FBBC066-B629-4509-8E36-716BFC983CB0}" name="КФ Сушка AFF 600" dataDxfId="68"/>
-    <tableColumn id="64" xr3:uid="{1EA277B8-9A9D-4813-82E6-A9E0A50EADF4}" name="КФ Сушка AFF 800" dataDxfId="67"/>
-    <tableColumn id="63" xr3:uid="{2857CFB5-2CDD-4729-99F3-604EB2CB71CD}" name="КФ Сушка AFF 900" dataDxfId="66"/>
-    <tableColumn id="56" xr3:uid="{C3B02CE1-24FD-430A-88FE-FC7D38A45E2B}" name="KFP-SP-PPGK" dataDxfId="65"/>
-    <tableColumn id="57" xr3:uid="{6D0AF8EA-F0A3-4EC2-AC8A-920F429AECCF}" name="KFP-SP-PPGK_71_x000a_" dataDxfId="64"/>
-    <tableColumn id="58" xr3:uid="{C207FCBD-6D70-4B49-9A36-2F505353DB64}" name="KFP-SP-PPA" dataDxfId="63"/>
-    <tableColumn id="59" xr3:uid="{0096DC53-656F-45C6-A3B7-6DA42F058B6D}" name="KFP-SB-PPHF_W" dataDxfId="62"/>
-    <tableColumn id="55" xr3:uid="{A4EE8AE9-7C08-4832-A2C0-E142A2544A35}" name="KFN-SB-M54" dataDxfId="61"/>
-    <tableColumn id="47" xr3:uid="{EA515BCA-E472-421E-B34B-67354DD20740}" name="Комплект для ящика Hettich ATIRA Серый, NL-470, H-70" dataDxfId="60"/>
-    <tableColumn id="53" xr3:uid="{1BA9340B-BA73-44E5-BDCE-992F6A1F60F7}" name="Комплект для ящика Hettich ATIRA Серый с реллингом, NL-470, H-176" dataDxfId="59"/>
-    <tableColumn id="48" xr3:uid="{7085775E-D1FB-4329-9D8D-62DC0DC43634}" name="KFN-SB-M86" dataDxfId="58"/>
-    <tableColumn id="54" xr3:uid="{2560215E-DE0A-4CCB-8D31-F72AABE10DED}" name="KFN-SB-M15" dataDxfId="57"/>
-    <tableColumn id="49" xr3:uid="{25035583-E0A3-49FA-A8D3-3CB10CD89CEB}" name="KFN-SB-MD" dataDxfId="56"/>
-    <tableColumn id="50" xr3:uid="{56E092F3-EB57-417D-82E4-C11A82BCE945}" name="КФ ящика Matrix (H=89 мм)_450_GR" dataDxfId="55"/>
-    <tableColumn id="69" xr3:uid="{25450F85-CDFB-45EF-A31F-F83E72A62697}" name="КФ ящика Matrix (H=175 мм)_450_GR" dataDxfId="54"/>
-    <tableColumn id="51" xr3:uid="{7F38D6AB-8BEB-4713-879C-F3B14B2F1784}" name="Комплект ящика INNOTECH ATIRA полного выдв. с  PUSH TO OPEN , Н70,NL470,цвет серебристый" dataDxfId="53"/>
-    <tableColumn id="52" xr3:uid="{4FF406B2-F1B9-4A41-9AD1-DF45C67F8129}" name="Комплект короба INNOTECH ATIRA полного выдв. с Push to open, Н176,NL470,рейлинги, цвет серебристый" dataDxfId="52"/>
-    <tableColumn id="40" xr3:uid="{628BBBE9-D1A9-4CE7-9278-713F2EC173F8}" name="KFS-SB-BYT" dataDxfId="51"/>
-    <tableColumn id="41" xr3:uid="{CF9067D5-9CD1-4498-A412-23EAC54CEEED}" name="Корзина с держателем для бутылок 414*500*520 мм" dataDxfId="50"/>
-    <tableColumn id="42" xr3:uid="{EC3C68D6-959F-4357-87F2-6AA00EE8B2B3}" name="КФ евровинт" dataDxfId="49"/>
-    <tableColumn id="60" xr3:uid="{EFAF5A2F-2789-4FDF-8D6F-730154D7BE4F}" name="КФ  крепления профиля Gola" dataDxfId="48"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль Gola для подвесных шкафов алюм.16 мм" dataDxfId="47"/>
-    <tableColumn id="35" xr3:uid="{A7188CAD-1C1B-415A-860B-E7791BCA4689}" name="Комплектация №2" dataDxfId="46"/>
-    <tableColumn id="36" xr3:uid="{72790CF2-9572-4EF3-B5AA-F509DD50ADA7}" name="Комплектация №3" dataDxfId="45"/>
-    <tableColumn id="37" xr3:uid="{2C273B41-27B7-41AC-B874-AB2361216D76}" name="Комплектация №3Т" dataDxfId="44"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки min,шт." dataDxfId="43"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки max,шт." dataDxfId="42"/>
-    <tableColumn id="80" xr3:uid="{17D481EF-F5C9-4F74-B248-52C3327C5D07}" name="Tip-on" dataDxfId="41"/>
-    <tableColumn id="79" xr3:uid="{899D6F7F-36CF-47F9-8D8F-8D594B3FC02C}" name="Инфо о комплектации" dataDxfId="40"/>
-    <tableColumn id="81" xr3:uid="{E81821D0-0B27-43B6-BB15-D13A2380FB10}" name="Полки по умолчанию" dataDxfId="39"/>
-    <tableColumn id="82" xr3:uid="{70C3A366-7B14-4620-AD2F-AE3E4C8CAD50}" name="Доступ к стеклянным полкам" dataDxfId="38"/>
-    <tableColumn id="85" xr3:uid="{5C5D87C5-F5BA-4D9E-8430-8A962EA1A2D7}" name="КФ НСТ19" dataDxfId="37"/>
-    <tableColumn id="86" xr3:uid="{4E5E4FA1-773A-4D83-8464-2D17CD1EF777}" name="Корзина выдв.посудосуш.600 мм + напр. L450 Hettich (ХРОМ)" dataDxfId="36"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="35"/>
-    <tableColumn id="87" xr3:uid="{E11483C6-2DD0-4D56-9958-9512B72543B3}" name="Комплектация №1" dataDxfId="34"/>
-    <tableColumn id="88" xr3:uid="{1CD16EE1-BABE-497E-B73A-DE92F5EBB1BE}" name="Комплектация №1T" dataDxfId="33"/>
-    <tableColumn id="89" xr3:uid="{C5C6DAAE-09E7-4FC6-8B5D-6FBB324A370B}" name="КФ НСТ20" dataDxfId="32"/>
-    <tableColumn id="90" xr3:uid="{5DCAFE16-906E-417A-BEC1-2AFFED8C619F}" name="КФ НСТ12" dataDxfId="31"/>
-    <tableColumn id="91" xr3:uid="{F5F4BB11-1F47-4F96-9C10-0621ECEA8B62}" name="КФ EMV1DL/2DL" dataDxfId="30"/>
-    <tableColumn id="92" xr3:uid="{2E9630F2-52F6-4D3A-90B2-0B241D1760E5}" name="Комплект петли Hettich с доводчиком для алюм.профиля" dataDxfId="29"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="28"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты наполнения" dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид модуля" dataDxfId="90"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль Gola" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки для фильтров" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота min" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота max" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина min" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина max" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина min" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина max" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая цена" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая цена цветной корпус" dataDxfId="80"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая высота" dataDxfId="79"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая ширина" dataDxfId="78"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая глубина" dataDxfId="77"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="76"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="75"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="74"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая ниша" dataDxfId="73"/>
+    <tableColumn id="38" xr3:uid="{921A8997-D906-49E9-A998-8A2C49992A49}" name="КФ петли SENS накл.110 гр. с крестообр. Планкой" dataDxfId="72"/>
+    <tableColumn id="39" xr3:uid="{038C4C49-1A01-41C4-8A8A-54C48EFB70B4}" name="KFP-SB-N110" dataDxfId="71"/>
+    <tableColumn id="43" xr3:uid="{C1D2835A-EC10-4DF9-ADF7-B436F7465B0E}" name="КФ петли вклад. 95 гр. с крестообр. планкой" dataDxfId="70"/>
+    <tableColumn id="44" xr3:uid="{6813E745-D09D-47FA-8C79-1B51C9280EFC}" name="KFP-SB-PY94" dataDxfId="69"/>
+    <tableColumn id="45" xr3:uid="{E30111B6-872F-4DF0-A93A-AAF0EA079F46}" name="КKFP-SB-GT45" dataDxfId="68"/>
+    <tableColumn id="46" xr3:uid="{29C8792E-FD0D-400B-B831-60F115B6D86D}" name="KFP-SB-N45" dataDxfId="67"/>
+    <tableColumn id="61" xr3:uid="{CCDF8B5A-C6C8-4E35-83B8-4709ED56B170}" name="KFS-SB-45 (посудосушители)" dataDxfId="66"/>
+    <tableColumn id="62" xr3:uid="{9FBBC066-B629-4509-8E36-716BFC983CB0}" name="КФ Сушка AFF 600" dataDxfId="65"/>
+    <tableColumn id="64" xr3:uid="{1EA277B8-9A9D-4813-82E6-A9E0A50EADF4}" name="КФ Сушка AFF 800" dataDxfId="64"/>
+    <tableColumn id="63" xr3:uid="{2857CFB5-2CDD-4729-99F3-604EB2CB71CD}" name="КФ Сушка AFF 900" dataDxfId="63"/>
+    <tableColumn id="56" xr3:uid="{C3B02CE1-24FD-430A-88FE-FC7D38A45E2B}" name="KFP-SP-PPGK" dataDxfId="62"/>
+    <tableColumn id="57" xr3:uid="{6D0AF8EA-F0A3-4EC2-AC8A-920F429AECCF}" name="KFP-SP-PPGK_71_x000a_" dataDxfId="61"/>
+    <tableColumn id="58" xr3:uid="{C207FCBD-6D70-4B49-9A36-2F505353DB64}" name="KFP-SP-PPA" dataDxfId="60"/>
+    <tableColumn id="59" xr3:uid="{0096DC53-656F-45C6-A3B7-6DA42F058B6D}" name="KFP-SB-PPHF_W" dataDxfId="59"/>
+    <tableColumn id="55" xr3:uid="{A4EE8AE9-7C08-4832-A2C0-E142A2544A35}" name="KFN-SB-M54" dataDxfId="58"/>
+    <tableColumn id="47" xr3:uid="{EA515BCA-E472-421E-B34B-67354DD20740}" name="Комплект для ящика Hettich ATIRA Серый, NL-470, H-70" dataDxfId="57"/>
+    <tableColumn id="53" xr3:uid="{1BA9340B-BA73-44E5-BDCE-992F6A1F60F7}" name="Комплект для ящика Hettich ATIRA Серый с реллингом, NL-470, H-176" dataDxfId="56"/>
+    <tableColumn id="48" xr3:uid="{7085775E-D1FB-4329-9D8D-62DC0DC43634}" name="KFN-SB-M86" dataDxfId="55"/>
+    <tableColumn id="54" xr3:uid="{2560215E-DE0A-4CCB-8D31-F72AABE10DED}" name="KFN-SB-M15" dataDxfId="54"/>
+    <tableColumn id="49" xr3:uid="{25035583-E0A3-49FA-A8D3-3CB10CD89CEB}" name="KFN-SB-MD" dataDxfId="53"/>
+    <tableColumn id="50" xr3:uid="{56E092F3-EB57-417D-82E4-C11A82BCE945}" name="КФ ящика Matrix (H=89 мм)_450_GR" dataDxfId="52"/>
+    <tableColumn id="69" xr3:uid="{25450F85-CDFB-45EF-A31F-F83E72A62697}" name="КФ ящика Matrix (H=175 мм)_450_GR" dataDxfId="51"/>
+    <tableColumn id="51" xr3:uid="{7F38D6AB-8BEB-4713-879C-F3B14B2F1784}" name="Комплект ящика INNOTECH ATIRA полного выдв. с  PUSH TO OPEN , Н70,NL470,цвет серебристый" dataDxfId="50"/>
+    <tableColumn id="52" xr3:uid="{4FF406B2-F1B9-4A41-9AD1-DF45C67F8129}" name="Комплект короба INNOTECH ATIRA полного выдв. с Push to open, Н176,NL470,рейлинги, цвет серебристый" dataDxfId="49"/>
+    <tableColumn id="40" xr3:uid="{628BBBE9-D1A9-4CE7-9278-713F2EC173F8}" name="KFS-SB-BYT" dataDxfId="48"/>
+    <tableColumn id="41" xr3:uid="{CF9067D5-9CD1-4498-A412-23EAC54CEEED}" name="Корзина с держателем для бутылок 414*500*520 мм" dataDxfId="47"/>
+    <tableColumn id="42" xr3:uid="{EC3C68D6-959F-4357-87F2-6AA00EE8B2B3}" name="КФ евровинт" dataDxfId="46"/>
+    <tableColumn id="60" xr3:uid="{EFAF5A2F-2789-4FDF-8D6F-730154D7BE4F}" name="КФ  крепления профиля Gola" dataDxfId="45"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль Gola для подвесных шкафов алюм.16 мм" dataDxfId="44"/>
+    <tableColumn id="35" xr3:uid="{A7188CAD-1C1B-415A-860B-E7791BCA4689}" name="Комплектация №2" dataDxfId="43"/>
+    <tableColumn id="36" xr3:uid="{72790CF2-9572-4EF3-B5AA-F509DD50ADA7}" name="Комплектация №3" dataDxfId="42"/>
+    <tableColumn id="37" xr3:uid="{2C273B41-27B7-41AC-B874-AB2361216D76}" name="Комплектация №3Т" dataDxfId="41"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки min,шт." dataDxfId="40"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки max,шт." dataDxfId="39"/>
+    <tableColumn id="80" xr3:uid="{17D481EF-F5C9-4F74-B248-52C3327C5D07}" name="Tip-on" dataDxfId="38"/>
+    <tableColumn id="79" xr3:uid="{899D6F7F-36CF-47F9-8D8F-8D594B3FC02C}" name="Инфо о комплектации" dataDxfId="37"/>
+    <tableColumn id="81" xr3:uid="{E81821D0-0B27-43B6-BB15-D13A2380FB10}" name="Полки по умолчанию" dataDxfId="36"/>
+    <tableColumn id="82" xr3:uid="{70C3A366-7B14-4620-AD2F-AE3E4C8CAD50}" name="Доступ к стеклянным полкам" dataDxfId="35"/>
+    <tableColumn id="85" xr3:uid="{5C5D87C5-F5BA-4D9E-8430-8A962EA1A2D7}" name="КФ НСТ19" dataDxfId="34"/>
+    <tableColumn id="86" xr3:uid="{4E5E4FA1-773A-4D83-8464-2D17CD1EF777}" name="Корзина выдв.посудосуш.600 мм + напр. L450 Hettich (ХРОМ)" dataDxfId="33"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="32"/>
+    <tableColumn id="87" xr3:uid="{E11483C6-2DD0-4D56-9958-9512B72543B3}" name="Комплектация №1" dataDxfId="31"/>
+    <tableColumn id="88" xr3:uid="{1CD16EE1-BABE-497E-B73A-DE92F5EBB1BE}" name="Комплектация №1T" dataDxfId="30"/>
+    <tableColumn id="89" xr3:uid="{C5C6DAAE-09E7-4FC6-8B5D-6FBB324A370B}" name="КФ НСТ20" dataDxfId="29"/>
+    <tableColumn id="90" xr3:uid="{5DCAFE16-906E-417A-BEC1-2AFFED8C619F}" name="КФ НСТ12" dataDxfId="28"/>
+    <tableColumn id="91" xr3:uid="{F5F4BB11-1F47-4F96-9C10-0621ECEA8B62}" name="КФ EMV1DL/2DL" dataDxfId="27"/>
+    <tableColumn id="92" xr3:uid="{2E9630F2-52F6-4D3A-90B2-0B241D1760E5}" name="Комплект петли Hettich с доводчиком для алюм.профиля" dataDxfId="26"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="25"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="24">
       <calculatedColumnFormula>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3779,50 +3779,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G220" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G220" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:G220" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="25" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="24" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="22" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="21" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I254" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I254" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:I254" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="16" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="15" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="14" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="13" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="12" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="11" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -17682,12 +17682,12 @@
     <row r="150" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="M2:M85">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N85">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21051,7 +21051,7 @@
   <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A235" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kitchen_calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5377763-4FB9-48DE-8DB3-DB5301D8D0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C81E55-5918-440A-AAD5-18CEB67B017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="7" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Верхние">[1]Лист2!$A$2:$A$100</definedName>
@@ -47,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2380,16 +2382,6 @@
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{702D37C1-FD0B-45E0-8955-AA0F39D7F389}"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3265,6 +3257,16 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3878,163 +3880,106 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Расчет"/>
-      <sheetName val="Счет 849"/>
-      <sheetName val="Заказ"/>
-      <sheetName val="849 Заказ"/>
-      <sheetName val="Таблица с признаками"/>
-      <sheetName val="Цены на корпус 18_06_25"/>
-      <sheetName val="Базовые цены"/>
-      <sheetName val="комплекты фурнитуры"/>
-      <sheetName val="Фурнитура 18_06_25"/>
-      <sheetName val="Изображения"/>
-      <sheetName val="Инструкция по добавлению"/>
-      <sheetName val="TDSheet"/>
-      <sheetName val="Настройки"/>
-      <sheetName val="Форма заявки НСТ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="3">
-          <cell r="C3">
-            <v>550</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>1110</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>400</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:AI74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="51"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="50"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="49"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="48"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="47"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="46"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="44"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="43"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="42"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="35"/>
-    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="34"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="33"/>
-    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="32"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="31"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="30">
-      <calculatedColumnFormula>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="50"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="49"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="48"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="47"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="46"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="45"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="43"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="42"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="41"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="33"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="31"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="30"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:G192" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="28" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="27" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="27" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="26" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:I229" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="19" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="18" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="17" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="18" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="17" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="16" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B12" xr:uid="{AB78FFAA-4D60-419F-9D9A-15685CF12B1B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4345,32 +4290,32 @@
       <selection pane="topRight" activeCell="AC71" sqref="AC71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" style="8" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
-    <col min="6" max="11" width="15.7109375" style="20" customWidth="1"/>
-    <col min="12" max="19" width="15.7109375" style="7" customWidth="1"/>
-    <col min="20" max="21" width="19.140625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="23.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="28.140625" style="29" customWidth="1"/>
-    <col min="27" max="27" width="43.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="43.85546875" style="29" customWidth="1"/>
-    <col min="31" max="31" width="35.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="45.7109375" style="20" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" style="20" customWidth="1"/>
-    <col min="36" max="36" width="19.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.3046875" style="8" customWidth="1"/>
+    <col min="3" max="5" width="15.69140625" style="8" customWidth="1"/>
+    <col min="6" max="11" width="15.69140625" style="20" customWidth="1"/>
+    <col min="12" max="19" width="15.69140625" style="7" customWidth="1"/>
+    <col min="20" max="21" width="19.15234375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="23.53515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.84375" style="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="28.15234375" style="29" customWidth="1"/>
+    <col min="27" max="27" width="43.84375" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="43.84375" style="29" customWidth="1"/>
+    <col min="31" max="31" width="35.3828125" style="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.69140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="45.69140625" style="20" customWidth="1"/>
+    <col min="35" max="35" width="20.69140625" style="20" customWidth="1"/>
+    <col min="36" max="36" width="19.3046875" style="20" customWidth="1"/>
     <col min="37" max="38" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.85546875" style="20" customWidth="1"/>
-    <col min="41" max="41" width="14.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" style="20"/>
+    <col min="39" max="39" width="19.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.84375" style="20" customWidth="1"/>
+    <col min="41" max="41" width="14.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.15234375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -4574,11 +4519,10 @@
         <v>67</v>
       </c>
       <c r="AI2" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -4675,11 +4619,10 @@
         <v>67</v>
       </c>
       <c r="AI3" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -4776,11 +4719,10 @@
         <v>67</v>
       </c>
       <c r="AI4" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>329</v>
       </c>
@@ -4879,11 +4821,10 @@
         <v>67</v>
       </c>
       <c r="AI5" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>76</v>
       </c>
@@ -4980,11 +4921,10 @@
         <v>67</v>
       </c>
       <c r="AI6" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -5081,11 +5021,10 @@
         <v>67</v>
       </c>
       <c r="AI7" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>82</v>
       </c>
@@ -5182,11 +5121,10 @@
         <v>67</v>
       </c>
       <c r="AI8" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -5283,11 +5221,10 @@
         <v>67</v>
       </c>
       <c r="AI9" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
@@ -5384,11 +5321,10 @@
         <v>67</v>
       </c>
       <c r="AI10" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -5485,11 +5421,10 @@
         <v>67</v>
       </c>
       <c r="AI11" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
@@ -5586,11 +5521,10 @@
         <v>67</v>
       </c>
       <c r="AI12" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>94</v>
       </c>
@@ -5687,11 +5621,10 @@
         <v>67</v>
       </c>
       <c r="AI13" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -5788,11 +5721,10 @@
         <v>67</v>
       </c>
       <c r="AI14" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -5889,11 +5821,10 @@
         <v>67</v>
       </c>
       <c r="AI15" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -5990,11 +5921,10 @@
         <v>67</v>
       </c>
       <c r="AI16" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>102</v>
       </c>
@@ -6090,11 +6020,10 @@
         <v>67</v>
       </c>
       <c r="AI17" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -6191,11 +6120,10 @@
         <v>67</v>
       </c>
       <c r="AI18" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
@@ -6291,11 +6219,10 @@
         <v>67</v>
       </c>
       <c r="AI19" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>111</v>
       </c>
@@ -6392,11 +6319,10 @@
         <v>67</v>
       </c>
       <c r="AI20" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
@@ -6493,11 +6419,10 @@
         <v>67</v>
       </c>
       <c r="AI21" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>116</v>
       </c>
@@ -6594,11 +6519,10 @@
         <v>67</v>
       </c>
       <c r="AI22" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
@@ -6695,11 +6619,10 @@
         <v>67</v>
       </c>
       <c r="AI23" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>120</v>
       </c>
@@ -6796,11 +6719,10 @@
         <v>67</v>
       </c>
       <c r="AI24" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>122</v>
       </c>
@@ -6897,11 +6819,10 @@
         <v>67</v>
       </c>
       <c r="AI25" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>330</v>
       </c>
@@ -7000,11 +6921,10 @@
         <v>67</v>
       </c>
       <c r="AI26" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
@@ -7101,11 +7021,10 @@
         <v>67</v>
       </c>
       <c r="AI27" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
         <v>127</v>
       </c>
@@ -7202,11 +7121,10 @@
         <v>67</v>
       </c>
       <c r="AI28" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
         <v>129</v>
       </c>
@@ -7302,11 +7220,10 @@
         <v>67</v>
       </c>
       <c r="AI29" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
         <v>131</v>
       </c>
@@ -7402,11 +7319,10 @@
         <v>67</v>
       </c>
       <c r="AI30" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>133</v>
       </c>
@@ -7502,11 +7418,10 @@
         <v>67</v>
       </c>
       <c r="AI31" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
         <v>136</v>
       </c>
@@ -7603,11 +7518,10 @@
         <v>79</v>
       </c>
       <c r="AI32" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>139</v>
       </c>
@@ -7704,11 +7618,10 @@
         <v>79</v>
       </c>
       <c r="AI33" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
         <v>141</v>
       </c>
@@ -7805,11 +7718,10 @@
         <v>67</v>
       </c>
       <c r="AI34" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -7906,11 +7818,10 @@
         <v>79</v>
       </c>
       <c r="AI35" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
         <v>147</v>
       </c>
@@ -8006,11 +7917,10 @@
         <v>67</v>
       </c>
       <c r="AI36" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>149</v>
       </c>
@@ -8107,11 +8017,10 @@
         <v>79</v>
       </c>
       <c r="AI37" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>151</v>
       </c>
@@ -8208,11 +8117,10 @@
         <v>79</v>
       </c>
       <c r="AI38" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>153</v>
       </c>
@@ -8308,11 +8216,10 @@
         <v>79</v>
       </c>
       <c r="AI39" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
         <v>155</v>
       </c>
@@ -8409,11 +8316,10 @@
         <v>67</v>
       </c>
       <c r="AI40" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
         <v>158</v>
       </c>
@@ -8510,11 +8416,10 @@
         <v>67</v>
       </c>
       <c r="AI41" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>160</v>
       </c>
@@ -8610,11 +8515,10 @@
         <v>67</v>
       </c>
       <c r="AI42" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
         <v>316</v>
       </c>
@@ -8713,11 +8617,10 @@
         <v>67</v>
       </c>
       <c r="AI43" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
         <v>323</v>
       </c>
@@ -8816,11 +8719,10 @@
         <v>67</v>
       </c>
       <c r="AI44" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
         <v>326</v>
       </c>
@@ -8919,11 +8821,10 @@
         <v>67</v>
       </c>
       <c r="AI45" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
         <v>327</v>
       </c>
@@ -9022,11 +8923,10 @@
         <v>67</v>
       </c>
       <c r="AI46" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
         <v>167</v>
       </c>
@@ -9123,11 +9023,10 @@
         <v>67</v>
       </c>
       <c r="AI47" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>169</v>
       </c>
@@ -9191,7 +9090,6 @@
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="6">
-        <f>'[2]комплекты фурнитуры'!$C$81</f>
         <v>1110</v>
       </c>
       <c r="W48" s="8">
@@ -9227,11 +9125,10 @@
         <v>79</v>
       </c>
       <c r="AI48" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>171</v>
       </c>
@@ -9295,7 +9192,6 @@
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="6">
-        <f>'[2]комплекты фурнитуры'!$C$81</f>
         <v>1110</v>
       </c>
       <c r="W49" s="8">
@@ -9331,11 +9227,10 @@
         <v>79</v>
       </c>
       <c r="AI49" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
         <v>173</v>
       </c>
@@ -9399,7 +9294,6 @@
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="6">
-        <f>'[2]комплекты фурнитуры'!$C$81</f>
         <v>1110</v>
       </c>
       <c r="W50" s="8">
@@ -9435,11 +9329,10 @@
         <v>79</v>
       </c>
       <c r="AI50" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
         <v>175</v>
       </c>
@@ -9503,7 +9396,6 @@
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="6">
-        <f>'[2]комплекты фурнитуры'!$C$81</f>
         <v>1110</v>
       </c>
       <c r="W51" s="8">
@@ -9539,11 +9431,10 @@
         <v>79</v>
       </c>
       <c r="AI51" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>133</v>
       </c>
@@ -9639,11 +9530,10 @@
         <v>67</v>
       </c>
       <c r="AI52" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="15" t="s">
         <v>178</v>
       </c>
@@ -9740,11 +9630,10 @@
         <v>67</v>
       </c>
       <c r="AI53" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>180</v>
       </c>
@@ -9841,11 +9730,10 @@
         <v>67</v>
       </c>
       <c r="AI54" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>183</v>
       </c>
@@ -9942,11 +9830,10 @@
         <v>67</v>
       </c>
       <c r="AI55" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
         <v>311</v>
       </c>
@@ -10047,11 +9934,10 @@
         <v>67</v>
       </c>
       <c r="AI56" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="17" t="s">
         <v>187</v>
       </c>
@@ -10148,11 +10034,10 @@
         <v>67</v>
       </c>
       <c r="AI57" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
         <v>189</v>
       </c>
@@ -10247,11 +10132,10 @@
         <v>67</v>
       </c>
       <c r="AI58" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>191</v>
       </c>
@@ -10346,11 +10230,10 @@
         <v>67</v>
       </c>
       <c r="AI59" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
         <v>193</v>
       </c>
@@ -10447,11 +10330,10 @@
         <v>67</v>
       </c>
       <c r="AI60" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
         <v>196</v>
       </c>
@@ -10548,11 +10430,10 @@
         <v>67</v>
       </c>
       <c r="AI61" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18" t="s">
         <v>198</v>
       </c>
@@ -10649,11 +10530,10 @@
         <v>67</v>
       </c>
       <c r="AI62" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
         <v>200</v>
       </c>
@@ -10750,11 +10630,10 @@
         <v>67</v>
       </c>
       <c r="AI63" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
         <v>312</v>
       </c>
@@ -10855,11 +10734,10 @@
         <v>67</v>
       </c>
       <c r="AI64" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
         <v>313</v>
       </c>
@@ -10960,11 +10838,10 @@
         <v>67</v>
       </c>
       <c r="AI65" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
         <v>314</v>
       </c>
@@ -11065,11 +10942,10 @@
         <v>67</v>
       </c>
       <c r="AI66" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
         <v>206</v>
       </c>
@@ -11168,11 +11044,10 @@
         <v>67</v>
       </c>
       <c r="AI67" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
         <v>208</v>
       </c>
@@ -11269,11 +11144,10 @@
         <v>67</v>
       </c>
       <c r="AI68" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="19" t="s">
         <v>210</v>
       </c>
@@ -11370,11 +11244,10 @@
         <v>79</v>
       </c>
       <c r="AI69" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19" t="s">
         <v>213</v>
       </c>
@@ -11471,11 +11344,10 @@
         <v>79</v>
       </c>
       <c r="AI70" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="19" t="s">
         <v>215</v>
       </c>
@@ -11572,11 +11444,10 @@
         <v>67</v>
       </c>
       <c r="AI71" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="19" t="s">
         <v>217</v>
       </c>
@@ -11673,11 +11544,10 @@
         <v>67</v>
       </c>
       <c r="AI72" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
         <v>219</v>
       </c>
@@ -11776,11 +11646,10 @@
         <v>67</v>
       </c>
       <c r="AI73" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
         <v>221</v>
       </c>
@@ -11879,11 +11748,10 @@
         <v>67</v>
       </c>
       <c r="AI74" s="8">
-        <f>IF(Прайс[[#This Row],[Наличие подсветки на нижнем горизонте]]="Нет",0,'[2]комплекты фурнитуры'!$C$91)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -11908,7 +11776,7 @@
       <c r="AE75" s="29"/>
       <c r="AF75" s="25"/>
     </row>
-    <row r="76" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -11933,11 +11801,11 @@
       <c r="AE76" s="29"/>
       <c r="AF76" s="25"/>
     </row>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M2:N74">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11958,12 +11826,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
         <v>251</v>
       </c>
@@ -11971,7 +11839,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>259</v>
       </c>
@@ -11979,7 +11847,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
         <v>260</v>
       </c>
@@ -12001,17 +11869,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.84375" style="33" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>223</v>
       </c>
@@ -12034,7 +11902,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -12049,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -12064,7 +11932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
@@ -12079,7 +11947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -12094,7 +11962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>72</v>
       </c>
@@ -12109,7 +11977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
@@ -12124,7 +11992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>329</v>
       </c>
@@ -12139,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>329</v>
       </c>
@@ -12154,7 +12022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -12169,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
@@ -12184,7 +12052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
@@ -12199,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>80</v>
       </c>
@@ -12214,7 +12082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>82</v>
       </c>
@@ -12229,7 +12097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
@@ -12244,7 +12112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>82</v>
       </c>
@@ -12259,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
@@ -12274,7 +12142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -12289,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -12304,7 +12172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -12319,7 +12187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -12334,7 +12202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
@@ -12349,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
@@ -12364,7 +12232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>87</v>
       </c>
@@ -12379,7 +12247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="37" t="s">
         <v>89</v>
       </c>
@@ -12394,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
         <v>89</v>
       </c>
@@ -12409,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="37" t="s">
         <v>89</v>
       </c>
@@ -12433,7 +12301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>91</v>
       </c>
@@ -12448,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>91</v>
       </c>
@@ -12463,7 +12331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -12478,7 +12346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
@@ -12493,7 +12361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -12508,7 +12376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -12523,7 +12391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
@@ -12538,7 +12406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>98</v>
       </c>
@@ -12553,7 +12421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
@@ -12568,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>100</v>
       </c>
@@ -12583,7 +12451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="11" t="s">
         <v>102</v>
       </c>
@@ -12598,7 +12466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>102</v>
       </c>
@@ -12613,7 +12481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
@@ -12628,7 +12496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -12643,7 +12511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -12658,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -12673,7 +12541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>111</v>
       </c>
@@ -12688,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>111</v>
       </c>
@@ -12703,7 +12571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12" t="s">
         <v>114</v>
       </c>
@@ -12718,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -12733,7 +12601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
         <v>116</v>
       </c>
@@ -12748,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="12" t="s">
         <v>116</v>
       </c>
@@ -12763,7 +12631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>116</v>
       </c>
@@ -12778,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>118</v>
       </c>
@@ -12793,7 +12661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>118</v>
       </c>
@@ -12808,7 +12676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>120</v>
       </c>
@@ -12823,7 +12691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>120</v>
       </c>
@@ -12838,7 +12706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
         <v>120</v>
       </c>
@@ -12853,7 +12721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="12" t="s">
         <v>122</v>
       </c>
@@ -12868,7 +12736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="12" t="s">
         <v>122</v>
       </c>
@@ -12883,7 +12751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="12" t="s">
         <v>122</v>
       </c>
@@ -12898,7 +12766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
         <v>330</v>
       </c>
@@ -12913,7 +12781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>330</v>
       </c>
@@ -12928,7 +12796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>330</v>
       </c>
@@ -12943,7 +12811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
         <v>125</v>
       </c>
@@ -12958,7 +12826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
         <v>125</v>
       </c>
@@ -12973,7 +12841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
         <v>125</v>
       </c>
@@ -12988,7 +12856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
         <v>127</v>
       </c>
@@ -13003,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
         <v>127</v>
       </c>
@@ -13018,7 +12886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
         <v>127</v>
       </c>
@@ -13033,7 +12901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="13" t="s">
         <v>129</v>
       </c>
@@ -13048,7 +12916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="13" t="s">
         <v>129</v>
       </c>
@@ -13063,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
         <v>129</v>
       </c>
@@ -13078,7 +12946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="13" t="s">
         <v>129</v>
       </c>
@@ -13093,7 +12961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="13" t="s">
         <v>131</v>
       </c>
@@ -13108,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
         <v>131</v>
       </c>
@@ -13123,7 +12991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
         <v>131</v>
       </c>
@@ -13138,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="13" t="s">
         <v>131</v>
       </c>
@@ -13153,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="14" t="s">
         <v>133</v>
       </c>
@@ -13168,7 +13036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
         <v>136</v>
       </c>
@@ -13183,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
         <v>136</v>
       </c>
@@ -13198,7 +13066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="14" t="s">
         <v>136</v>
       </c>
@@ -13213,7 +13081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="14" t="s">
         <v>139</v>
       </c>
@@ -13228,7 +13096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="14" t="s">
         <v>139</v>
       </c>
@@ -13243,7 +13111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="14" t="s">
         <v>139</v>
       </c>
@@ -13258,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="14" t="s">
         <v>141</v>
       </c>
@@ -13273,7 +13141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="14" t="s">
         <v>141</v>
       </c>
@@ -13288,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="14" t="s">
         <v>141</v>
       </c>
@@ -13303,7 +13171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
         <v>144</v>
       </c>
@@ -13318,7 +13186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="14" t="s">
         <v>144</v>
       </c>
@@ -13333,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="14" t="s">
         <v>144</v>
       </c>
@@ -13348,7 +13216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="14" t="s">
         <v>147</v>
       </c>
@@ -13363,7 +13231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="14" t="s">
         <v>147</v>
       </c>
@@ -13378,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="14" t="s">
         <v>147</v>
       </c>
@@ -13393,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="14" t="s">
         <v>149</v>
       </c>
@@ -13408,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="14" t="s">
         <v>149</v>
       </c>
@@ -13423,7 +13291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="14" t="s">
         <v>149</v>
       </c>
@@ -13438,7 +13306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="14" t="s">
         <v>151</v>
       </c>
@@ -13453,7 +13321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="14" t="s">
         <v>151</v>
       </c>
@@ -13468,7 +13336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="14" t="s">
         <v>151</v>
       </c>
@@ -13483,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="14" t="s">
         <v>153</v>
       </c>
@@ -13498,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="14" t="s">
         <v>153</v>
       </c>
@@ -13513,7 +13381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="14" t="s">
         <v>153</v>
       </c>
@@ -13528,7 +13396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="14" t="s">
         <v>153</v>
       </c>
@@ -13543,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>153</v>
       </c>
@@ -13558,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="15" t="s">
         <v>155</v>
       </c>
@@ -13573,7 +13441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="15" t="s">
         <v>155</v>
       </c>
@@ -13588,7 +13456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="15" t="s">
         <v>155</v>
       </c>
@@ -13603,7 +13471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="15" t="s">
         <v>158</v>
       </c>
@@ -13618,7 +13486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="15" t="s">
         <v>158</v>
       </c>
@@ -13633,7 +13501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="15" t="s">
         <v>158</v>
       </c>
@@ -13648,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="14" t="s">
         <v>160</v>
       </c>
@@ -13663,7 +13531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="14" t="s">
         <v>160</v>
       </c>
@@ -13678,7 +13546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="14" t="s">
         <v>160</v>
       </c>
@@ -13693,7 +13561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="14" t="s">
         <v>316</v>
       </c>
@@ -13708,7 +13576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="14" t="s">
         <v>316</v>
       </c>
@@ -13723,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
         <v>316</v>
       </c>
@@ -13738,7 +13606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="14" t="s">
         <v>323</v>
       </c>
@@ -13753,7 +13621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="14" t="s">
         <v>323</v>
       </c>
@@ -13768,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="14" t="s">
         <v>323</v>
       </c>
@@ -13783,7 +13651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="14" t="s">
         <v>326</v>
       </c>
@@ -13798,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="14" t="s">
         <v>326</v>
       </c>
@@ -13813,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="14" t="s">
         <v>326</v>
       </c>
@@ -13828,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="16" t="s">
         <v>327</v>
       </c>
@@ -13843,7 +13711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="16" t="s">
         <v>327</v>
       </c>
@@ -13858,7 +13726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="16" t="s">
         <v>327</v>
       </c>
@@ -13873,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="14" t="s">
         <v>167</v>
       </c>
@@ -13888,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="14" t="s">
         <v>167</v>
       </c>
@@ -13903,7 +13771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="14" t="s">
         <v>169</v>
       </c>
@@ -13918,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="14" t="s">
         <v>169</v>
       </c>
@@ -13933,7 +13801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="14" t="s">
         <v>169</v>
       </c>
@@ -13948,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="14" t="s">
         <v>171</v>
       </c>
@@ -13963,7 +13831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="14" t="s">
         <v>171</v>
       </c>
@@ -13978,7 +13846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="14" t="s">
         <v>171</v>
       </c>
@@ -13993,7 +13861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="14" t="s">
         <v>173</v>
       </c>
@@ -14008,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="14" t="s">
         <v>173</v>
       </c>
@@ -14023,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="14" t="s">
         <v>173</v>
       </c>
@@ -14038,7 +13906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="14" t="s">
         <v>175</v>
       </c>
@@ -14053,7 +13921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="14" t="s">
         <v>175</v>
       </c>
@@ -14068,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="14" t="s">
         <v>175</v>
       </c>
@@ -14083,7 +13951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="14" t="s">
         <v>175</v>
       </c>
@@ -14098,7 +13966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="14" t="s">
         <v>133</v>
       </c>
@@ -14113,7 +13981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="15" t="s">
         <v>178</v>
       </c>
@@ -14128,7 +13996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="15" t="s">
         <v>178</v>
       </c>
@@ -14143,7 +14011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="14" t="s">
         <v>180</v>
       </c>
@@ -14158,7 +14026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="14" t="s">
         <v>180</v>
       </c>
@@ -14173,7 +14041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="14" t="s">
         <v>183</v>
       </c>
@@ -14188,7 +14056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="14" t="s">
         <v>183</v>
       </c>
@@ -14203,7 +14071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="14" t="s">
         <v>183</v>
       </c>
@@ -14218,7 +14086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="14" t="s">
         <v>311</v>
       </c>
@@ -14233,7 +14101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="14" t="s">
         <v>311</v>
       </c>
@@ -14248,7 +14116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="17" t="s">
         <v>187</v>
       </c>
@@ -14263,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="17" t="s">
         <v>187</v>
       </c>
@@ -14278,7 +14146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="14" t="s">
         <v>189</v>
       </c>
@@ -14293,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="14" t="s">
         <v>189</v>
       </c>
@@ -14308,7 +14176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="14" t="s">
         <v>191</v>
       </c>
@@ -14323,7 +14191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="14" t="s">
         <v>191</v>
       </c>
@@ -14338,7 +14206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="14" t="s">
         <v>191</v>
       </c>
@@ -14353,7 +14221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="14" t="s">
         <v>193</v>
       </c>
@@ -14368,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="14" t="s">
         <v>193</v>
       </c>
@@ -14383,7 +14251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="14" t="s">
         <v>196</v>
       </c>
@@ -14398,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="14" t="s">
         <v>196</v>
       </c>
@@ -14413,7 +14281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="14" t="s">
         <v>196</v>
       </c>
@@ -14428,7 +14296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="18" t="s">
         <v>198</v>
       </c>
@@ -14443,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="18" t="s">
         <v>198</v>
       </c>
@@ -14458,7 +14326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="14" t="s">
         <v>200</v>
       </c>
@@ -14473,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="14" t="s">
         <v>200</v>
       </c>
@@ -14488,7 +14356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
         <v>312</v>
       </c>
@@ -14503,7 +14371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="14" t="s">
         <v>312</v>
       </c>
@@ -14518,7 +14386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="14" t="s">
         <v>312</v>
       </c>
@@ -14533,7 +14401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="14" t="s">
         <v>313</v>
       </c>
@@ -14548,7 +14416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="14" t="s">
         <v>313</v>
       </c>
@@ -14563,7 +14431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="14" t="s">
         <v>314</v>
       </c>
@@ -14578,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="14" t="s">
         <v>314</v>
       </c>
@@ -14593,7 +14461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="14" t="s">
         <v>206</v>
       </c>
@@ -14608,7 +14476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="14" t="s">
         <v>206</v>
       </c>
@@ -14623,7 +14491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="14" t="s">
         <v>206</v>
       </c>
@@ -14638,7 +14506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="14" t="s">
         <v>208</v>
       </c>
@@ -14653,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="14" t="s">
         <v>208</v>
       </c>
@@ -14668,7 +14536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="19" t="s">
         <v>210</v>
       </c>
@@ -14683,7 +14551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="19" t="s">
         <v>210</v>
       </c>
@@ -14698,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="19" t="s">
         <v>210</v>
       </c>
@@ -14713,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="19" t="s">
         <v>213</v>
       </c>
@@ -14728,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="19" t="s">
         <v>213</v>
       </c>
@@ -14743,7 +14611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="19" t="s">
         <v>213</v>
       </c>
@@ -14758,7 +14626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="19" t="s">
         <v>215</v>
       </c>
@@ -14773,7 +14641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="19" t="s">
         <v>215</v>
       </c>
@@ -14788,7 +14656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="19" t="s">
         <v>215</v>
       </c>
@@ -14803,7 +14671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="19" t="s">
         <v>217</v>
       </c>
@@ -14818,7 +14686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="19" t="s">
         <v>217</v>
       </c>
@@ -14833,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="19" t="s">
         <v>217</v>
       </c>
@@ -14848,7 +14716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="13" t="s">
         <v>219</v>
       </c>
@@ -14863,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="13" t="s">
         <v>219</v>
       </c>
@@ -14878,7 +14746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="13" t="s">
         <v>221</v>
       </c>
@@ -14893,7 +14761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="13" t="s">
         <v>221</v>
       </c>
@@ -14908,7 +14776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193" s="33"/>
@@ -14917,7 +14785,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194" s="33"/>
@@ -14944,19 +14812,19 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="21.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.3828125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="28.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>223</v>
       </c>
@@ -14985,7 +14853,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="40" t="s">
         <v>69</v>
       </c>
@@ -15007,7 +14875,7 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -15029,7 +14897,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
         <v>69</v>
       </c>
@@ -15051,7 +14919,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40" t="s">
         <v>72</v>
       </c>
@@ -15073,7 +14941,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="40" t="s">
         <v>72</v>
       </c>
@@ -15095,7 +14963,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
         <v>72</v>
       </c>
@@ -15117,7 +14985,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40" t="s">
         <v>329</v>
       </c>
@@ -15141,7 +15009,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40" t="s">
         <v>329</v>
       </c>
@@ -15165,7 +15033,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="40" t="s">
         <v>76</v>
       </c>
@@ -15187,7 +15055,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="40" t="s">
         <v>76</v>
       </c>
@@ -15209,7 +15077,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
         <v>76</v>
       </c>
@@ -15231,7 +15099,7 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="40" t="s">
         <v>80</v>
       </c>
@@ -15253,7 +15121,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="40" t="s">
         <v>80</v>
       </c>
@@ -15275,7 +15143,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40" t="s">
         <v>80</v>
       </c>
@@ -15297,7 +15165,7 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="40" t="s">
         <v>82</v>
       </c>
@@ -15319,7 +15187,7 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40" t="s">
         <v>82</v>
       </c>
@@ -15341,7 +15209,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="40" t="s">
         <v>82</v>
       </c>
@@ -15363,7 +15231,7 @@
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="44" t="s">
         <v>85</v>
       </c>
@@ -15385,7 +15253,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="44" t="s">
         <v>85</v>
       </c>
@@ -15407,7 +15275,7 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44" t="s">
         <v>85</v>
       </c>
@@ -15429,7 +15297,7 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="40" t="s">
         <v>87</v>
       </c>
@@ -15451,7 +15319,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="40" t="s">
         <v>87</v>
       </c>
@@ -15473,7 +15341,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="40" t="s">
         <v>87</v>
       </c>
@@ -15495,7 +15363,7 @@
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
         <v>89</v>
       </c>
@@ -15517,7 +15385,7 @@
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="44" t="s">
         <v>89</v>
       </c>
@@ -15539,7 +15407,7 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="44" t="s">
         <v>89</v>
       </c>
@@ -15561,7 +15429,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="40" t="s">
         <v>91</v>
       </c>
@@ -15583,7 +15451,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="40" t="s">
         <v>91</v>
       </c>
@@ -15605,7 +15473,7 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="40" t="s">
         <v>91</v>
       </c>
@@ -15627,7 +15495,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="40" t="s">
         <v>91</v>
       </c>
@@ -15649,7 +15517,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="40" t="s">
         <v>91</v>
       </c>
@@ -15671,7 +15539,7 @@
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="40" t="s">
         <v>94</v>
       </c>
@@ -15693,7 +15561,7 @@
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="40" t="s">
         <v>94</v>
       </c>
@@ -15715,7 +15583,7 @@
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="40" t="s">
         <v>94</v>
       </c>
@@ -15737,7 +15605,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="40" t="s">
         <v>94</v>
       </c>
@@ -15759,7 +15627,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="40" t="s">
         <v>94</v>
       </c>
@@ -15781,7 +15649,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="44" t="s">
         <v>96</v>
       </c>
@@ -15803,7 +15671,7 @@
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="44" t="s">
         <v>96</v>
       </c>
@@ -15825,7 +15693,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="44" t="s">
         <v>96</v>
       </c>
@@ -15847,7 +15715,7 @@
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="44" t="s">
         <v>96</v>
       </c>
@@ -15869,7 +15737,7 @@
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="44" t="s">
         <v>98</v>
       </c>
@@ -15891,7 +15759,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="44" t="s">
         <v>98</v>
       </c>
@@ -15913,7 +15781,7 @@
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="44" t="s">
         <v>98</v>
       </c>
@@ -15935,7 +15803,7 @@
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="44" t="s">
         <v>98</v>
       </c>
@@ -15957,7 +15825,7 @@
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="44" t="s">
         <v>98</v>
       </c>
@@ -15979,7 +15847,7 @@
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="44" t="s">
         <v>98</v>
       </c>
@@ -16001,7 +15869,7 @@
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="44" t="s">
         <v>98</v>
       </c>
@@ -16023,7 +15891,7 @@
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="44" t="s">
         <v>100</v>
       </c>
@@ -16045,7 +15913,7 @@
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="44" t="s">
         <v>100</v>
       </c>
@@ -16067,7 +15935,7 @@
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="44" t="s">
         <v>100</v>
       </c>
@@ -16089,7 +15957,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="44" t="s">
         <v>100</v>
       </c>
@@ -16111,7 +15979,7 @@
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="45" t="s">
         <v>102</v>
       </c>
@@ -16133,7 +16001,7 @@
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="45" t="s">
         <v>102</v>
       </c>
@@ -16155,7 +16023,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="44" t="s">
         <v>105</v>
       </c>
@@ -16177,7 +16045,7 @@
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="44" t="s">
         <v>105</v>
       </c>
@@ -16199,7 +16067,7 @@
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="44" t="s">
         <v>108</v>
       </c>
@@ -16221,7 +16089,7 @@
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="44" t="s">
         <v>108</v>
       </c>
@@ -16243,7 +16111,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="44" t="s">
         <v>108</v>
       </c>
@@ -16265,7 +16133,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="46" t="s">
         <v>114</v>
       </c>
@@ -16287,7 +16155,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46" t="s">
         <v>114</v>
       </c>
@@ -16309,7 +16177,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="46" t="s">
         <v>116</v>
       </c>
@@ -16331,7 +16199,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="46" t="s">
         <v>118</v>
       </c>
@@ -16353,7 +16221,7 @@
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="46" t="s">
         <v>120</v>
       </c>
@@ -16375,7 +16243,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="46" t="s">
         <v>122</v>
       </c>
@@ -16397,7 +16265,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="46" t="s">
         <v>122</v>
       </c>
@@ -16419,7 +16287,7 @@
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="46" t="s">
         <v>330</v>
       </c>
@@ -16443,7 +16311,7 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="40" t="s">
         <v>330</v>
       </c>
@@ -16467,7 +16335,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="43" t="s">
         <v>125</v>
       </c>
@@ -16489,7 +16357,7 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="43" t="s">
         <v>125</v>
       </c>
@@ -16511,7 +16379,7 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="43" t="s">
         <v>127</v>
       </c>
@@ -16533,7 +16401,7 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="43" t="s">
         <v>127</v>
       </c>
@@ -16555,7 +16423,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="43" t="s">
         <v>129</v>
       </c>
@@ -16577,7 +16445,7 @@
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="43" t="s">
         <v>131</v>
       </c>
@@ -16599,7 +16467,7 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="47" t="s">
         <v>139</v>
       </c>
@@ -16627,7 +16495,7 @@
       </c>
       <c r="I75" s="38"/>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="47" t="s">
         <v>139</v>
       </c>
@@ -16655,7 +16523,7 @@
       </c>
       <c r="I76" s="38"/>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="47" t="s">
         <v>139</v>
       </c>
@@ -16683,7 +16551,7 @@
       </c>
       <c r="I77" s="38"/>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="47" t="s">
         <v>141</v>
       </c>
@@ -16705,7 +16573,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="47" t="s">
         <v>141</v>
       </c>
@@ -16727,7 +16595,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="47" t="s">
         <v>141</v>
       </c>
@@ -16749,7 +16617,7 @@
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="47" t="s">
         <v>144</v>
       </c>
@@ -16777,7 +16645,7 @@
       </c>
       <c r="I81" s="38"/>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="47" t="s">
         <v>144</v>
       </c>
@@ -16799,7 +16667,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="47" t="s">
         <v>144</v>
       </c>
@@ -16821,7 +16689,7 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="47" t="s">
         <v>144</v>
       </c>
@@ -16843,7 +16711,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="47" t="s">
         <v>144</v>
       </c>
@@ -16865,7 +16733,7 @@
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="47" t="s">
         <v>147</v>
       </c>
@@ -16893,7 +16761,7 @@
       </c>
       <c r="I86" s="38"/>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="47" t="s">
         <v>147</v>
       </c>
@@ -16915,7 +16783,7 @@
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="47" t="s">
         <v>147</v>
       </c>
@@ -16937,7 +16805,7 @@
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="47" t="s">
         <v>147</v>
       </c>
@@ -16959,7 +16827,7 @@
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="47" t="s">
         <v>147</v>
       </c>
@@ -16981,7 +16849,7 @@
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="47" t="s">
         <v>149</v>
       </c>
@@ -17009,7 +16877,7 @@
       </c>
       <c r="I91" s="38"/>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="47" t="s">
         <v>149</v>
       </c>
@@ -17037,7 +16905,7 @@
       </c>
       <c r="I92" s="38"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="47" t="s">
         <v>149</v>
       </c>
@@ -17065,7 +16933,7 @@
       </c>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="47" t="s">
         <v>151</v>
       </c>
@@ -17087,7 +16955,7 @@
       <c r="H94" s="38"/>
       <c r="I94" s="38"/>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="47" t="s">
         <v>153</v>
       </c>
@@ -17115,7 +16983,7 @@
       </c>
       <c r="I95" s="38"/>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="47" t="s">
         <v>153</v>
       </c>
@@ -17143,7 +17011,7 @@
       </c>
       <c r="I96" s="38"/>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="47" t="s">
         <v>153</v>
       </c>
@@ -17171,7 +17039,7 @@
       </c>
       <c r="I97" s="38"/>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="49" t="s">
         <v>155</v>
       </c>
@@ -17199,7 +17067,7 @@
       </c>
       <c r="I98" s="38"/>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="49" t="s">
         <v>155</v>
       </c>
@@ -17227,7 +17095,7 @@
       </c>
       <c r="I99" s="38"/>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="49" t="s">
         <v>155</v>
       </c>
@@ -17255,7 +17123,7 @@
       </c>
       <c r="I100" s="38"/>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="49" t="s">
         <v>158</v>
       </c>
@@ -17283,7 +17151,7 @@
       </c>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="49" t="s">
         <v>158</v>
       </c>
@@ -17311,7 +17179,7 @@
       </c>
       <c r="I102" s="38"/>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="49" t="s">
         <v>158</v>
       </c>
@@ -17339,7 +17207,7 @@
       </c>
       <c r="I103" s="38"/>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="47" t="s">
         <v>160</v>
       </c>
@@ -17361,7 +17229,7 @@
       <c r="H104" s="38"/>
       <c r="I104" s="38"/>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="47" t="s">
         <v>160</v>
       </c>
@@ -17383,7 +17251,7 @@
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="47" t="s">
         <v>160</v>
       </c>
@@ -17405,7 +17273,7 @@
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="47" t="s">
         <v>316</v>
       </c>
@@ -17433,7 +17301,7 @@
       </c>
       <c r="I107" s="38"/>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="47" t="s">
         <v>316</v>
       </c>
@@ -17457,7 +17325,7 @@
       <c r="H108" s="38"/>
       <c r="I108" s="38"/>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="47" t="s">
         <v>316</v>
       </c>
@@ -17485,7 +17353,7 @@
       </c>
       <c r="I109" s="38"/>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="47" t="s">
         <v>316</v>
       </c>
@@ -17509,7 +17377,7 @@
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="47" t="s">
         <v>316</v>
       </c>
@@ -17537,7 +17405,7 @@
       </c>
       <c r="I111" s="38"/>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="47" t="s">
         <v>316</v>
       </c>
@@ -17561,7 +17429,7 @@
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="47" t="s">
         <v>316</v>
       </c>
@@ -17585,7 +17453,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="47" t="s">
         <v>316</v>
       </c>
@@ -17609,7 +17477,7 @@
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="47" t="s">
         <v>316</v>
       </c>
@@ -17633,7 +17501,7 @@
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="47" t="s">
         <v>323</v>
       </c>
@@ -17661,7 +17529,7 @@
       </c>
       <c r="I116" s="38"/>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="47" t="s">
         <v>323</v>
       </c>
@@ -17685,7 +17553,7 @@
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="47" t="s">
         <v>323</v>
       </c>
@@ -17713,7 +17581,7 @@
       </c>
       <c r="I118" s="38"/>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="47" t="s">
         <v>323</v>
       </c>
@@ -17741,7 +17609,7 @@
       </c>
       <c r="I119" s="38"/>
     </row>
-    <row r="120" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="47" t="s">
         <v>323</v>
       </c>
@@ -17765,7 +17633,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
     </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="47" t="s">
         <v>323</v>
       </c>
@@ -17789,7 +17657,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
     </row>
-    <row r="122" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="47" t="s">
         <v>323</v>
       </c>
@@ -17813,7 +17681,7 @@
       <c r="H122" s="38"/>
       <c r="I122" s="38"/>
     </row>
-    <row r="123" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="47" t="s">
         <v>323</v>
       </c>
@@ -17837,7 +17705,7 @@
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
     </row>
-    <row r="124" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="47" t="s">
         <v>323</v>
       </c>
@@ -17861,7 +17729,7 @@
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
     </row>
-    <row r="125" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="47" t="s">
         <v>323</v>
       </c>
@@ -17885,7 +17753,7 @@
       <c r="H125" s="38"/>
       <c r="I125" s="38"/>
     </row>
-    <row r="126" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="47" t="s">
         <v>326</v>
       </c>
@@ -17909,7 +17777,7 @@
       <c r="H126" s="38"/>
       <c r="I126" s="38"/>
     </row>
-    <row r="127" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="47" t="s">
         <v>326</v>
       </c>
@@ -17931,7 +17799,7 @@
       <c r="H127" s="38"/>
       <c r="I127" s="38"/>
     </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="47" t="s">
         <v>326</v>
       </c>
@@ -17959,7 +17827,7 @@
       </c>
       <c r="I128" s="38"/>
     </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="50" t="s">
         <v>327</v>
       </c>
@@ -17983,7 +17851,7 @@
       <c r="H129" s="38"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="50" t="s">
         <v>327</v>
       </c>
@@ -18007,7 +17875,7 @@
       <c r="H130" s="38"/>
       <c r="I130" s="38"/>
     </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="50" t="s">
         <v>327</v>
       </c>
@@ -18031,7 +17899,7 @@
       <c r="H131" s="38"/>
       <c r="I131" s="38"/>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="47" t="s">
         <v>167</v>
       </c>
@@ -18059,7 +17927,7 @@
       </c>
       <c r="I132" s="38"/>
     </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="47" t="s">
         <v>167</v>
       </c>
@@ -18087,7 +17955,7 @@
       </c>
       <c r="I133" s="38"/>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="47" t="s">
         <v>167</v>
       </c>
@@ -18115,7 +17983,7 @@
       </c>
       <c r="I134" s="38"/>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="47" t="s">
         <v>169</v>
       </c>
@@ -18143,7 +18011,7 @@
       </c>
       <c r="I135" s="38"/>
     </row>
-    <row r="136" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="47" t="s">
         <v>169</v>
       </c>
@@ -18171,7 +18039,7 @@
       </c>
       <c r="I136" s="38"/>
     </row>
-    <row r="137" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="47" t="s">
         <v>171</v>
       </c>
@@ -18199,7 +18067,7 @@
       </c>
       <c r="I137" s="38"/>
     </row>
-    <row r="138" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="47" t="s">
         <v>171</v>
       </c>
@@ -18227,7 +18095,7 @@
       </c>
       <c r="I138" s="38"/>
     </row>
-    <row r="139" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="47" t="s">
         <v>173</v>
       </c>
@@ -18249,7 +18117,7 @@
       <c r="H139" s="38"/>
       <c r="I139" s="38"/>
     </row>
-    <row r="140" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="47" t="s">
         <v>175</v>
       </c>
@@ -18277,7 +18145,7 @@
       </c>
       <c r="I140" s="38"/>
     </row>
-    <row r="141" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="47" t="s">
         <v>175</v>
       </c>
@@ -18305,7 +18173,7 @@
       </c>
       <c r="I141" s="38"/>
     </row>
-    <row r="142" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="49" t="s">
         <v>178</v>
       </c>
@@ -18327,7 +18195,7 @@
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
     </row>
-    <row r="143" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="49" t="s">
         <v>178</v>
       </c>
@@ -18349,7 +18217,7 @@
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
     </row>
-    <row r="144" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="49" t="s">
         <v>178</v>
       </c>
@@ -18371,7 +18239,7 @@
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
     </row>
-    <row r="145" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="47" t="s">
         <v>180</v>
       </c>
@@ -18393,7 +18261,7 @@
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
     </row>
-    <row r="146" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="47" t="s">
         <v>180</v>
       </c>
@@ -18415,7 +18283,7 @@
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
     </row>
-    <row r="147" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="47" t="s">
         <v>180</v>
       </c>
@@ -18437,7 +18305,7 @@
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
     </row>
-    <row r="148" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="47" t="s">
         <v>183</v>
       </c>
@@ -18459,7 +18327,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
     </row>
-    <row r="149" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="47" t="s">
         <v>311</v>
       </c>
@@ -18481,7 +18349,7 @@
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
     </row>
-    <row r="150" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="47" t="s">
         <v>311</v>
       </c>
@@ -18503,7 +18371,7 @@
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
     </row>
-    <row r="151" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="47" t="s">
         <v>311</v>
       </c>
@@ -18525,7 +18393,7 @@
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
     </row>
-    <row r="152" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="51" t="s">
         <v>187</v>
       </c>
@@ -18547,7 +18415,7 @@
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
     </row>
-    <row r="153" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="51" t="s">
         <v>187</v>
       </c>
@@ -18569,7 +18437,7 @@
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
     </row>
-    <row r="154" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="51" t="s">
         <v>187</v>
       </c>
@@ -18591,7 +18459,7 @@
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
     </row>
-    <row r="155" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="51" t="s">
         <v>187</v>
       </c>
@@ -18613,7 +18481,7 @@
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
     </row>
-    <row r="156" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="47" t="s">
         <v>189</v>
       </c>
@@ -18641,7 +18509,7 @@
       </c>
       <c r="I156" s="38"/>
     </row>
-    <row r="157" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="47" t="s">
         <v>189</v>
       </c>
@@ -18669,7 +18537,7 @@
       </c>
       <c r="I157" s="38"/>
     </row>
-    <row r="158" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="47" t="s">
         <v>189</v>
       </c>
@@ -18697,7 +18565,7 @@
       </c>
       <c r="I158" s="38"/>
     </row>
-    <row r="159" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="47" t="s">
         <v>191</v>
       </c>
@@ -18725,7 +18593,7 @@
       </c>
       <c r="I159" s="38"/>
     </row>
-    <row r="160" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="47" t="s">
         <v>193</v>
       </c>
@@ -18753,7 +18621,7 @@
       </c>
       <c r="I160" s="38"/>
     </row>
-    <row r="161" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="47" t="s">
         <v>193</v>
       </c>
@@ -18781,7 +18649,7 @@
       </c>
       <c r="I161" s="38"/>
     </row>
-    <row r="162" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="47" t="s">
         <v>196</v>
       </c>
@@ -18809,7 +18677,7 @@
       </c>
       <c r="I162" s="38"/>
     </row>
-    <row r="163" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="52" t="s">
         <v>198</v>
       </c>
@@ -18831,7 +18699,7 @@
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
     </row>
-    <row r="164" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="52" t="s">
         <v>198</v>
       </c>
@@ -18853,7 +18721,7 @@
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
     </row>
-    <row r="165" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="52" t="s">
         <v>198</v>
       </c>
@@ -18881,7 +18749,7 @@
       </c>
       <c r="I165" s="38"/>
     </row>
-    <row r="166" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="52" t="s">
         <v>198</v>
       </c>
@@ -18903,7 +18771,7 @@
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
     </row>
-    <row r="167" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="52" t="s">
         <v>198</v>
       </c>
@@ -18925,7 +18793,7 @@
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
     </row>
-    <row r="168" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="52" t="s">
         <v>198</v>
       </c>
@@ -18947,7 +18815,7 @@
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
     </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="52" t="s">
         <v>198</v>
       </c>
@@ -18975,7 +18843,7 @@
       </c>
       <c r="I169" s="38"/>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="52" t="s">
         <v>198</v>
       </c>
@@ -18997,7 +18865,7 @@
       <c r="H170" s="38"/>
       <c r="I170" s="38"/>
     </row>
-    <row r="171" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="52" t="s">
         <v>198</v>
       </c>
@@ -19019,7 +18887,7 @@
       <c r="H171" s="38"/>
       <c r="I171" s="38"/>
     </row>
-    <row r="172" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="52" t="s">
         <v>198</v>
       </c>
@@ -19047,7 +18915,7 @@
       </c>
       <c r="I172" s="38"/>
     </row>
-    <row r="173" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="47" t="s">
         <v>200</v>
       </c>
@@ -19069,7 +18937,7 @@
       <c r="H173" s="38"/>
       <c r="I173" s="38"/>
     </row>
-    <row r="174" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="47" t="s">
         <v>200</v>
       </c>
@@ -19097,7 +18965,7 @@
       </c>
       <c r="I174" s="38"/>
     </row>
-    <row r="175" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="47" t="s">
         <v>200</v>
       </c>
@@ -19119,7 +18987,7 @@
       <c r="H175" s="38"/>
       <c r="I175" s="38"/>
     </row>
-    <row r="176" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="47" t="s">
         <v>200</v>
       </c>
@@ -19141,7 +19009,7 @@
       <c r="H176" s="38"/>
       <c r="I176" s="38"/>
     </row>
-    <row r="177" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="47" t="s">
         <v>200</v>
       </c>
@@ -19169,7 +19037,7 @@
       </c>
       <c r="I177" s="38"/>
     </row>
-    <row r="178" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="47" t="s">
         <v>200</v>
       </c>
@@ -19191,7 +19059,7 @@
       <c r="H178" s="38"/>
       <c r="I178" s="38"/>
     </row>
-    <row r="179" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="47" t="s">
         <v>200</v>
       </c>
@@ -19219,7 +19087,7 @@
       </c>
       <c r="I179" s="38"/>
     </row>
-    <row r="180" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="47" t="s">
         <v>312</v>
       </c>
@@ -19247,7 +19115,7 @@
       </c>
       <c r="I180" s="38"/>
     </row>
-    <row r="181" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="47" t="s">
         <v>313</v>
       </c>
@@ -19269,7 +19137,7 @@
       <c r="H181" s="38"/>
       <c r="I181" s="38"/>
     </row>
-    <row r="182" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="47" t="s">
         <v>313</v>
       </c>
@@ -19297,7 +19165,7 @@
       </c>
       <c r="I182" s="38"/>
     </row>
-    <row r="183" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="47" t="s">
         <v>313</v>
       </c>
@@ -19319,7 +19187,7 @@
       <c r="H183" s="38"/>
       <c r="I183" s="38"/>
     </row>
-    <row r="184" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="47" t="s">
         <v>313</v>
       </c>
@@ -19341,7 +19209,7 @@
       <c r="H184" s="38"/>
       <c r="I184" s="38"/>
     </row>
-    <row r="185" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="47" t="s">
         <v>313</v>
       </c>
@@ -19369,7 +19237,7 @@
       </c>
       <c r="I185" s="38"/>
     </row>
-    <row r="186" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="47" t="s">
         <v>313</v>
       </c>
@@ -19391,7 +19259,7 @@
       <c r="H186" s="38"/>
       <c r="I186" s="38"/>
     </row>
-    <row r="187" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="47" t="s">
         <v>313</v>
       </c>
@@ -19419,7 +19287,7 @@
       </c>
       <c r="I187" s="38"/>
     </row>
-    <row r="188" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="47" t="s">
         <v>313</v>
       </c>
@@ -19447,7 +19315,7 @@
       </c>
       <c r="I188" s="38"/>
     </row>
-    <row r="189" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="47" t="s">
         <v>313</v>
       </c>
@@ -19469,7 +19337,7 @@
       <c r="H189" s="38"/>
       <c r="I189" s="38"/>
     </row>
-    <row r="190" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="47" t="s">
         <v>313</v>
       </c>
@@ -19491,7 +19359,7 @@
       <c r="H190" s="38"/>
       <c r="I190" s="38"/>
     </row>
-    <row r="191" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="47" t="s">
         <v>313</v>
       </c>
@@ -19513,7 +19381,7 @@
       <c r="H191" s="38"/>
       <c r="I191" s="38"/>
     </row>
-    <row r="192" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="13" t="s">
         <v>314</v>
       </c>
@@ -19541,7 +19409,7 @@
       </c>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="13" t="s">
         <v>314</v>
       </c>
@@ -19563,7 +19431,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="13" t="s">
         <v>314</v>
       </c>
@@ -19585,7 +19453,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="13" t="s">
         <v>314</v>
       </c>
@@ -19607,7 +19475,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="13" t="s">
         <v>314</v>
       </c>
@@ -19629,7 +19497,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="13" t="s">
         <v>314</v>
       </c>
@@ -19651,7 +19519,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="47" t="s">
         <v>206</v>
       </c>
@@ -19681,7 +19549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="47" t="s">
         <v>206</v>
       </c>
@@ -19703,7 +19571,7 @@
       <c r="H199" s="38"/>
       <c r="I199" s="38"/>
     </row>
-    <row r="200" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="47" t="s">
         <v>208</v>
       </c>
@@ -19725,7 +19593,7 @@
       <c r="H200" s="38"/>
       <c r="I200" s="38"/>
     </row>
-    <row r="201" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="47" t="s">
         <v>208</v>
       </c>
@@ -19747,7 +19615,7 @@
       <c r="H201" s="38"/>
       <c r="I201" s="38"/>
     </row>
-    <row r="202" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="47" t="s">
         <v>208</v>
       </c>
@@ -19769,7 +19637,7 @@
       <c r="H202" s="38"/>
       <c r="I202" s="38"/>
     </row>
-    <row r="203" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="47" t="s">
         <v>208</v>
       </c>
@@ -19791,7 +19659,7 @@
       <c r="H203" s="38"/>
       <c r="I203" s="38"/>
     </row>
-    <row r="204" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="53" t="s">
         <v>210</v>
       </c>
@@ -19819,7 +19687,7 @@
       </c>
       <c r="I204" s="38"/>
     </row>
-    <row r="205" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="53" t="s">
         <v>210</v>
       </c>
@@ -19847,7 +19715,7 @@
       </c>
       <c r="I205" s="38"/>
     </row>
-    <row r="206" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="53" t="s">
         <v>210</v>
       </c>
@@ -19875,7 +19743,7 @@
       </c>
       <c r="I206" s="38"/>
     </row>
-    <row r="207" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="53" t="s">
         <v>210</v>
       </c>
@@ -19903,7 +19771,7 @@
       </c>
       <c r="I207" s="38"/>
     </row>
-    <row r="208" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="53" t="s">
         <v>210</v>
       </c>
@@ -19931,7 +19799,7 @@
       </c>
       <c r="I208" s="38"/>
     </row>
-    <row r="209" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="53" t="s">
         <v>213</v>
       </c>
@@ -19959,7 +19827,7 @@
       </c>
       <c r="I209" s="38"/>
     </row>
-    <row r="210" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="53" t="s">
         <v>213</v>
       </c>
@@ -19987,7 +19855,7 @@
       </c>
       <c r="I210" s="38"/>
     </row>
-    <row r="211" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="53" t="s">
         <v>213</v>
       </c>
@@ -20015,7 +19883,7 @@
       </c>
       <c r="I211" s="38"/>
     </row>
-    <row r="212" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="53" t="s">
         <v>213</v>
       </c>
@@ -20043,7 +19911,7 @@
       </c>
       <c r="I212" s="38"/>
     </row>
-    <row r="213" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="53" t="s">
         <v>213</v>
       </c>
@@ -20071,7 +19939,7 @@
       </c>
       <c r="I213" s="38"/>
     </row>
-    <row r="214" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="53" t="s">
         <v>215</v>
       </c>
@@ -20099,7 +19967,7 @@
       </c>
       <c r="I214" s="38"/>
     </row>
-    <row r="215" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="53" t="s">
         <v>215</v>
       </c>
@@ -20127,7 +19995,7 @@
       </c>
       <c r="I215" s="38"/>
     </row>
-    <row r="216" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="53" t="s">
         <v>215</v>
       </c>
@@ -20155,7 +20023,7 @@
       </c>
       <c r="I216" s="38"/>
     </row>
-    <row r="217" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="53" t="s">
         <v>217</v>
       </c>
@@ -20183,7 +20051,7 @@
       </c>
       <c r="I217" s="38"/>
     </row>
-    <row r="218" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="53" t="s">
         <v>217</v>
       </c>
@@ -20211,7 +20079,7 @@
       </c>
       <c r="I218" s="38"/>
     </row>
-    <row r="219" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="53" t="s">
         <v>217</v>
       </c>
@@ -20239,7 +20107,7 @@
       </c>
       <c r="I219" s="38"/>
     </row>
-    <row r="220" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="43" t="s">
         <v>219</v>
       </c>
@@ -20267,7 +20135,7 @@
       </c>
       <c r="I220" s="38"/>
     </row>
-    <row r="221" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="43" t="s">
         <v>219</v>
       </c>
@@ -20295,7 +20163,7 @@
       </c>
       <c r="I221" s="38"/>
     </row>
-    <row r="222" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="43" t="s">
         <v>219</v>
       </c>
@@ -20323,7 +20191,7 @@
       </c>
       <c r="I222" s="38"/>
     </row>
-    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A223" s="43" t="s">
         <v>221</v>
       </c>
@@ -20353,7 +20221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A224" s="43" t="s">
         <v>221</v>
       </c>
@@ -20375,7 +20243,7 @@
       <c r="H224" s="38"/>
       <c r="I224" s="38"/>
     </row>
-    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A225" s="43" t="s">
         <v>221</v>
       </c>
@@ -20405,7 +20273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A226" s="43" t="s">
         <v>221</v>
       </c>
@@ -20427,7 +20295,7 @@
       <c r="H226" s="38"/>
       <c r="I226" s="38"/>
     </row>
-    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A227" s="43" t="s">
         <v>221</v>
       </c>
@@ -20449,7 +20317,7 @@
       <c r="H227" s="38"/>
       <c r="I227" s="38"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="43" t="s">
         <v>221</v>
       </c>
@@ -20479,7 +20347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="43" t="s">
         <v>221</v>
       </c>
@@ -20518,14 +20386,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="30"/>
+    <col min="1" max="1" width="100.3828125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.84375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>224</v>
       </c>
@@ -20536,7 +20404,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
@@ -20547,7 +20415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -20558,7 +20426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -20569,7 +20437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
@@ -20580,7 +20448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
@@ -20591,7 +20459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
@@ -20602,7 +20470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
@@ -20613,7 +20481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
@@ -20624,7 +20492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
@@ -20635,7 +20503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
@@ -20646,7 +20514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
@@ -20657,7 +20525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
@@ -20668,7 +20536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
@@ -20679,7 +20547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="30" t="s">
         <v>2</v>
       </c>
@@ -20690,7 +20558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="30" t="s">
         <v>58</v>
       </c>
@@ -20701,7 +20569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
@@ -20712,7 +20580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
         <v>52</v>
       </c>
@@ -20723,7 +20591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="30" t="s">
         <v>57</v>
       </c>
@@ -20734,7 +20602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="30" t="s">
         <v>59</v>
       </c>
@@ -20745,7 +20613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="30" t="s">
         <v>226</v>
       </c>
@@ -20756,7 +20624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
@@ -20767,7 +20635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="30" t="s">
         <v>17</v>
       </c>
@@ -20778,7 +20646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
@@ -20789,7 +20657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
@@ -20800,7 +20668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
@@ -20811,7 +20679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
@@ -20822,7 +20690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="30" t="s">
         <v>23</v>
       </c>
@@ -20833,7 +20701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="30" t="s">
         <v>24</v>
       </c>
@@ -20844,7 +20712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="30" t="s">
         <v>25</v>
       </c>
@@ -20855,7 +20723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="30" t="s">
         <v>26</v>
       </c>
@@ -20866,7 +20734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="30" t="s">
         <v>36</v>
       </c>
@@ -20877,7 +20745,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
@@ -20888,7 +20756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="30" t="s">
         <v>40</v>
       </c>
@@ -20899,7 +20767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
@@ -20910,7 +20778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="30" t="s">
         <v>37</v>
       </c>
@@ -20921,7 +20789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="30" t="s">
         <v>39</v>
       </c>
@@ -20932,7 +20800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="30" t="s">
         <v>42</v>
       </c>
@@ -20943,7 +20811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="30" t="s">
         <v>53</v>
       </c>
@@ -20954,7 +20822,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -20965,7 +20833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>235</v>
       </c>
@@ -20976,7 +20844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
         <v>27</v>
       </c>
@@ -20987,7 +20855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
         <v>29</v>
       </c>
@@ -20998,7 +20866,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>28</v>
       </c>
@@ -21009,7 +20877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="30" t="s">
         <v>30</v>
       </c>
@@ -21020,7 +20888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="30" t="s">
         <v>31</v>
       </c>
@@ -21031,7 +20899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="30" t="s">
         <v>229</v>
       </c>
@@ -21042,7 +20910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="30" t="s">
         <v>43</v>
       </c>
@@ -21053,7 +20921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="30" t="s">
         <v>32</v>
       </c>
@@ -21064,7 +20932,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="30" t="s">
         <v>230</v>
       </c>
@@ -21075,7 +20943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="30" t="s">
         <v>33</v>
       </c>
@@ -21086,7 +20954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="30" t="s">
         <v>34</v>
       </c>
@@ -21097,7 +20965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="30" t="s">
         <v>60</v>
       </c>
@@ -21108,7 +20976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="30" t="s">
         <v>44</v>
       </c>
@@ -21136,13 +21004,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.69140625" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
         <v>261</v>
       </c>
@@ -21150,7 +21018,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
         <v>262</v>
       </c>
@@ -21158,7 +21026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60" t="s">
         <v>263</v>
       </c>
@@ -21166,7 +21034,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="60" t="s">
         <v>264</v>
       </c>
@@ -21174,7 +21042,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="60" t="s">
         <v>265</v>
       </c>
@@ -21182,7 +21050,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="60" t="s">
         <v>266</v>
       </c>
@@ -21190,7 +21058,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="60" t="s">
         <v>267</v>
       </c>
@@ -21198,7 +21066,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="60" t="s">
         <v>268</v>
       </c>
@@ -21206,7 +21074,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="60" t="s">
         <v>269</v>
       </c>
@@ -21214,7 +21082,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="63" t="s">
         <v>270</v>
       </c>
@@ -21222,7 +21090,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="60" t="s">
         <v>271</v>
       </c>
@@ -21230,7 +21098,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="64" t="s">
         <v>272</v>
       </c>
@@ -21251,27 +21119,27 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="48.15234375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.69140625" style="30" customWidth="1"/>
     <col min="3" max="3" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.53515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.53515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.84375" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.53515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.69140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="95" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="95" customFormat="1" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A1" s="94" t="s">
         <v>534</v>
       </c>
@@ -21309,7 +21177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="81" t="s">
         <v>592</v>
       </c>
@@ -21347,7 +21215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="81" t="s">
         <v>592</v>
       </c>
@@ -21385,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="81" t="s">
         <v>592</v>
       </c>
@@ -21423,7 +21291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="81" t="s">
         <v>592</v>
       </c>
@@ -21461,7 +21329,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="81" t="s">
         <v>592</v>
       </c>
@@ -21499,7 +21367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="81" t="s">
         <v>592</v>
       </c>
@@ -21537,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="81" t="s">
         <v>592</v>
       </c>
@@ -21575,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="81" t="s">
         <v>592</v>
       </c>
@@ -21613,7 +21481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
         <v>592</v>
       </c>
@@ -21651,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="81" t="s">
         <v>592</v>
       </c>
@@ -21689,7 +21557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="81" t="s">
         <v>592</v>
       </c>
@@ -21727,7 +21595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="81" t="s">
         <v>592</v>
       </c>
@@ -21765,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A14" s="81" t="s">
         <v>592</v>
       </c>
@@ -21803,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="81" t="s">
         <v>592</v>
       </c>
@@ -21841,7 +21709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A16" s="81" t="s">
         <v>592</v>
       </c>
@@ -21879,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="81" t="s">
         <v>592</v>
       </c>
@@ -21917,7 +21785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="81" t="s">
         <v>592</v>
       </c>
@@ -21955,7 +21823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
         <v>592</v>
       </c>
@@ -21993,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="81" t="s">
         <v>592</v>
       </c>
@@ -22031,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="81" t="s">
         <v>592</v>
       </c>
@@ -22069,7 +21937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A22" s="81" t="s">
         <v>592</v>
       </c>
@@ -22107,7 +21975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A23" s="81" t="s">
         <v>592</v>
       </c>
@@ -22145,7 +22013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A24" s="81" t="s">
         <v>592</v>
       </c>
@@ -22183,7 +22051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A25" s="81" t="s">
         <v>592</v>
       </c>
@@ -22221,7 +22089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="81" t="s">
         <v>592</v>
       </c>
@@ -22259,7 +22127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A27" s="81" t="s">
         <v>592</v>
       </c>
@@ -22297,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A28" s="81" t="s">
         <v>592</v>
       </c>
@@ -22335,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A29" s="81" t="s">
         <v>592</v>
       </c>
@@ -22373,7 +22241,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="81" t="s">
         <v>592</v>
       </c>
@@ -22411,7 +22279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="81" t="s">
         <v>592</v>
       </c>
@@ -22449,7 +22317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="81" t="s">
         <v>592</v>
       </c>
@@ -22487,7 +22355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="81" t="s">
         <v>592</v>
       </c>
@@ -22525,7 +22393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="81" t="s">
         <v>592</v>
       </c>
@@ -22563,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="81" t="s">
         <v>592</v>
       </c>
@@ -22601,7 +22469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="81" t="s">
         <v>592</v>
       </c>
@@ -22639,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A37" s="81" t="s">
         <v>592</v>
       </c>
@@ -22677,7 +22545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A38" s="81" t="s">
         <v>592</v>
       </c>
@@ -22715,7 +22583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A39" s="81" t="s">
         <v>592</v>
       </c>
@@ -22753,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A40" s="81" t="s">
         <v>592</v>
       </c>
@@ -22791,7 +22659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A41" s="81" t="s">
         <v>592</v>
       </c>
@@ -22829,7 +22697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A42" s="81" t="s">
         <v>592</v>
       </c>
@@ -22867,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A43" s="81" t="s">
         <v>592</v>
       </c>
@@ -22905,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A44" s="81" t="s">
         <v>592</v>
       </c>
@@ -22943,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A45" s="81" t="s">
         <v>592</v>
       </c>
@@ -22981,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A46" s="81" t="s">
         <v>593</v>
       </c>
@@ -23019,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A47" s="81" t="s">
         <v>600</v>
       </c>
@@ -23057,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A48" s="81" t="s">
         <v>600</v>
       </c>
@@ -23095,7 +22963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A49" s="81" t="s">
         <v>600</v>
       </c>
@@ -23133,7 +23001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A50" s="81" t="s">
         <v>600</v>
       </c>
@@ -23171,7 +23039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A51" s="79" t="s">
         <v>601</v>
       </c>
@@ -23209,7 +23077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A52" s="79" t="s">
         <v>602</v>
       </c>
@@ -23257,27 +23125,27 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.3046875" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.3828125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.53515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.84375" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.15234375" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.53515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.3828125" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.84375" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.15234375" style="80" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.53515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.69140625" style="80" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="68" t="s">
         <v>534</v>
       </c>
@@ -23315,7 +23183,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
         <v>592</v>
       </c>
@@ -23353,7 +23221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="67" t="s">
         <v>592</v>
       </c>
@@ -23391,7 +23259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="67" t="s">
         <v>592</v>
       </c>
@@ -23429,7 +23297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="67" t="s">
         <v>592</v>
       </c>
@@ -23467,7 +23335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="67" t="s">
         <v>592</v>
       </c>
@@ -23505,7 +23373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="67" t="s">
         <v>592</v>
       </c>
@@ -23543,7 +23411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="67" t="s">
         <v>592</v>
       </c>
@@ -23581,7 +23449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="67" t="s">
         <v>592</v>
       </c>
@@ -23619,7 +23487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="67" t="s">
         <v>592</v>
       </c>
@@ -23657,7 +23525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="67" t="s">
         <v>592</v>
       </c>
@@ -23695,7 +23563,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="67" t="s">
         <v>592</v>
       </c>
@@ -23733,7 +23601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="67" t="s">
         <v>592</v>
       </c>
@@ -23771,7 +23639,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A14" s="67" t="s">
         <v>592</v>
       </c>
@@ -23809,7 +23677,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="67" t="s">
         <v>592</v>
       </c>
@@ -23847,7 +23715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A16" s="67" t="s">
         <v>592</v>
       </c>
@@ -23885,7 +23753,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="67" t="s">
         <v>592</v>
       </c>
@@ -23923,7 +23791,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
         <v>592</v>
       </c>
@@ -23961,7 +23829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="67" t="s">
         <v>592</v>
       </c>
@@ -23999,7 +23867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="67" t="s">
         <v>592</v>
       </c>
@@ -24037,7 +23905,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="67" t="s">
         <v>592</v>
       </c>
@@ -24075,7 +23943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A22" s="67" t="s">
         <v>592</v>
       </c>
@@ -24113,7 +23981,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A23" s="67" t="s">
         <v>592</v>
       </c>
@@ -24151,7 +24019,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A24" s="67" t="s">
         <v>592</v>
       </c>
@@ -24189,7 +24057,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A25" s="67" t="s">
         <v>592</v>
       </c>
@@ -24227,7 +24095,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="67" t="s">
         <v>592</v>
       </c>
@@ -24265,7 +24133,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A27" s="67" t="s">
         <v>592</v>
       </c>
@@ -24303,7 +24171,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A28" s="67" t="s">
         <v>592</v>
       </c>
@@ -24341,7 +24209,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A29" s="67" t="s">
         <v>592</v>
       </c>
@@ -24379,7 +24247,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="67" t="s">
         <v>592</v>
       </c>
@@ -24417,7 +24285,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="67" t="s">
         <v>592</v>
       </c>
@@ -24455,7 +24323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="67" t="s">
         <v>592</v>
       </c>
@@ -24493,7 +24361,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="67" t="s">
         <v>592</v>
       </c>
@@ -24531,7 +24399,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="67" t="s">
         <v>592</v>
       </c>
@@ -24569,7 +24437,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="67" t="s">
         <v>592</v>
       </c>
@@ -24607,7 +24475,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="67" t="s">
         <v>592</v>
       </c>
@@ -24645,7 +24513,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A37" s="67" t="s">
         <v>592</v>
       </c>
@@ -24683,7 +24551,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A38" s="67" t="s">
         <v>592</v>
       </c>
@@ -24721,7 +24589,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A39" s="67" t="s">
         <v>592</v>
       </c>
@@ -24759,7 +24627,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A40" s="67" t="s">
         <v>592</v>
       </c>
@@ -24797,7 +24665,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A41" s="67" t="s">
         <v>592</v>
       </c>
@@ -24835,7 +24703,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A42" s="67" t="s">
         <v>592</v>
       </c>
@@ -24873,7 +24741,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A43" s="67" t="s">
         <v>592</v>
       </c>
@@ -24911,7 +24779,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A44" s="67" t="s">
         <v>592</v>
       </c>
@@ -24949,7 +24817,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A45" s="67" t="s">
         <v>592</v>
       </c>
@@ -24987,7 +24855,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A46" s="67" t="s">
         <v>592</v>
       </c>
@@ -25025,7 +24893,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A47" s="67" t="s">
         <v>592</v>
       </c>
@@ -25063,7 +24931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A48" s="67" t="s">
         <v>592</v>
       </c>
@@ -25101,7 +24969,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A49" s="67" t="s">
         <v>592</v>
       </c>
@@ -25139,7 +25007,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A50" s="67" t="s">
         <v>592</v>
       </c>
@@ -25177,7 +25045,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A51" s="67" t="s">
         <v>592</v>
       </c>
@@ -25215,7 +25083,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A52" s="67" t="s">
         <v>592</v>
       </c>
@@ -25253,7 +25121,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A53" s="67" t="s">
         <v>592</v>
       </c>
@@ -25291,7 +25159,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A54" s="67" t="s">
         <v>592</v>
       </c>
@@ -25329,7 +25197,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A55" s="67" t="s">
         <v>592</v>
       </c>
@@ -25367,7 +25235,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A56" s="67" t="s">
         <v>592</v>
       </c>
@@ -25405,7 +25273,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A57" s="67" t="s">
         <v>592</v>
       </c>
@@ -25443,7 +25311,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A58" s="67" t="s">
         <v>592</v>
       </c>
@@ -25481,7 +25349,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A59" s="67" t="s">
         <v>592</v>
       </c>
@@ -25519,7 +25387,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A60" s="67" t="s">
         <v>592</v>
       </c>
@@ -25557,7 +25425,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A61" s="67" t="s">
         <v>592</v>
       </c>
@@ -25595,7 +25463,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A62" s="67" t="s">
         <v>592</v>
       </c>
@@ -25633,7 +25501,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A63" s="67" t="s">
         <v>592</v>
       </c>
@@ -25671,7 +25539,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A64" s="67" t="s">
         <v>592</v>
       </c>
@@ -25709,7 +25577,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A65" s="67" t="s">
         <v>592</v>
       </c>
@@ -25747,7 +25615,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A66" s="67" t="s">
         <v>592</v>
       </c>
@@ -25785,7 +25653,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A67" s="67" t="s">
         <v>592</v>
       </c>
@@ -25823,7 +25691,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A68" s="67" t="s">
         <v>592</v>
       </c>
@@ -25861,7 +25729,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A69" s="67" t="s">
         <v>592</v>
       </c>
@@ -25899,7 +25767,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A70" s="67" t="s">
         <v>592</v>
       </c>
@@ -25937,7 +25805,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A71" s="67" t="s">
         <v>592</v>
       </c>
@@ -25975,7 +25843,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A72" s="67" t="s">
         <v>592</v>
       </c>
@@ -26013,7 +25881,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A73" s="67" t="s">
         <v>592</v>
       </c>
@@ -26051,7 +25919,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A74" s="67" t="s">
         <v>592</v>
       </c>
@@ -26089,7 +25957,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A75" s="67" t="s">
         <v>592</v>
       </c>
@@ -26127,7 +25995,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A76" s="67" t="s">
         <v>592</v>
       </c>
@@ -26165,7 +26033,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A77" s="67" t="s">
         <v>592</v>
       </c>
@@ -26203,7 +26071,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A78" s="67" t="s">
         <v>592</v>
       </c>
@@ -26241,7 +26109,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A79" s="67" t="s">
         <v>592</v>
       </c>
@@ -26279,7 +26147,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A80" s="67" t="s">
         <v>592</v>
       </c>
@@ -26317,7 +26185,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A81" s="67" t="s">
         <v>592</v>
       </c>
@@ -26355,7 +26223,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A82" s="67" t="s">
         <v>592</v>
       </c>
@@ -26393,7 +26261,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A83" s="67" t="s">
         <v>592</v>
       </c>
@@ -26431,7 +26299,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A84" s="67" t="s">
         <v>592</v>
       </c>
@@ -26469,7 +26337,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A85" s="67" t="s">
         <v>592</v>
       </c>
@@ -26507,7 +26375,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A86" s="67" t="s">
         <v>592</v>
       </c>
@@ -26545,7 +26413,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A87" s="67" t="s">
         <v>592</v>
       </c>
@@ -26583,7 +26451,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A88" s="67" t="s">
         <v>592</v>
       </c>
@@ -26621,7 +26489,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A89" s="67" t="s">
         <v>592</v>
       </c>
@@ -26659,7 +26527,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A90" s="67" t="s">
         <v>592</v>
       </c>
@@ -26697,7 +26565,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A91" s="67" t="s">
         <v>592</v>
       </c>
@@ -26735,7 +26603,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A92" s="67" t="s">
         <v>592</v>
       </c>
@@ -26773,7 +26641,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A93" s="67" t="s">
         <v>592</v>
       </c>
@@ -26811,7 +26679,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A94" s="67" t="s">
         <v>592</v>
       </c>
@@ -26849,7 +26717,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A95" s="67" t="s">
         <v>592</v>
       </c>
@@ -26887,7 +26755,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A96" s="67" t="s">
         <v>592</v>
       </c>
@@ -26925,7 +26793,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A97" s="67" t="s">
         <v>592</v>
       </c>
@@ -26963,7 +26831,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A98" s="67" t="s">
         <v>592</v>
       </c>
@@ -27001,7 +26869,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A99" s="67" t="s">
         <v>592</v>
       </c>
@@ -27039,7 +26907,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A100" s="67" t="s">
         <v>592</v>
       </c>
@@ -27077,7 +26945,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A101" s="67" t="s">
         <v>592</v>
       </c>
@@ -27115,7 +26983,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A102" s="67" t="s">
         <v>592</v>
       </c>
@@ -27153,7 +27021,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A103" s="67" t="s">
         <v>592</v>
       </c>
@@ -27191,7 +27059,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A104" s="67" t="s">
         <v>592</v>
       </c>
@@ -27229,7 +27097,7 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A105" s="67" t="s">
         <v>592</v>
       </c>
@@ -27267,7 +27135,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A106" s="67" t="s">
         <v>592</v>
       </c>
@@ -27305,7 +27173,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A107" s="67" t="s">
         <v>592</v>
       </c>
@@ -27343,7 +27211,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A108" s="67" t="s">
         <v>592</v>
       </c>
@@ -27381,7 +27249,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A109" s="67" t="s">
         <v>592</v>
       </c>
@@ -27419,7 +27287,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A110" s="67" t="s">
         <v>592</v>
       </c>
@@ -27457,7 +27325,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A111" s="67" t="s">
         <v>592</v>
       </c>
@@ -27495,7 +27363,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A112" s="67" t="s">
         <v>592</v>
       </c>
@@ -27533,7 +27401,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A113" s="67" t="s">
         <v>592</v>
       </c>
@@ -27571,7 +27439,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A114" s="67" t="s">
         <v>592</v>
       </c>
@@ -27609,7 +27477,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A115" s="67" t="s">
         <v>592</v>
       </c>
@@ -27647,7 +27515,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A116" s="67" t="s">
         <v>593</v>
       </c>
@@ -27685,7 +27553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A117" s="67" t="s">
         <v>593</v>
       </c>
@@ -27723,7 +27591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A118" s="67" t="s">
         <v>593</v>
       </c>
@@ -27761,7 +27629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A119" s="67" t="s">
         <v>593</v>
       </c>
@@ -27799,7 +27667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A120" s="67" t="s">
         <v>593</v>
       </c>
@@ -27837,7 +27705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A121" s="67" t="s">
         <v>593</v>
       </c>
@@ -27875,7 +27743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A122" s="67" t="s">
         <v>593</v>
       </c>
@@ -27913,7 +27781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A123" s="67" t="s">
         <v>593</v>
       </c>
@@ -27951,7 +27819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A124" s="67" t="s">
         <v>593</v>
       </c>
@@ -27989,7 +27857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A125" s="67" t="s">
         <v>593</v>
       </c>
@@ -28027,7 +27895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A126" s="67" t="s">
         <v>593</v>
       </c>
@@ -28065,7 +27933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A127" s="67" t="s">
         <v>593</v>
       </c>
@@ -28103,7 +27971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A128" s="67" t="s">
         <v>593</v>
       </c>
@@ -28141,7 +28009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A129" s="67" t="s">
         <v>593</v>
       </c>
@@ -28179,7 +28047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A130" s="67" t="s">
         <v>593</v>
       </c>
@@ -28217,7 +28085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A131" s="67" t="s">
         <v>593</v>
       </c>
@@ -28255,7 +28123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A132" s="67" t="s">
         <v>593</v>
       </c>
@@ -28293,7 +28161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A133" s="67" t="s">
         <v>593</v>
       </c>
@@ -28331,7 +28199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A134" s="67" t="s">
         <v>593</v>
       </c>
@@ -28369,7 +28237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A135" s="67" t="s">
         <v>593</v>
       </c>
@@ -28407,7 +28275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A136" s="67" t="s">
         <v>593</v>
       </c>
@@ -28445,7 +28313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A137" s="67" t="s">
         <v>593</v>
       </c>
@@ -28483,7 +28351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A138" s="67" t="s">
         <v>593</v>
       </c>
@@ -28521,7 +28389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A139" s="67" t="s">
         <v>593</v>
       </c>
@@ -28559,7 +28427,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A140" s="67" t="s">
         <v>593</v>
       </c>
@@ -28597,7 +28465,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A141" s="67" t="s">
         <v>593</v>
       </c>
@@ -28635,7 +28503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A142" s="67" t="s">
         <v>593</v>
       </c>
@@ -28673,7 +28541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A143" s="67" t="s">
         <v>593</v>
       </c>
@@ -28711,7 +28579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A144" s="67" t="s">
         <v>593</v>
       </c>
@@ -28749,7 +28617,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A145" s="67" t="s">
         <v>593</v>
       </c>
@@ -28787,7 +28655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A146" s="67" t="s">
         <v>593</v>
       </c>
@@ -28825,7 +28693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A147" s="67" t="s">
         <v>593</v>
       </c>
@@ -28863,7 +28731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A148" s="67" t="s">
         <v>593</v>
       </c>
@@ -28901,7 +28769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A149" s="67" t="s">
         <v>593</v>
       </c>
@@ -28939,7 +28807,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A150" s="67" t="s">
         <v>600</v>
       </c>
@@ -28977,7 +28845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A151" s="67" t="s">
         <v>600</v>
       </c>
@@ -29015,7 +28883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A152" s="67" t="s">
         <v>600</v>
       </c>
@@ -29053,7 +28921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A153" s="67" t="s">
         <v>600</v>
       </c>
@@ -29091,7 +28959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A154" s="67" t="s">
         <v>600</v>
       </c>
@@ -29129,7 +28997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A155" s="67" t="s">
         <v>600</v>
       </c>
@@ -29167,7 +29035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A156" s="67" t="s">
         <v>600</v>
       </c>
@@ -29205,7 +29073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A157" s="67" t="s">
         <v>600</v>
       </c>
@@ -29243,7 +29111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A158" s="67" t="s">
         <v>600</v>
       </c>
@@ -29281,7 +29149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A159" s="67" t="s">
         <v>600</v>
       </c>
@@ -29319,7 +29187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A160" s="67" t="s">
         <v>600</v>
       </c>
@@ -29357,7 +29225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A161" s="67" t="s">
         <v>600</v>
       </c>
@@ -29395,7 +29263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A162" s="67" t="s">
         <v>600</v>
       </c>
@@ -29433,7 +29301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A163" s="67" t="s">
         <v>600</v>
       </c>
@@ -29471,7 +29339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A164" s="67" t="s">
         <v>600</v>
       </c>
@@ -29509,7 +29377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A165" s="67" t="s">
         <v>600</v>
       </c>
@@ -29547,7 +29415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A166" s="67" t="s">
         <v>600</v>
       </c>
@@ -29585,7 +29453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A167" s="67" t="s">
         <v>600</v>
       </c>
@@ -29623,7 +29491,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A168" s="67" t="s">
         <v>600</v>
       </c>
@@ -29661,7 +29529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A169" s="67" t="s">
         <v>600</v>
       </c>
@@ -29699,7 +29567,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A170" s="67" t="s">
         <v>600</v>
       </c>
@@ -29737,7 +29605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A171" s="67" t="s">
         <v>600</v>
       </c>
@@ -29775,7 +29643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A172" s="67" t="s">
         <v>600</v>
       </c>
@@ -29813,7 +29681,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A173" s="67" t="s">
         <v>600</v>
       </c>
@@ -29851,7 +29719,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A174" s="67" t="s">
         <v>600</v>
       </c>
@@ -29889,7 +29757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A175" s="67" t="s">
         <v>600</v>
       </c>
@@ -29927,7 +29795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A176" s="67" t="s">
         <v>600</v>
       </c>
@@ -29965,7 +29833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A177" s="67" t="s">
         <v>600</v>
       </c>
@@ -30003,7 +29871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A178" s="67" t="s">
         <v>600</v>
       </c>
@@ -30041,7 +29909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A179" s="67" t="s">
         <v>600</v>
       </c>
@@ -30079,7 +29947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A180" s="67" t="s">
         <v>600</v>
       </c>
@@ -30117,7 +29985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A181" s="67" t="s">
         <v>600</v>
       </c>
@@ -30155,7 +30023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A182" s="67" t="s">
         <v>600</v>
       </c>
@@ -30193,7 +30061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A183" s="67" t="s">
         <v>600</v>
       </c>
@@ -30231,7 +30099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A184" s="67" t="s">
         <v>600</v>
       </c>
@@ -30269,7 +30137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A185" s="67" t="s">
         <v>600</v>
       </c>
@@ -30307,7 +30175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A186" s="67" t="s">
         <v>600</v>
       </c>
@@ -30345,7 +30213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A187" s="67" t="s">
         <v>600</v>
       </c>
@@ -30383,7 +30251,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A188" s="67" t="s">
         <v>600</v>
       </c>
@@ -30421,7 +30289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A189" s="67" t="s">
         <v>600</v>
       </c>
@@ -30459,7 +30327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A190" s="67" t="s">
         <v>600</v>
       </c>
@@ -30497,7 +30365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A191" s="67" t="s">
         <v>600</v>
       </c>
@@ -30535,7 +30403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A192" s="67" t="s">
         <v>600</v>
       </c>
@@ -30573,7 +30441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A193" s="67" t="s">
         <v>600</v>
       </c>
@@ -30611,7 +30479,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A194" s="79" t="s">
         <v>601</v>
       </c>
@@ -30649,7 +30517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A195" s="79" t="s">
         <v>601</v>
       </c>
@@ -30687,7 +30555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A196" s="79" t="s">
         <v>601</v>
       </c>
@@ -30725,7 +30593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A197" s="79" t="s">
         <v>601</v>
       </c>
@@ -30763,7 +30631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A198" s="79" t="s">
         <v>602</v>
       </c>
@@ -30801,7 +30669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A199" s="79" t="s">
         <v>602</v>
       </c>
@@ -30839,7 +30707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A200" s="79" t="s">
         <v>602</v>
       </c>
@@ -30877,7 +30745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A201" s="79" t="s">
         <v>602</v>
       </c>
@@ -30915,7 +30783,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A202" s="79" t="s">
         <v>602</v>
       </c>
@@ -30953,7 +30821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A203" s="79" t="s">
         <v>602</v>
       </c>
@@ -30991,7 +30859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A204" s="79" t="s">
         <v>602</v>
       </c>
@@ -31029,7 +30897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A205" s="79" t="s">
         <v>602</v>
       </c>
@@ -31083,20 +30951,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.15234375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
         <v>534</v>
       </c>
@@ -31128,7 +30996,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="82" t="s">
         <v>592</v>
       </c>
@@ -31160,7 +31028,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="82" t="s">
         <v>592</v>
       </c>
@@ -31192,7 +31060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="82" t="s">
         <v>592</v>
       </c>
@@ -31224,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="82" t="s">
         <v>592</v>
       </c>
@@ -31256,7 +31124,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="82" t="s">
         <v>592</v>
       </c>
@@ -31288,7 +31156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="82" t="s">
         <v>592</v>
       </c>
@@ -31320,7 +31188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="82" t="s">
         <v>592</v>
       </c>
@@ -31352,7 +31220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="82" t="s">
         <v>593</v>
       </c>
@@ -31385,7 +31253,7 @@
       </c>
       <c r="K9" s="81"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="82" t="s">
         <v>593</v>
       </c>
@@ -31418,7 +31286,7 @@
       </c>
       <c r="K10" s="81"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="82" t="s">
         <v>593</v>
       </c>
@@ -31451,7 +31319,7 @@
       </c>
       <c r="K11" s="81"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="82" t="s">
         <v>593</v>
       </c>
@@ -31484,7 +31352,7 @@
       </c>
       <c r="K12" s="81"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="82" t="s">
         <v>593</v>
       </c>
@@ -31517,7 +31385,7 @@
       </c>
       <c r="K13" s="81"/>
     </row>
-    <row r="14" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A14" s="84" t="s">
         <v>600</v>
       </c>
@@ -31549,7 +31417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A15" s="84" t="s">
         <v>600</v>
       </c>
@@ -31581,7 +31449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A16" s="84" t="s">
         <v>600</v>
       </c>
@@ -31613,7 +31481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="84" t="s">
         <v>600</v>
       </c>
@@ -31645,7 +31513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="79" t="s">
         <v>601</v>
       </c>
@@ -31677,7 +31545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="79" t="s">
         <v>602</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C81E55-5918-440A-AAD5-18CEB67B017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7469FCE-E14B-4F9A-A63C-1D4224AF55BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" activeTab="7" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="4" activeTab="9" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="frez" sheetId="8" r:id="rId7"/>
     <sheet name="color_fasades" sheetId="9" r:id="rId8"/>
     <sheet name="price_collections" sheetId="10" r:id="rId9"/>
+    <sheet name="grass" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="Верхние">[1]Лист2!$A$2:$A$100</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="623">
   <si>
     <t>Артикул</t>
   </si>
@@ -1881,18 +1882,64 @@
   </si>
   <si>
     <t>Наличие_решеток</t>
+  </si>
+  <si>
+    <t>ЗЕРКАЛО БЕСЦВЕТНОЕ S.500</t>
+  </si>
+  <si>
+    <t>ПРОЗРАЧНОЕ СЕРОЕ S.053</t>
+  </si>
+  <si>
+    <t>БРОНЗА ПРОЗРАЧНАЯ S.052</t>
+  </si>
+  <si>
+    <t>БРОНЗА САТИНАТ S.101</t>
+  </si>
+  <si>
+    <t>МОРУ S.161</t>
+  </si>
+  <si>
+    <t>КАФЕДРАЛ S.153</t>
+  </si>
+  <si>
+    <t>Цвет стекла</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>БЕСЦВЕТНОЕ ПРОЗРАЧНОЕ S.051</t>
+  </si>
+  <si>
+    <t>БЕЛЫЙ САТИНАТ S.100</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>алюминий (803)</t>
+  </si>
+  <si>
+    <t>чёрный браш (811)</t>
+  </si>
+  <si>
+    <t>Frame_алюминий</t>
+  </si>
+  <si>
+    <t>Frame_черный_браш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2011,6 +2058,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2043,7 +2097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2082,8 +2136,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2093,8 +2173,10 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2357,9 +2439,6 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2369,19 +2448,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Акцент2" xfId="7" builtinId="33"/>
+    <cellStyle name="Денежный 2 4" xfId="9" xr:uid="{525E3301-4A1A-4CEB-A75B-2D0DAE8F8586}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{0CCA6C3A-CD53-4AD6-9D46-0C8D5BCE1425}"/>
     <cellStyle name="Обычный 3 3" xfId="4" xr:uid="{04B24065-AF7B-4B02-ABE1-CADB4EB2C3DF}"/>
     <cellStyle name="Обычный 3 3 2" xfId="8" xr:uid="{4F1D420F-2116-44EF-9096-75BC19A09AEF}"/>
+    <cellStyle name="Обычный 4 2" xfId="10" xr:uid="{E8758AD0-3D02-4953-A7FC-0D9301D98227}"/>
     <cellStyle name="Обычный 5" xfId="3" xr:uid="{F753ABC1-674D-42E1-94D9-F2975A36EA2E}"/>
     <cellStyle name="Обычный 6 2" xfId="5" xr:uid="{3E06D507-FBA7-4FD4-90BE-E2AF09F4BA92}"/>
     <cellStyle name="Процентный" xfId="6" builtinId="5"/>
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{702D37C1-FD0B-45E0-8955-AA0F39D7F389}"/>
   </cellStyles>
   <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3257,16 +3370,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3881,105 +3984,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:AI74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="50"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="49"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="48"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="47"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="46"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="45"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="43"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="42"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="41"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="33"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="31"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="30"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="62"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="55"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="51"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="50"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="49"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="48"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="47"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="46"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="44"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="43"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="42"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="36"/>
+    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="35"/>
+    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="34"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="33"/>
+    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="32"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="31"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:G192" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="27" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="26" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="28" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="27" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:I229" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="18" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="17" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="16" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="19" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="18" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="17" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:B12" xr:uid="{AB78FFAA-4D60-419F-9D9A-15685CF12B1B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11805,7 +11908,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M2:N74">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11814,6 +11917,96 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9860A0D5-6200-4BC8-AB0C-84B9A2A7A591}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="40.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A2" s="95" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="96">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A3" s="95" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="96">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A4" s="95" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" s="97">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="95" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" s="97">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A6" s="95" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6" s="97">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="95" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" s="97">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="95" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" s="97">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="95" t="s">
+        <v>613</v>
+      </c>
+      <c r="B9" s="98">
+        <v>9200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -21117,10 +21310,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA59927A-65AA-4EFE-97D3-E590934D8C0A}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21139,41 +21332,41 @@
     <col min="12" max="12" width="21.69140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="95" customFormat="1" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" s="94" customFormat="1" ht="36.9" x14ac:dyDescent="0.4">
+      <c r="A1" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="93" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="93" t="s">
         <v>367</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="93" t="s">
         <v>606</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="K1" s="93" t="s">
         <v>607</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="93" t="s">
         <v>368</v>
       </c>
     </row>
@@ -23112,6 +23305,44 @@
         <v>67</v>
       </c>
       <c r="L52" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A53" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" s="81" t="s">
+        <v>396</v>
+      </c>
+      <c r="C53" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" s="30">
+        <v>20</v>
+      </c>
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="30">
+        <v>250</v>
+      </c>
+      <c r="G53" s="30">
+        <v>1250</v>
+      </c>
+      <c r="H53" s="30">
+        <v>300</v>
+      </c>
+      <c r="I53" s="30">
+        <v>600</v>
+      </c>
+      <c r="J53" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="30">
         <v>0</v>
       </c>
     </row>
@@ -23123,10 +23354,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DBC37C-4B0E-410F-AD61-823FE8ED84AA}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:L205"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A167" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -23135,17 +23366,11 @@
     <col min="2" max="2" width="52.3828125" style="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.53515625" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.84375" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.15234375" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.53515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.3828125" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.84375" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.15234375" style="80" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.53515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.69140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="68" t="s">
         <v>534</v>
       </c>
@@ -23159,31 +23384,13 @@
         <v>415</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>595</v>
+        <v>416</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>594</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>599</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>596</v>
-      </c>
-      <c r="J1" s="68" t="s">
-        <v>597</v>
-      </c>
-      <c r="K1" s="68" t="s">
-        <v>416</v>
-      </c>
-      <c r="L1" s="68" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
         <v>592</v>
       </c>
@@ -23197,31 +23404,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F2" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G2" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H2" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I2" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J2" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K2" s="70">
-        <v>0</v>
-      </c>
-      <c r="L2" s="69">
+        <v>0</v>
+      </c>
+      <c r="F2" s="69">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="67" t="s">
         <v>592</v>
       </c>
@@ -23235,31 +23424,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F3" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G3" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H3" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I3" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J3" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K3" s="70">
         <v>0.2</v>
       </c>
-      <c r="L3" s="69">
+      <c r="F3" s="69">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="67" t="s">
         <v>592</v>
       </c>
@@ -23273,31 +23444,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F4" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G4" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H4" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I4" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J4" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K4" s="70">
         <v>0.2</v>
       </c>
-      <c r="L4" s="69">
+      <c r="F4" s="69">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="67" t="s">
         <v>592</v>
       </c>
@@ -23311,31 +23464,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F5" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G5" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H5" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I5" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J5" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K5" s="70">
         <v>0.2</v>
       </c>
-      <c r="L5" s="69">
+      <c r="F5" s="69">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="67" t="s">
         <v>592</v>
       </c>
@@ -23349,31 +23484,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F6" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G6" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H6" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I6" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J6" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K6" s="70">
         <v>0.2</v>
       </c>
-      <c r="L6" s="69">
+      <c r="F6" s="69">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="67" t="s">
         <v>592</v>
       </c>
@@ -23387,31 +23504,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F7" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G7" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H7" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I7" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J7" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K7" s="70">
-        <v>0</v>
-      </c>
-      <c r="L7" s="69">
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="67" t="s">
         <v>592</v>
       </c>
@@ -23425,31 +23524,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F8" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G8" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H8" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I8" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J8" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K8" s="70">
-        <v>0</v>
-      </c>
-      <c r="L8" s="69">
+        <v>0</v>
+      </c>
+      <c r="F8" s="69">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="67" t="s">
         <v>592</v>
       </c>
@@ -23463,31 +23544,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F9" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G9" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H9" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I9" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J9" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K9" s="70">
         <v>0.2</v>
       </c>
-      <c r="L9" s="69">
+      <c r="F9" s="69">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="67" t="s">
         <v>592</v>
       </c>
@@ -23501,31 +23564,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F10" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G10" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H10" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I10" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J10" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K10" s="70">
         <v>0.2</v>
       </c>
-      <c r="L10" s="69">
+      <c r="F10" s="69">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="67" t="s">
         <v>592</v>
       </c>
@@ -23539,31 +23584,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F11" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G11" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H11" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I11" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J11" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K11" s="70">
         <v>0.2</v>
       </c>
-      <c r="L11" s="69">
+      <c r="F11" s="69">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="67" t="s">
         <v>592</v>
       </c>
@@ -23577,31 +23604,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F12" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G12" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H12" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I12" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J12" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K12" s="70">
         <v>0.2</v>
       </c>
-      <c r="L12" s="69">
+      <c r="F12" s="69">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="67" t="s">
         <v>592</v>
       </c>
@@ -23615,31 +23624,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F13" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G13" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H13" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I13" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J13" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K13" s="70">
-        <v>0</v>
-      </c>
-      <c r="L13" s="69">
+        <v>0</v>
+      </c>
+      <c r="F13" s="69">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A14" s="67" t="s">
         <v>592</v>
       </c>
@@ -23653,31 +23644,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F14" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G14" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H14" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I14" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J14" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K14" s="70">
         <v>0.2</v>
       </c>
-      <c r="L14" s="69">
+      <c r="F14" s="69">
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="67" t="s">
         <v>592</v>
       </c>
@@ -23691,31 +23664,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F15" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G15" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H15" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I15" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J15" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K15" s="70">
         <v>0.2</v>
       </c>
-      <c r="L15" s="69">
+      <c r="F15" s="69">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A16" s="67" t="s">
         <v>592</v>
       </c>
@@ -23729,31 +23684,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F16" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G16" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H16" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I16" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J16" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K16" s="70">
-        <v>0</v>
-      </c>
-      <c r="L16" s="69">
+        <v>0</v>
+      </c>
+      <c r="F16" s="69">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="67" t="s">
         <v>592</v>
       </c>
@@ -23767,31 +23704,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F17" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G17" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H17" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I17" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J17" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K17" s="70">
         <v>0.2</v>
       </c>
-      <c r="L17" s="69">
+      <c r="F17" s="69">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
         <v>592</v>
       </c>
@@ -23805,31 +23724,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F18" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G18" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H18" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I18" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J18" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K18" s="70">
         <v>0.2</v>
       </c>
-      <c r="L18" s="69">
+      <c r="F18" s="69">
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="67" t="s">
         <v>592</v>
       </c>
@@ -23843,31 +23744,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F19" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G19" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H19" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I19" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J19" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K19" s="70">
         <v>0.2</v>
       </c>
-      <c r="L19" s="69">
+      <c r="F19" s="69">
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="67" t="s">
         <v>592</v>
       </c>
@@ -23881,31 +23764,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F20" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G20" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H20" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I20" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J20" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K20" s="70">
         <v>0.2</v>
       </c>
-      <c r="L20" s="69">
+      <c r="F20" s="69">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="67" t="s">
         <v>592</v>
       </c>
@@ -23919,31 +23784,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F21" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G21" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H21" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I21" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J21" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K21" s="70">
         <v>0.2</v>
       </c>
-      <c r="L21" s="69">
+      <c r="F21" s="69">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A22" s="67" t="s">
         <v>592</v>
       </c>
@@ -23957,31 +23804,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F22" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G22" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H22" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I22" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J22" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K22" s="70">
         <v>0.2</v>
       </c>
-      <c r="L22" s="69">
+      <c r="F22" s="69">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A23" s="67" t="s">
         <v>592</v>
       </c>
@@ -23995,31 +23824,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F23" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G23" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H23" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I23" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J23" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K23" s="70">
         <v>0.2</v>
       </c>
-      <c r="L23" s="69">
+      <c r="F23" s="69">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A24" s="67" t="s">
         <v>592</v>
       </c>
@@ -24033,31 +23844,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F24" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G24" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H24" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I24" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J24" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K24" s="70">
         <v>0.2</v>
       </c>
-      <c r="L24" s="69">
+      <c r="F24" s="69">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A25" s="67" t="s">
         <v>592</v>
       </c>
@@ -24071,31 +23864,13 @@
         <v>3</v>
       </c>
       <c r="E25" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F25" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G25" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H25" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I25" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J25" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K25" s="70">
-        <v>0</v>
-      </c>
-      <c r="L25" s="69">
+        <v>0</v>
+      </c>
+      <c r="F25" s="69">
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="67" t="s">
         <v>592</v>
       </c>
@@ -24109,31 +23884,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F26" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G26" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H26" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I26" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J26" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K26" s="70">
-        <v>0</v>
-      </c>
-      <c r="L26" s="69">
+        <v>0</v>
+      </c>
+      <c r="F26" s="69">
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A27" s="67" t="s">
         <v>592</v>
       </c>
@@ -24147,31 +23904,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F27" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G27" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H27" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I27" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J27" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K27" s="70">
         <v>0.2</v>
       </c>
-      <c r="L27" s="69">
+      <c r="F27" s="69">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A28" s="67" t="s">
         <v>592</v>
       </c>
@@ -24185,31 +23924,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F28" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G28" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H28" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I28" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J28" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K28" s="70">
-        <v>0</v>
-      </c>
-      <c r="L28" s="69">
+        <v>0</v>
+      </c>
+      <c r="F28" s="69">
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A29" s="67" t="s">
         <v>592</v>
       </c>
@@ -24223,31 +23944,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F29" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G29" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H29" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I29" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J29" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K29" s="70">
         <v>0.2</v>
       </c>
-      <c r="L29" s="69">
+      <c r="F29" s="69">
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="67" t="s">
         <v>592</v>
       </c>
@@ -24261,31 +23964,13 @@
         <v>3</v>
       </c>
       <c r="E30" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F30" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G30" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H30" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I30" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J30" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K30" s="70">
-        <v>0</v>
-      </c>
-      <c r="L30" s="69">
+        <v>0</v>
+      </c>
+      <c r="F30" s="69">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="67" t="s">
         <v>592</v>
       </c>
@@ -24299,31 +23984,13 @@
         <v>2</v>
       </c>
       <c r="E31" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F31" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G31" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H31" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I31" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J31" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K31" s="70">
-        <v>0</v>
-      </c>
-      <c r="L31" s="69">
+        <v>0</v>
+      </c>
+      <c r="F31" s="69">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="67" t="s">
         <v>592</v>
       </c>
@@ -24337,31 +24004,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F32" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G32" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H32" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I32" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J32" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K32" s="70">
-        <v>0</v>
-      </c>
-      <c r="L32" s="69">
+        <v>0</v>
+      </c>
+      <c r="F32" s="69">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="67" t="s">
         <v>592</v>
       </c>
@@ -24375,31 +24024,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F33" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G33" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H33" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I33" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J33" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K33" s="70">
         <v>0.2</v>
       </c>
-      <c r="L33" s="69">
+      <c r="F33" s="69">
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="67" t="s">
         <v>592</v>
       </c>
@@ -24413,31 +24044,13 @@
         <v>2</v>
       </c>
       <c r="E34" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F34" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G34" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H34" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I34" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J34" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K34" s="70">
-        <v>0</v>
-      </c>
-      <c r="L34" s="69">
+        <v>0</v>
+      </c>
+      <c r="F34" s="69">
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="67" t="s">
         <v>592</v>
       </c>
@@ -24451,31 +24064,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F35" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G35" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H35" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I35" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J35" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K35" s="70">
         <v>0.2</v>
       </c>
-      <c r="L35" s="69">
+      <c r="F35" s="69">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="67" t="s">
         <v>592</v>
       </c>
@@ -24489,31 +24084,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F36" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G36" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H36" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I36" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J36" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K36" s="70">
         <v>0.2</v>
       </c>
-      <c r="L36" s="69">
+      <c r="F36" s="69">
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A37" s="67" t="s">
         <v>592</v>
       </c>
@@ -24527,31 +24104,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F37" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G37" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H37" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I37" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J37" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K37" s="70">
         <v>0.2</v>
       </c>
-      <c r="L37" s="69">
+      <c r="F37" s="69">
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A38" s="67" t="s">
         <v>592</v>
       </c>
@@ -24565,31 +24124,13 @@
         <v>3</v>
       </c>
       <c r="E38" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F38" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G38" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H38" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I38" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J38" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K38" s="70">
-        <v>0</v>
-      </c>
-      <c r="L38" s="69">
+        <v>0</v>
+      </c>
+      <c r="F38" s="69">
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A39" s="67" t="s">
         <v>592</v>
       </c>
@@ -24603,31 +24144,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F39" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G39" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H39" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I39" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J39" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K39" s="70">
-        <v>0</v>
-      </c>
-      <c r="L39" s="69">
+        <v>0</v>
+      </c>
+      <c r="F39" s="69">
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A40" s="67" t="s">
         <v>592</v>
       </c>
@@ -24641,31 +24164,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F40" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G40" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H40" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I40" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J40" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K40" s="70">
-        <v>0</v>
-      </c>
-      <c r="L40" s="69">
+        <v>0</v>
+      </c>
+      <c r="F40" s="69">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A41" s="67" t="s">
         <v>592</v>
       </c>
@@ -24679,31 +24184,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F41" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G41" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H41" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I41" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J41" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K41" s="70">
-        <v>0</v>
-      </c>
-      <c r="L41" s="69">
+        <v>0</v>
+      </c>
+      <c r="F41" s="69">
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A42" s="67" t="s">
         <v>592</v>
       </c>
@@ -24717,31 +24204,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F42" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G42" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H42" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I42" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J42" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K42" s="70">
         <v>0.2</v>
       </c>
-      <c r="L42" s="69">
+      <c r="F42" s="69">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A43" s="67" t="s">
         <v>592</v>
       </c>
@@ -24755,31 +24224,13 @@
         <v>4</v>
       </c>
       <c r="E43" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F43" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G43" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H43" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I43" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J43" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K43" s="70">
-        <v>0</v>
-      </c>
-      <c r="L43" s="69">
+        <v>0</v>
+      </c>
+      <c r="F43" s="69">
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A44" s="67" t="s">
         <v>592</v>
       </c>
@@ -24793,31 +24244,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F44" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G44" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H44" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I44" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J44" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K44" s="70">
-        <v>0</v>
-      </c>
-      <c r="L44" s="69">
+        <v>0</v>
+      </c>
+      <c r="F44" s="69">
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A45" s="67" t="s">
         <v>592</v>
       </c>
@@ -24831,31 +24264,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F45" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G45" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H45" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I45" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J45" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K45" s="70">
         <v>0.2</v>
       </c>
-      <c r="L45" s="69">
+      <c r="F45" s="69">
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A46" s="67" t="s">
         <v>592</v>
       </c>
@@ -24869,31 +24284,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F46" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G46" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H46" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I46" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J46" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K46" s="70">
-        <v>0</v>
-      </c>
-      <c r="L46" s="69">
+        <v>0</v>
+      </c>
+      <c r="F46" s="69">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A47" s="67" t="s">
         <v>592</v>
       </c>
@@ -24907,31 +24304,13 @@
         <v>3</v>
       </c>
       <c r="E47" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F47" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G47" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H47" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I47" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J47" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K47" s="70">
-        <v>0</v>
-      </c>
-      <c r="L47" s="69">
+        <v>0</v>
+      </c>
+      <c r="F47" s="69">
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A48" s="67" t="s">
         <v>592</v>
       </c>
@@ -24945,31 +24324,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F48" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G48" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H48" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I48" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J48" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K48" s="70">
-        <v>0</v>
-      </c>
-      <c r="L48" s="69">
+        <v>0</v>
+      </c>
+      <c r="F48" s="69">
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A49" s="67" t="s">
         <v>592</v>
       </c>
@@ -24983,31 +24344,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F49" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G49" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H49" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I49" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J49" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K49" s="70">
         <v>0.2</v>
       </c>
-      <c r="L49" s="69">
+      <c r="F49" s="69">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A50" s="67" t="s">
         <v>592</v>
       </c>
@@ -25021,31 +24364,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F50" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G50" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H50" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I50" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J50" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K50" s="70">
         <v>0.2</v>
       </c>
-      <c r="L50" s="69">
+      <c r="F50" s="69">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A51" s="67" t="s">
         <v>592</v>
       </c>
@@ -25059,31 +24384,13 @@
         <v>4</v>
       </c>
       <c r="E51" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F51" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G51" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H51" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I51" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J51" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K51" s="70">
-        <v>0</v>
-      </c>
-      <c r="L51" s="69">
+        <v>0</v>
+      </c>
+      <c r="F51" s="69">
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A52" s="67" t="s">
         <v>592</v>
       </c>
@@ -25097,31 +24404,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="70">
-        <v>5096</v>
-      </c>
-      <c r="F52" s="70">
-        <v>5096</v>
-      </c>
-      <c r="G52" s="70">
-        <v>5602</v>
-      </c>
-      <c r="H52" s="70">
-        <v>5602</v>
-      </c>
-      <c r="I52" s="70">
-        <v>6115</v>
-      </c>
-      <c r="J52" s="70">
-        <v>6115</v>
-      </c>
-      <c r="K52" s="70">
         <v>0.2</v>
       </c>
-      <c r="L52" s="69">
+      <c r="F52" s="69">
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A53" s="67" t="s">
         <v>592</v>
       </c>
@@ -25135,31 +24424,13 @@
         <v>3</v>
       </c>
       <c r="E53" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F53" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G53" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H53" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I53" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J53" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K53" s="70">
-        <v>0</v>
-      </c>
-      <c r="L53" s="69">
+        <v>0</v>
+      </c>
+      <c r="F53" s="69">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A54" s="67" t="s">
         <v>592</v>
       </c>
@@ -25173,31 +24444,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F54" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G54" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H54" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I54" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J54" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K54" s="70">
-        <v>0</v>
-      </c>
-      <c r="L54" s="69">
+        <v>0</v>
+      </c>
+      <c r="F54" s="69">
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A55" s="67" t="s">
         <v>592</v>
       </c>
@@ -25211,31 +24464,13 @@
         <v>3</v>
       </c>
       <c r="E55" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F55" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G55" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H55" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I55" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J55" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K55" s="70">
-        <v>0</v>
-      </c>
-      <c r="L55" s="69">
+        <v>0</v>
+      </c>
+      <c r="F55" s="69">
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A56" s="67" t="s">
         <v>592</v>
       </c>
@@ -25249,31 +24484,13 @@
         <v>3</v>
       </c>
       <c r="E56" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F56" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G56" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H56" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I56" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J56" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K56" s="70">
-        <v>0</v>
-      </c>
-      <c r="L56" s="69">
+        <v>0</v>
+      </c>
+      <c r="F56" s="69">
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A57" s="67" t="s">
         <v>592</v>
       </c>
@@ -25287,31 +24504,13 @@
         <v>3</v>
       </c>
       <c r="E57" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F57" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G57" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H57" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I57" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J57" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K57" s="70">
-        <v>0</v>
-      </c>
-      <c r="L57" s="69">
+        <v>0</v>
+      </c>
+      <c r="F57" s="69">
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A58" s="67" t="s">
         <v>592</v>
       </c>
@@ -25325,31 +24524,13 @@
         <v>3</v>
       </c>
       <c r="E58" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F58" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G58" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H58" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I58" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J58" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K58" s="70">
-        <v>0</v>
-      </c>
-      <c r="L58" s="69">
+        <v>0</v>
+      </c>
+      <c r="F58" s="69">
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A59" s="67" t="s">
         <v>592</v>
       </c>
@@ -25363,31 +24544,13 @@
         <v>3</v>
       </c>
       <c r="E59" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F59" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G59" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H59" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I59" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J59" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K59" s="70">
-        <v>0</v>
-      </c>
-      <c r="L59" s="69">
+        <v>0</v>
+      </c>
+      <c r="F59" s="69">
         <v>507</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A60" s="67" t="s">
         <v>592</v>
       </c>
@@ -25401,31 +24564,13 @@
         <v>3</v>
       </c>
       <c r="E60" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F60" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G60" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H60" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I60" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J60" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K60" s="70">
-        <v>0</v>
-      </c>
-      <c r="L60" s="69">
+        <v>0</v>
+      </c>
+      <c r="F60" s="69">
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A61" s="67" t="s">
         <v>592</v>
       </c>
@@ -25439,31 +24584,13 @@
         <v>3</v>
       </c>
       <c r="E61" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F61" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G61" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H61" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I61" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J61" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K61" s="70">
-        <v>0</v>
-      </c>
-      <c r="L61" s="69">
+        <v>0</v>
+      </c>
+      <c r="F61" s="69">
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A62" s="67" t="s">
         <v>592</v>
       </c>
@@ -25477,31 +24604,13 @@
         <v>3</v>
       </c>
       <c r="E62" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F62" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G62" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H62" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I62" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J62" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K62" s="70">
-        <v>0</v>
-      </c>
-      <c r="L62" s="69">
+        <v>0</v>
+      </c>
+      <c r="F62" s="69">
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A63" s="67" t="s">
         <v>592</v>
       </c>
@@ -25515,31 +24624,13 @@
         <v>2</v>
       </c>
       <c r="E63" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F63" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G63" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H63" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I63" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J63" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K63" s="70">
-        <v>0</v>
-      </c>
-      <c r="L63" s="69">
+        <v>0</v>
+      </c>
+      <c r="F63" s="69">
         <v>511</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A64" s="67" t="s">
         <v>592</v>
       </c>
@@ -25553,31 +24644,13 @@
         <v>3</v>
       </c>
       <c r="E64" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F64" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G64" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H64" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I64" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J64" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K64" s="70">
-        <v>0</v>
-      </c>
-      <c r="L64" s="69">
+        <v>0</v>
+      </c>
+      <c r="F64" s="69">
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A65" s="67" t="s">
         <v>592</v>
       </c>
@@ -25591,31 +24664,13 @@
         <v>2</v>
       </c>
       <c r="E65" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F65" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G65" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H65" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I65" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J65" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K65" s="70">
-        <v>0</v>
-      </c>
-      <c r="L65" s="69">
+        <v>0</v>
+      </c>
+      <c r="F65" s="69">
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A66" s="67" t="s">
         <v>592</v>
       </c>
@@ -25629,31 +24684,13 @@
         <v>3</v>
       </c>
       <c r="E66" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F66" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G66" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H66" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I66" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J66" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K66" s="70">
-        <v>0</v>
-      </c>
-      <c r="L66" s="69">
+        <v>0</v>
+      </c>
+      <c r="F66" s="69">
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A67" s="67" t="s">
         <v>592</v>
       </c>
@@ -25667,31 +24704,13 @@
         <v>2</v>
       </c>
       <c r="E67" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F67" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G67" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H67" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I67" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J67" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K67" s="70">
-        <v>0</v>
-      </c>
-      <c r="L67" s="69">
+        <v>0</v>
+      </c>
+      <c r="F67" s="69">
         <v>516</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A68" s="67" t="s">
         <v>592</v>
       </c>
@@ -25705,31 +24724,13 @@
         <v>1</v>
       </c>
       <c r="E68" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F68" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G68" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H68" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I68" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J68" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K68" s="70">
         <v>0.2</v>
       </c>
-      <c r="L68" s="69">
+      <c r="F68" s="69">
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A69" s="67" t="s">
         <v>592</v>
       </c>
@@ -25743,31 +24744,13 @@
         <v>2</v>
       </c>
       <c r="E69" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F69" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G69" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H69" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I69" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J69" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K69" s="70">
-        <v>0</v>
-      </c>
-      <c r="L69" s="69">
+        <v>0</v>
+      </c>
+      <c r="F69" s="69">
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A70" s="67" t="s">
         <v>592</v>
       </c>
@@ -25781,31 +24764,13 @@
         <v>2</v>
       </c>
       <c r="E70" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F70" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G70" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H70" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I70" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J70" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K70" s="70">
-        <v>0</v>
-      </c>
-      <c r="L70" s="69">
+        <v>0</v>
+      </c>
+      <c r="F70" s="69">
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A71" s="67" t="s">
         <v>592</v>
       </c>
@@ -25819,31 +24784,13 @@
         <v>2</v>
       </c>
       <c r="E71" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F71" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G71" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H71" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I71" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J71" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K71" s="70">
-        <v>0</v>
-      </c>
-      <c r="L71" s="69">
+        <v>0</v>
+      </c>
+      <c r="F71" s="69">
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A72" s="67" t="s">
         <v>592</v>
       </c>
@@ -25857,31 +24804,13 @@
         <v>3</v>
       </c>
       <c r="E72" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F72" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G72" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H72" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I72" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J72" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K72" s="70">
-        <v>0</v>
-      </c>
-      <c r="L72" s="69">
+        <v>0</v>
+      </c>
+      <c r="F72" s="69">
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A73" s="67" t="s">
         <v>592</v>
       </c>
@@ -25895,31 +24824,13 @@
         <v>3</v>
       </c>
       <c r="E73" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F73" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G73" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H73" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I73" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J73" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K73" s="70">
-        <v>0</v>
-      </c>
-      <c r="L73" s="69">
+        <v>0</v>
+      </c>
+      <c r="F73" s="69">
         <v>525</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A74" s="67" t="s">
         <v>592</v>
       </c>
@@ -25933,31 +24844,13 @@
         <v>3</v>
       </c>
       <c r="E74" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F74" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G74" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H74" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I74" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J74" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K74" s="70">
-        <v>0</v>
-      </c>
-      <c r="L74" s="69">
+        <v>0</v>
+      </c>
+      <c r="F74" s="69">
         <v>526</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A75" s="67" t="s">
         <v>592</v>
       </c>
@@ -25971,31 +24864,13 @@
         <v>3</v>
       </c>
       <c r="E75" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F75" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G75" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H75" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I75" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J75" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K75" s="70">
-        <v>0</v>
-      </c>
-      <c r="L75" s="69">
+        <v>0</v>
+      </c>
+      <c r="F75" s="69">
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A76" s="67" t="s">
         <v>592</v>
       </c>
@@ -26009,31 +24884,13 @@
         <v>3</v>
       </c>
       <c r="E76" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F76" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G76" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H76" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I76" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J76" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K76" s="70">
-        <v>0</v>
-      </c>
-      <c r="L76" s="69">
+        <v>0</v>
+      </c>
+      <c r="F76" s="69">
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A77" s="67" t="s">
         <v>592</v>
       </c>
@@ -26047,31 +24904,13 @@
         <v>4</v>
       </c>
       <c r="E77" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F77" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G77" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H77" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I77" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J77" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K77" s="70">
-        <v>0</v>
-      </c>
-      <c r="L77" s="69">
+        <v>0</v>
+      </c>
+      <c r="F77" s="69">
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A78" s="67" t="s">
         <v>592</v>
       </c>
@@ -26085,31 +24924,13 @@
         <v>3</v>
       </c>
       <c r="E78" s="70">
-        <v>6690</v>
-      </c>
-      <c r="F78" s="70">
-        <v>6690</v>
-      </c>
-      <c r="G78" s="70">
-        <v>7361</v>
-      </c>
-      <c r="H78" s="70">
-        <v>7361</v>
-      </c>
-      <c r="I78" s="70">
-        <v>8008</v>
-      </c>
-      <c r="J78" s="70">
-        <v>8008</v>
-      </c>
-      <c r="K78" s="70">
-        <v>0</v>
-      </c>
-      <c r="L78" s="69">
+        <v>0</v>
+      </c>
+      <c r="F78" s="69">
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A79" s="67" t="s">
         <v>592</v>
       </c>
@@ -26123,31 +24944,13 @@
         <v>2</v>
       </c>
       <c r="E79" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F79" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G79" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H79" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I79" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J79" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K79" s="70">
-        <v>0</v>
-      </c>
-      <c r="L79" s="69">
+        <v>0</v>
+      </c>
+      <c r="F79" s="69">
         <v>534</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A80" s="67" t="s">
         <v>592</v>
       </c>
@@ -26161,31 +24964,13 @@
         <v>2</v>
       </c>
       <c r="E80" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F80" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G80" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H80" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I80" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J80" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K80" s="70">
-        <v>0</v>
-      </c>
-      <c r="L80" s="69">
+        <v>0</v>
+      </c>
+      <c r="F80" s="69">
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A81" s="67" t="s">
         <v>592</v>
       </c>
@@ -26199,31 +24984,13 @@
         <v>4</v>
       </c>
       <c r="E81" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F81" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G81" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H81" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I81" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J81" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K81" s="70">
-        <v>0</v>
-      </c>
-      <c r="L81" s="69">
+        <v>0</v>
+      </c>
+      <c r="F81" s="69">
         <v>536</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A82" s="67" t="s">
         <v>592</v>
       </c>
@@ -26237,31 +25004,13 @@
         <v>4</v>
       </c>
       <c r="E82" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F82" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G82" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H82" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I82" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J82" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K82" s="70">
-        <v>0</v>
-      </c>
-      <c r="L82" s="69">
+        <v>0</v>
+      </c>
+      <c r="F82" s="69">
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A83" s="67" t="s">
         <v>592</v>
       </c>
@@ -26275,31 +25024,13 @@
         <v>2</v>
       </c>
       <c r="E83" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F83" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G83" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H83" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I83" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J83" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K83" s="70">
-        <v>0</v>
-      </c>
-      <c r="L83" s="69">
+        <v>0</v>
+      </c>
+      <c r="F83" s="69">
         <v>538</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A84" s="67" t="s">
         <v>592</v>
       </c>
@@ -26313,31 +25044,13 @@
         <v>3</v>
       </c>
       <c r="E84" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F84" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G84" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H84" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I84" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J84" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K84" s="70">
-        <v>0</v>
-      </c>
-      <c r="L84" s="69">
+        <v>0</v>
+      </c>
+      <c r="F84" s="69">
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A85" s="67" t="s">
         <v>592</v>
       </c>
@@ -26351,31 +25064,13 @@
         <v>3</v>
       </c>
       <c r="E85" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F85" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G85" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H85" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I85" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J85" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K85" s="70">
-        <v>0</v>
-      </c>
-      <c r="L85" s="69">
+        <v>0</v>
+      </c>
+      <c r="F85" s="69">
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A86" s="67" t="s">
         <v>592</v>
       </c>
@@ -26389,31 +25084,13 @@
         <v>3</v>
       </c>
       <c r="E86" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F86" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G86" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H86" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I86" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J86" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K86" s="70">
-        <v>0</v>
-      </c>
-      <c r="L86" s="69">
+        <v>0</v>
+      </c>
+      <c r="F86" s="69">
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A87" s="67" t="s">
         <v>592</v>
       </c>
@@ -26427,31 +25104,13 @@
         <v>3</v>
       </c>
       <c r="E87" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F87" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G87" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H87" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I87" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J87" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K87" s="70">
-        <v>0</v>
-      </c>
-      <c r="L87" s="69">
+        <v>0</v>
+      </c>
+      <c r="F87" s="69">
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A88" s="67" t="s">
         <v>592</v>
       </c>
@@ -26465,31 +25124,13 @@
         <v>3</v>
       </c>
       <c r="E88" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F88" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G88" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H88" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I88" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J88" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K88" s="70">
-        <v>0</v>
-      </c>
-      <c r="L88" s="69">
+        <v>0</v>
+      </c>
+      <c r="F88" s="69">
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A89" s="67" t="s">
         <v>592</v>
       </c>
@@ -26503,31 +25144,13 @@
         <v>2</v>
       </c>
       <c r="E89" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F89" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G89" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H89" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I89" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J89" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K89" s="70">
-        <v>0</v>
-      </c>
-      <c r="L89" s="69">
+        <v>0</v>
+      </c>
+      <c r="F89" s="69">
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A90" s="67" t="s">
         <v>592</v>
       </c>
@@ -26541,31 +25164,13 @@
         <v>3</v>
       </c>
       <c r="E90" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F90" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G90" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H90" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I90" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J90" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K90" s="70">
-        <v>0</v>
-      </c>
-      <c r="L90" s="69">
+        <v>0</v>
+      </c>
+      <c r="F90" s="69">
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A91" s="67" t="s">
         <v>592</v>
       </c>
@@ -26579,31 +25184,13 @@
         <v>3</v>
       </c>
       <c r="E91" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F91" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G91" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H91" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I91" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J91" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K91" s="70">
-        <v>0</v>
-      </c>
-      <c r="L91" s="69">
+        <v>0</v>
+      </c>
+      <c r="F91" s="69">
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A92" s="67" t="s">
         <v>592</v>
       </c>
@@ -26617,31 +25204,13 @@
         <v>4</v>
       </c>
       <c r="E92" s="70">
-        <v>7620</v>
-      </c>
-      <c r="F92" s="70">
-        <v>7620</v>
-      </c>
-      <c r="G92" s="70">
-        <v>8382</v>
-      </c>
-      <c r="H92" s="70">
-        <v>8382</v>
-      </c>
-      <c r="I92" s="70">
-        <v>9145</v>
-      </c>
-      <c r="J92" s="70">
-        <v>9145</v>
-      </c>
-      <c r="K92" s="70">
-        <v>0</v>
-      </c>
-      <c r="L92" s="69">
+        <v>0</v>
+      </c>
+      <c r="F92" s="69">
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A93" s="67" t="s">
         <v>592</v>
       </c>
@@ -26655,31 +25224,13 @@
         <v>3</v>
       </c>
       <c r="E93" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F93" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G93" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H93" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I93" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J93" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K93" s="70">
-        <v>0</v>
-      </c>
-      <c r="L93" s="69">
+        <v>0</v>
+      </c>
+      <c r="F93" s="69">
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A94" s="67" t="s">
         <v>592</v>
       </c>
@@ -26693,31 +25244,13 @@
         <v>3</v>
       </c>
       <c r="E94" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F94" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G94" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H94" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I94" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J94" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K94" s="70">
-        <v>0</v>
-      </c>
-      <c r="L94" s="69">
+        <v>0</v>
+      </c>
+      <c r="F94" s="69">
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A95" s="67" t="s">
         <v>592</v>
       </c>
@@ -26731,31 +25264,13 @@
         <v>3</v>
       </c>
       <c r="E95" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F95" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G95" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H95" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I95" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J95" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K95" s="70">
-        <v>0</v>
-      </c>
-      <c r="L95" s="69">
+        <v>0</v>
+      </c>
+      <c r="F95" s="69">
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A96" s="67" t="s">
         <v>592</v>
       </c>
@@ -26769,31 +25284,13 @@
         <v>3</v>
       </c>
       <c r="E96" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F96" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G96" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H96" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I96" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J96" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K96" s="70">
-        <v>0</v>
-      </c>
-      <c r="L96" s="69">
+        <v>0</v>
+      </c>
+      <c r="F96" s="69">
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A97" s="67" t="s">
         <v>592</v>
       </c>
@@ -26807,31 +25304,13 @@
         <v>3</v>
       </c>
       <c r="E97" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F97" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G97" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H97" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I97" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J97" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K97" s="70">
-        <v>0</v>
-      </c>
-      <c r="L97" s="69">
+        <v>0</v>
+      </c>
+      <c r="F97" s="69">
         <v>553</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A98" s="67" t="s">
         <v>592</v>
       </c>
@@ -26845,31 +25324,13 @@
         <v>3</v>
       </c>
       <c r="E98" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F98" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G98" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H98" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I98" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J98" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K98" s="70">
-        <v>0</v>
-      </c>
-      <c r="L98" s="69">
+        <v>0</v>
+      </c>
+      <c r="F98" s="69">
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A99" s="67" t="s">
         <v>592</v>
       </c>
@@ -26883,31 +25344,13 @@
         <v>3</v>
       </c>
       <c r="E99" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F99" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G99" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H99" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I99" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J99" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K99" s="70">
-        <v>0</v>
-      </c>
-      <c r="L99" s="69">
+        <v>0</v>
+      </c>
+      <c r="F99" s="69">
         <v>555</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A100" s="67" t="s">
         <v>592</v>
       </c>
@@ -26921,31 +25364,13 @@
         <v>2</v>
       </c>
       <c r="E100" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F100" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G100" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H100" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I100" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J100" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K100" s="70">
-        <v>0</v>
-      </c>
-      <c r="L100" s="69">
+        <v>0</v>
+      </c>
+      <c r="F100" s="69">
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A101" s="67" t="s">
         <v>592</v>
       </c>
@@ -26959,31 +25384,13 @@
         <v>3</v>
       </c>
       <c r="E101" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F101" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G101" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H101" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I101" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J101" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K101" s="70">
-        <v>0</v>
-      </c>
-      <c r="L101" s="69">
+        <v>0</v>
+      </c>
+      <c r="F101" s="69">
         <v>557</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A102" s="67" t="s">
         <v>592</v>
       </c>
@@ -26997,31 +25404,13 @@
         <v>2</v>
       </c>
       <c r="E102" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F102" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G102" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H102" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I102" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J102" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K102" s="70">
-        <v>0</v>
-      </c>
-      <c r="L102" s="69">
+        <v>0</v>
+      </c>
+      <c r="F102" s="69">
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A103" s="67" t="s">
         <v>592</v>
       </c>
@@ -27035,31 +25424,13 @@
         <v>1</v>
       </c>
       <c r="E103" s="70">
-        <v>4203</v>
-      </c>
-      <c r="F103" s="70">
-        <v>4203</v>
-      </c>
-      <c r="G103" s="70">
-        <v>4623</v>
-      </c>
-      <c r="H103" s="70">
-        <v>4623</v>
-      </c>
-      <c r="I103" s="70">
-        <v>5045</v>
-      </c>
-      <c r="J103" s="70">
-        <v>5045</v>
-      </c>
-      <c r="K103" s="70">
         <v>0.2</v>
       </c>
-      <c r="L103" s="69">
+      <c r="F103" s="69">
         <v>709</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A104" s="67" t="s">
         <v>592</v>
       </c>
@@ -27073,31 +25444,13 @@
         <v>2</v>
       </c>
       <c r="E104" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F104" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G104" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H104" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I104" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J104" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K104" s="70">
-        <v>0</v>
-      </c>
-      <c r="L104" s="69">
+        <v>0</v>
+      </c>
+      <c r="F104" s="69">
         <v>5211</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A105" s="67" t="s">
         <v>592</v>
       </c>
@@ -27111,31 +25464,13 @@
         <v>3</v>
       </c>
       <c r="E105" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F105" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G105" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H105" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I105" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J105" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K105" s="70">
-        <v>0</v>
-      </c>
-      <c r="L105" s="69">
+        <v>0</v>
+      </c>
+      <c r="F105" s="69">
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A106" s="67" t="s">
         <v>592</v>
       </c>
@@ -27149,31 +25484,13 @@
         <v>3</v>
       </c>
       <c r="E106" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F106" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G106" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H106" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I106" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J106" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K106" s="70">
-        <v>0</v>
-      </c>
-      <c r="L106" s="69">
+        <v>0</v>
+      </c>
+      <c r="F106" s="69">
         <v>560</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A107" s="67" t="s">
         <v>592</v>
       </c>
@@ -27187,31 +25504,13 @@
         <v>3</v>
       </c>
       <c r="E107" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F107" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G107" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H107" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I107" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J107" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K107" s="70">
-        <v>0</v>
-      </c>
-      <c r="L107" s="69">
+        <v>0</v>
+      </c>
+      <c r="F107" s="69">
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A108" s="67" t="s">
         <v>592</v>
       </c>
@@ -27225,31 +25524,13 @@
         <v>3</v>
       </c>
       <c r="E108" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F108" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G108" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H108" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I108" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J108" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K108" s="70">
-        <v>0</v>
-      </c>
-      <c r="L108" s="69">
+        <v>0</v>
+      </c>
+      <c r="F108" s="69">
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A109" s="67" t="s">
         <v>592</v>
       </c>
@@ -27263,31 +25544,13 @@
         <v>3</v>
       </c>
       <c r="E109" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F109" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G109" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H109" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I109" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J109" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K109" s="70">
-        <v>0</v>
-      </c>
-      <c r="L109" s="69">
+        <v>0</v>
+      </c>
+      <c r="F109" s="69">
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A110" s="67" t="s">
         <v>592</v>
       </c>
@@ -27301,31 +25564,13 @@
         <v>3</v>
       </c>
       <c r="E110" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F110" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G110" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H110" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I110" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J110" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K110" s="70">
-        <v>0</v>
-      </c>
-      <c r="L110" s="69">
+        <v>0</v>
+      </c>
+      <c r="F110" s="69">
         <v>564</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A111" s="67" t="s">
         <v>592</v>
       </c>
@@ -27339,31 +25584,13 @@
         <v>3</v>
       </c>
       <c r="E111" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F111" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G111" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H111" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I111" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J111" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K111" s="70">
-        <v>0</v>
-      </c>
-      <c r="L111" s="69">
+        <v>0</v>
+      </c>
+      <c r="F111" s="69">
         <v>565</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A112" s="67" t="s">
         <v>592</v>
       </c>
@@ -27377,31 +25604,13 @@
         <v>2</v>
       </c>
       <c r="E112" s="70">
-        <v>4835</v>
-      </c>
-      <c r="F112" s="70">
-        <v>4835</v>
-      </c>
-      <c r="G112" s="70">
-        <v>5318</v>
-      </c>
-      <c r="H112" s="70">
-        <v>5318</v>
-      </c>
-      <c r="I112" s="70">
-        <v>5801</v>
-      </c>
-      <c r="J112" s="70">
-        <v>5801</v>
-      </c>
-      <c r="K112" s="70">
-        <v>0</v>
-      </c>
-      <c r="L112" s="69">
+        <v>0</v>
+      </c>
+      <c r="F112" s="69">
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A113" s="67" t="s">
         <v>592</v>
       </c>
@@ -27415,31 +25624,13 @@
         <v>2</v>
       </c>
       <c r="E113" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F113" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G113" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H113" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I113" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J113" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K113" s="70">
-        <v>0</v>
-      </c>
-      <c r="L113" s="69">
+        <v>0</v>
+      </c>
+      <c r="F113" s="69">
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A114" s="67" t="s">
         <v>592</v>
       </c>
@@ -27453,31 +25644,13 @@
         <v>3</v>
       </c>
       <c r="E114" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F114" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G114" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H114" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I114" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J114" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K114" s="70">
-        <v>0</v>
-      </c>
-      <c r="L114" s="69">
+        <v>0</v>
+      </c>
+      <c r="F114" s="69">
         <v>568</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A115" s="67" t="s">
         <v>592</v>
       </c>
@@ -27491,31 +25664,13 @@
         <v>3</v>
       </c>
       <c r="E115" s="70">
-        <v>5764</v>
-      </c>
-      <c r="F115" s="70">
-        <v>5764</v>
-      </c>
-      <c r="G115" s="70">
-        <v>6340</v>
-      </c>
-      <c r="H115" s="70">
-        <v>6340</v>
-      </c>
-      <c r="I115" s="70">
-        <v>6916</v>
-      </c>
-      <c r="J115" s="70">
-        <v>6916</v>
-      </c>
-      <c r="K115" s="70">
-        <v>0</v>
-      </c>
-      <c r="L115" s="69">
+        <v>0</v>
+      </c>
+      <c r="F115" s="69">
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A116" s="67" t="s">
         <v>593</v>
       </c>
@@ -27531,29 +25686,11 @@
       <c r="E116" s="73">
         <v>0</v>
       </c>
-      <c r="F116" s="73">
-        <v>0</v>
-      </c>
-      <c r="G116" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H116" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I116" s="73">
-        <v>0</v>
-      </c>
-      <c r="J116" s="73">
-        <v>0</v>
-      </c>
-      <c r="K116" s="73">
-        <v>0</v>
-      </c>
-      <c r="L116" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="F116" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A117" s="67" t="s">
         <v>593</v>
       </c>
@@ -27569,29 +25706,11 @@
       <c r="E117" s="73">
         <v>0</v>
       </c>
-      <c r="F117" s="73">
-        <v>0</v>
-      </c>
-      <c r="G117" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H117" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I117" s="73">
-        <v>0</v>
-      </c>
-      <c r="J117" s="73">
-        <v>0</v>
-      </c>
-      <c r="K117" s="73">
-        <v>0</v>
-      </c>
-      <c r="L117" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="F117" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A118" s="67" t="s">
         <v>593</v>
       </c>
@@ -27604,32 +25723,14 @@
       <c r="D118" s="72">
         <v>0</v>
       </c>
-      <c r="E118" s="73">
-        <v>0</v>
-      </c>
-      <c r="F118" s="73">
-        <v>0</v>
-      </c>
-      <c r="G118" s="76">
-        <v>10224</v>
-      </c>
-      <c r="H118" s="76">
-        <v>16201.199999999999</v>
-      </c>
-      <c r="I118" s="73">
-        <v>0</v>
-      </c>
-      <c r="J118" s="73">
-        <v>0</v>
-      </c>
-      <c r="K118" s="76">
-        <v>0</v>
-      </c>
-      <c r="L118" s="74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="E118" s="76">
+        <v>0</v>
+      </c>
+      <c r="F118" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A119" s="67" t="s">
         <v>593</v>
       </c>
@@ -27645,29 +25746,11 @@
       <c r="E119" s="73">
         <v>0</v>
       </c>
-      <c r="F119" s="73">
-        <v>0</v>
-      </c>
-      <c r="G119" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H119" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I119" s="73">
-        <v>0</v>
-      </c>
-      <c r="J119" s="73">
-        <v>0</v>
-      </c>
-      <c r="K119" s="73">
-        <v>0</v>
-      </c>
-      <c r="L119" s="74">
+      <c r="F119" s="74">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A120" s="67" t="s">
         <v>593</v>
       </c>
@@ -27683,29 +25766,11 @@
       <c r="E120" s="73">
         <v>0</v>
       </c>
-      <c r="F120" s="73">
-        <v>0</v>
-      </c>
-      <c r="G120" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H120" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I120" s="73">
-        <v>0</v>
-      </c>
-      <c r="J120" s="73">
-        <v>0</v>
-      </c>
-      <c r="K120" s="73">
-        <v>0</v>
-      </c>
-      <c r="L120" s="74">
+      <c r="F120" s="74">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A121" s="67" t="s">
         <v>593</v>
       </c>
@@ -27721,29 +25786,11 @@
       <c r="E121" s="73">
         <v>0</v>
       </c>
-      <c r="F121" s="73">
-        <v>0</v>
-      </c>
-      <c r="G121" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H121" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I121" s="73">
-        <v>0</v>
-      </c>
-      <c r="J121" s="73">
-        <v>0</v>
-      </c>
-      <c r="K121" s="73">
-        <v>0</v>
-      </c>
-      <c r="L121" s="74">
+      <c r="F121" s="74">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A122" s="67" t="s">
         <v>593</v>
       </c>
@@ -27759,29 +25806,11 @@
       <c r="E122" s="73">
         <v>0</v>
       </c>
-      <c r="F122" s="73">
-        <v>0</v>
-      </c>
-      <c r="G122" s="73">
-        <v>5044</v>
-      </c>
-      <c r="H122" s="73">
-        <v>0</v>
-      </c>
-      <c r="I122" s="73">
-        <v>0</v>
-      </c>
-      <c r="J122" s="73">
-        <v>0</v>
-      </c>
-      <c r="K122" s="73">
-        <v>0</v>
-      </c>
-      <c r="L122" s="77">
+      <c r="F122" s="77">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A123" s="67" t="s">
         <v>593</v>
       </c>
@@ -27797,29 +25826,11 @@
       <c r="E123" s="73">
         <v>0</v>
       </c>
-      <c r="F123" s="73">
-        <v>0</v>
-      </c>
-      <c r="G123" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H123" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I123" s="73">
-        <v>0</v>
-      </c>
-      <c r="J123" s="73">
-        <v>0</v>
-      </c>
-      <c r="K123" s="73">
-        <v>0</v>
-      </c>
-      <c r="L123" s="74">
+      <c r="F123" s="74">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A124" s="67" t="s">
         <v>593</v>
       </c>
@@ -27835,29 +25846,11 @@
       <c r="E124" s="73">
         <v>0</v>
       </c>
-      <c r="F124" s="73">
-        <v>0</v>
-      </c>
-      <c r="G124" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H124" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I124" s="73">
-        <v>0</v>
-      </c>
-      <c r="J124" s="73">
-        <v>0</v>
-      </c>
-      <c r="K124" s="73">
-        <v>0</v>
-      </c>
-      <c r="L124" s="74">
+      <c r="F124" s="74">
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A125" s="67" t="s">
         <v>593</v>
       </c>
@@ -27873,29 +25866,11 @@
       <c r="E125" s="73">
         <v>0</v>
       </c>
-      <c r="F125" s="73">
-        <v>0</v>
-      </c>
-      <c r="G125" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H125" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I125" s="73">
-        <v>0</v>
-      </c>
-      <c r="J125" s="73">
-        <v>0</v>
-      </c>
-      <c r="K125" s="73">
-        <v>0</v>
-      </c>
-      <c r="L125" s="74">
+      <c r="F125" s="74">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A126" s="67" t="s">
         <v>593</v>
       </c>
@@ -27911,29 +25886,11 @@
       <c r="E126" s="73">
         <v>0</v>
       </c>
-      <c r="F126" s="73">
-        <v>0</v>
-      </c>
-      <c r="G126" s="73">
-        <v>5044</v>
-      </c>
-      <c r="H126" s="73">
-        <v>0</v>
-      </c>
-      <c r="I126" s="73">
-        <v>0</v>
-      </c>
-      <c r="J126" s="73">
-        <v>0</v>
-      </c>
-      <c r="K126" s="73">
-        <v>0</v>
-      </c>
-      <c r="L126" s="77">
+      <c r="F126" s="77">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A127" s="67" t="s">
         <v>593</v>
       </c>
@@ -27949,29 +25906,11 @@
       <c r="E127" s="73">
         <v>0</v>
       </c>
-      <c r="F127" s="73">
-        <v>0</v>
-      </c>
-      <c r="G127" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H127" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I127" s="73">
-        <v>0</v>
-      </c>
-      <c r="J127" s="73">
-        <v>0</v>
-      </c>
-      <c r="K127" s="73">
-        <v>0</v>
-      </c>
-      <c r="L127" s="74">
+      <c r="F127" s="74">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A128" s="67" t="s">
         <v>593</v>
       </c>
@@ -27987,29 +25926,11 @@
       <c r="E128" s="73">
         <v>0</v>
       </c>
-      <c r="F128" s="73">
-        <v>0</v>
-      </c>
-      <c r="G128" s="73">
-        <v>6040</v>
-      </c>
-      <c r="H128" s="73">
-        <v>9574</v>
-      </c>
-      <c r="I128" s="73">
-        <v>0</v>
-      </c>
-      <c r="J128" s="73">
-        <v>0</v>
-      </c>
-      <c r="K128" s="73">
-        <v>0</v>
-      </c>
-      <c r="L128" s="77">
+      <c r="F128" s="77">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A129" s="67" t="s">
         <v>593</v>
       </c>
@@ -28025,29 +25946,11 @@
       <c r="E129" s="73">
         <v>0</v>
       </c>
-      <c r="F129" s="73">
-        <v>0</v>
-      </c>
-      <c r="G129" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H129" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I129" s="73">
-        <v>0</v>
-      </c>
-      <c r="J129" s="73">
-        <v>0</v>
-      </c>
-      <c r="K129" s="73">
-        <v>0</v>
-      </c>
-      <c r="L129" s="74">
+      <c r="F129" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A130" s="67" t="s">
         <v>593</v>
       </c>
@@ -28063,29 +25966,11 @@
       <c r="E130" s="73">
         <v>0</v>
       </c>
-      <c r="F130" s="73">
-        <v>0</v>
-      </c>
-      <c r="G130" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H130" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I130" s="73">
-        <v>0</v>
-      </c>
-      <c r="J130" s="73">
-        <v>0</v>
-      </c>
-      <c r="K130" s="73">
-        <v>0</v>
-      </c>
-      <c r="L130" s="74">
+      <c r="F130" s="74">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A131" s="67" t="s">
         <v>593</v>
       </c>
@@ -28101,29 +25986,11 @@
       <c r="E131" s="73">
         <v>0</v>
       </c>
-      <c r="F131" s="73">
-        <v>0</v>
-      </c>
-      <c r="G131" s="73">
-        <v>6040</v>
-      </c>
-      <c r="H131" s="73">
-        <v>9574</v>
-      </c>
-      <c r="I131" s="73">
-        <v>0</v>
-      </c>
-      <c r="J131" s="73">
-        <v>0</v>
-      </c>
-      <c r="K131" s="73">
-        <v>0</v>
-      </c>
-      <c r="L131" s="77">
+      <c r="F131" s="77">
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A132" s="67" t="s">
         <v>593</v>
       </c>
@@ -28139,29 +26006,11 @@
       <c r="E132" s="73">
         <v>0</v>
       </c>
-      <c r="F132" s="73">
-        <v>0</v>
-      </c>
-      <c r="G132" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H132" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I132" s="73">
-        <v>0</v>
-      </c>
-      <c r="J132" s="73">
-        <v>0</v>
-      </c>
-      <c r="K132" s="73">
-        <v>0</v>
-      </c>
-      <c r="L132" s="74">
+      <c r="F132" s="74">
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A133" s="67" t="s">
         <v>593</v>
       </c>
@@ -28177,29 +26026,11 @@
       <c r="E133" s="73">
         <v>0</v>
       </c>
-      <c r="F133" s="73">
-        <v>0</v>
-      </c>
-      <c r="G133" s="73">
-        <v>10224</v>
-      </c>
-      <c r="H133" s="73">
-        <v>16201.199999999999</v>
-      </c>
-      <c r="I133" s="73">
-        <v>0</v>
-      </c>
-      <c r="J133" s="73">
-        <v>0</v>
-      </c>
-      <c r="K133" s="73">
-        <v>0</v>
-      </c>
-      <c r="L133" s="74">
+      <c r="F133" s="74">
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A134" s="67" t="s">
         <v>593</v>
       </c>
@@ -28212,32 +26043,14 @@
       <c r="D134" s="72">
         <v>0</v>
       </c>
-      <c r="E134" s="73">
-        <v>0</v>
-      </c>
-      <c r="F134" s="73">
-        <v>0</v>
-      </c>
-      <c r="G134" s="76">
-        <v>8520</v>
-      </c>
-      <c r="H134" s="76">
-        <v>13501</v>
-      </c>
-      <c r="I134" s="73">
-        <v>0</v>
-      </c>
-      <c r="J134" s="73">
-        <v>0</v>
-      </c>
-      <c r="K134" s="76">
-        <v>0</v>
-      </c>
-      <c r="L134" s="78">
+      <c r="E134" s="76">
+        <v>0</v>
+      </c>
+      <c r="F134" s="78">
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A135" s="67" t="s">
         <v>593</v>
       </c>
@@ -28253,29 +26066,11 @@
       <c r="E135" s="73">
         <v>0</v>
       </c>
-      <c r="F135" s="73">
-        <v>0</v>
-      </c>
-      <c r="G135" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H135" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I135" s="73">
-        <v>0</v>
-      </c>
-      <c r="J135" s="73">
-        <v>0</v>
-      </c>
-      <c r="K135" s="73">
-        <v>0</v>
-      </c>
-      <c r="L135" s="74">
+      <c r="F135" s="74">
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A136" s="67" t="s">
         <v>593</v>
       </c>
@@ -28291,29 +26086,11 @@
       <c r="E136" s="73">
         <v>0</v>
       </c>
-      <c r="F136" s="73">
-        <v>0</v>
-      </c>
-      <c r="G136" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H136" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I136" s="73">
-        <v>0</v>
-      </c>
-      <c r="J136" s="73">
-        <v>0</v>
-      </c>
-      <c r="K136" s="73">
-        <v>0</v>
-      </c>
-      <c r="L136" s="74">
+      <c r="F136" s="74">
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A137" s="67" t="s">
         <v>593</v>
       </c>
@@ -28326,32 +26103,14 @@
       <c r="D137" s="72">
         <v>0</v>
       </c>
-      <c r="E137" s="73">
-        <v>0</v>
-      </c>
-      <c r="F137" s="73">
-        <v>0</v>
-      </c>
-      <c r="G137" s="76">
-        <v>8520</v>
-      </c>
-      <c r="H137" s="76">
-        <v>13501</v>
-      </c>
-      <c r="I137" s="73">
-        <v>0</v>
-      </c>
-      <c r="J137" s="73">
-        <v>0</v>
-      </c>
-      <c r="K137" s="76">
-        <v>0</v>
-      </c>
-      <c r="L137" s="78">
+      <c r="E137" s="76">
+        <v>0</v>
+      </c>
+      <c r="F137" s="78">
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A138" s="67" t="s">
         <v>593</v>
       </c>
@@ -28367,29 +26126,11 @@
       <c r="E138" s="73">
         <v>0</v>
       </c>
-      <c r="F138" s="73">
-        <v>0</v>
-      </c>
-      <c r="G138" s="73">
-        <v>6040</v>
-      </c>
-      <c r="H138" s="73">
-        <v>9574</v>
-      </c>
-      <c r="I138" s="73">
-        <v>0</v>
-      </c>
-      <c r="J138" s="73">
-        <v>0</v>
-      </c>
-      <c r="K138" s="73">
-        <v>0</v>
-      </c>
-      <c r="L138" s="77">
+      <c r="F138" s="77">
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A139" s="67" t="s">
         <v>593</v>
       </c>
@@ -28405,29 +26146,11 @@
       <c r="E139" s="73">
         <v>0</v>
       </c>
-      <c r="F139" s="73">
-        <v>0</v>
-      </c>
-      <c r="G139" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H139" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I139" s="73">
-        <v>0</v>
-      </c>
-      <c r="J139" s="73">
-        <v>0</v>
-      </c>
-      <c r="K139" s="73">
-        <v>0</v>
-      </c>
-      <c r="L139" s="74">
+      <c r="F139" s="74">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A140" s="67" t="s">
         <v>593</v>
       </c>
@@ -28443,29 +26166,11 @@
       <c r="E140" s="73">
         <v>0</v>
       </c>
-      <c r="F140" s="73">
-        <v>0</v>
-      </c>
-      <c r="G140" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H140" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I140" s="73">
-        <v>0</v>
-      </c>
-      <c r="J140" s="73">
-        <v>0</v>
-      </c>
-      <c r="K140" s="73">
-        <v>0</v>
-      </c>
-      <c r="L140" s="74">
+      <c r="F140" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A141" s="67" t="s">
         <v>593</v>
       </c>
@@ -28481,29 +26186,11 @@
       <c r="E141" s="73">
         <v>0</v>
       </c>
-      <c r="F141" s="73">
-        <v>0</v>
-      </c>
-      <c r="G141" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H141" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I141" s="73">
-        <v>0</v>
-      </c>
-      <c r="J141" s="73">
-        <v>0</v>
-      </c>
-      <c r="K141" s="73">
-        <v>0</v>
-      </c>
-      <c r="L141" s="74">
+      <c r="F141" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A142" s="67" t="s">
         <v>593</v>
       </c>
@@ -28519,29 +26206,11 @@
       <c r="E142" s="73">
         <v>0</v>
       </c>
-      <c r="F142" s="73">
-        <v>0</v>
-      </c>
-      <c r="G142" s="73">
-        <v>8520</v>
-      </c>
-      <c r="H142" s="73">
-        <v>13501</v>
-      </c>
-      <c r="I142" s="73">
-        <v>0</v>
-      </c>
-      <c r="J142" s="73">
-        <v>0</v>
-      </c>
-      <c r="K142" s="73">
-        <v>0</v>
-      </c>
-      <c r="L142" s="74">
+      <c r="F142" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A143" s="67" t="s">
         <v>593</v>
       </c>
@@ -28557,29 +26226,11 @@
       <c r="E143" s="73">
         <v>0</v>
       </c>
-      <c r="F143" s="73">
-        <v>0</v>
-      </c>
-      <c r="G143" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H143" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I143" s="73">
-        <v>0</v>
-      </c>
-      <c r="J143" s="73">
-        <v>0</v>
-      </c>
-      <c r="K143" s="73">
-        <v>0</v>
-      </c>
-      <c r="L143" s="74">
+      <c r="F143" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A144" s="67" t="s">
         <v>593</v>
       </c>
@@ -28595,29 +26246,11 @@
       <c r="E144" s="73">
         <v>0</v>
       </c>
-      <c r="F144" s="73">
-        <v>0</v>
-      </c>
-      <c r="G144" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H144" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I144" s="73">
-        <v>0</v>
-      </c>
-      <c r="J144" s="73">
-        <v>0</v>
-      </c>
-      <c r="K144" s="73">
-        <v>0</v>
-      </c>
-      <c r="L144" s="74">
+      <c r="F144" s="74">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A145" s="67" t="s">
         <v>593</v>
       </c>
@@ -28633,29 +26266,11 @@
       <c r="E145" s="73">
         <v>0</v>
       </c>
-      <c r="F145" s="73">
-        <v>0</v>
-      </c>
-      <c r="G145" s="73">
-        <v>8055</v>
-      </c>
-      <c r="H145" s="73">
-        <v>12765</v>
-      </c>
-      <c r="I145" s="73">
-        <v>0</v>
-      </c>
-      <c r="J145" s="73">
-        <v>0</v>
-      </c>
-      <c r="K145" s="73">
-        <v>0</v>
-      </c>
-      <c r="L145" s="74">
+      <c r="F145" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A146" s="67" t="s">
         <v>593</v>
       </c>
@@ -28671,29 +26286,11 @@
       <c r="E146" s="73">
         <v>0</v>
       </c>
-      <c r="F146" s="73">
-        <v>0</v>
-      </c>
-      <c r="G146" s="73">
-        <v>8520</v>
-      </c>
-      <c r="H146" s="73">
-        <v>13501</v>
-      </c>
-      <c r="I146" s="73">
-        <v>0</v>
-      </c>
-      <c r="J146" s="73">
-        <v>0</v>
-      </c>
-      <c r="K146" s="73">
-        <v>0</v>
-      </c>
-      <c r="L146" s="74">
+      <c r="F146" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A147" s="67" t="s">
         <v>593</v>
       </c>
@@ -28709,29 +26306,11 @@
       <c r="E147" s="73">
         <v>0</v>
       </c>
-      <c r="F147" s="73">
-        <v>0</v>
-      </c>
-      <c r="G147" s="73">
-        <v>8520</v>
-      </c>
-      <c r="H147" s="73">
-        <v>13501</v>
-      </c>
-      <c r="I147" s="73">
-        <v>0</v>
-      </c>
-      <c r="J147" s="73">
-        <v>0</v>
-      </c>
-      <c r="K147" s="73">
-        <v>0</v>
-      </c>
-      <c r="L147" s="74">
+      <c r="F147" s="74">
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A148" s="67" t="s">
         <v>593</v>
       </c>
@@ -28747,29 +26326,11 @@
       <c r="E148" s="73">
         <v>0</v>
       </c>
-      <c r="F148" s="73">
-        <v>0</v>
-      </c>
-      <c r="G148" s="73">
-        <v>8520</v>
-      </c>
-      <c r="H148" s="73">
-        <v>13501</v>
-      </c>
-      <c r="I148" s="73">
-        <v>0</v>
-      </c>
-      <c r="J148" s="73">
-        <v>0</v>
-      </c>
-      <c r="K148" s="73">
-        <v>0</v>
-      </c>
-      <c r="L148" s="74">
+      <c r="F148" s="74">
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A149" s="67" t="s">
         <v>593</v>
       </c>
@@ -28785,29 +26346,11 @@
       <c r="E149" s="73">
         <v>0</v>
       </c>
-      <c r="F149" s="73">
-        <v>0</v>
-      </c>
-      <c r="G149" s="73">
-        <v>8520</v>
-      </c>
-      <c r="H149" s="73">
-        <v>13501</v>
-      </c>
-      <c r="I149" s="73">
-        <v>0</v>
-      </c>
-      <c r="J149" s="73">
-        <v>0</v>
-      </c>
-      <c r="K149" s="73">
-        <v>0</v>
-      </c>
-      <c r="L149" s="74">
+      <c r="F149" s="74">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A150" s="67" t="s">
         <v>600</v>
       </c>
@@ -28821,31 +26364,13 @@
         <v>0</v>
       </c>
       <c r="E150" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F150" s="73">
-        <v>0</v>
-      </c>
-      <c r="G150" s="73">
-        <v>0</v>
-      </c>
-      <c r="H150" s="73">
-        <v>0</v>
-      </c>
-      <c r="I150" s="73">
-        <v>0</v>
-      </c>
-      <c r="J150" s="73">
-        <v>0</v>
-      </c>
-      <c r="K150" s="73">
-        <v>0</v>
-      </c>
-      <c r="L150" s="74">
+        <v>0</v>
+      </c>
+      <c r="F150" s="74">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A151" s="67" t="s">
         <v>600</v>
       </c>
@@ -28859,31 +26384,13 @@
         <v>0</v>
       </c>
       <c r="E151" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F151" s="73">
-        <v>0</v>
-      </c>
-      <c r="G151" s="73">
-        <v>0</v>
-      </c>
-      <c r="H151" s="73">
-        <v>0</v>
-      </c>
-      <c r="I151" s="73">
-        <v>0</v>
-      </c>
-      <c r="J151" s="73">
-        <v>0</v>
-      </c>
-      <c r="K151" s="73">
-        <v>0</v>
-      </c>
-      <c r="L151" s="74">
+        <v>0</v>
+      </c>
+      <c r="F151" s="74">
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A152" s="67" t="s">
         <v>600</v>
       </c>
@@ -28897,31 +26404,13 @@
         <v>0</v>
       </c>
       <c r="E152" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F152" s="73">
-        <v>0</v>
-      </c>
-      <c r="G152" s="73">
-        <v>0</v>
-      </c>
-      <c r="H152" s="73">
-        <v>0</v>
-      </c>
-      <c r="I152" s="73">
-        <v>0</v>
-      </c>
-      <c r="J152" s="73">
-        <v>0</v>
-      </c>
-      <c r="K152" s="73">
-        <v>0</v>
-      </c>
-      <c r="L152" s="74">
+        <v>0</v>
+      </c>
+      <c r="F152" s="74">
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A153" s="67" t="s">
         <v>600</v>
       </c>
@@ -28935,31 +26424,13 @@
         <v>0</v>
       </c>
       <c r="E153" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F153" s="73">
-        <v>0</v>
-      </c>
-      <c r="G153" s="73">
-        <v>0</v>
-      </c>
-      <c r="H153" s="73">
-        <v>0</v>
-      </c>
-      <c r="I153" s="73">
-        <v>0</v>
-      </c>
-      <c r="J153" s="73">
-        <v>0</v>
-      </c>
-      <c r="K153" s="73">
-        <v>0</v>
-      </c>
-      <c r="L153" s="74">
+        <v>0</v>
+      </c>
+      <c r="F153" s="74">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A154" s="67" t="s">
         <v>600</v>
       </c>
@@ -28973,31 +26444,13 @@
         <v>0</v>
       </c>
       <c r="E154" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F154" s="73">
-        <v>0</v>
-      </c>
-      <c r="G154" s="73">
-        <v>0</v>
-      </c>
-      <c r="H154" s="73">
-        <v>0</v>
-      </c>
-      <c r="I154" s="73">
-        <v>0</v>
-      </c>
-      <c r="J154" s="73">
-        <v>0</v>
-      </c>
-      <c r="K154" s="73">
-        <v>0</v>
-      </c>
-      <c r="L154" s="74">
+        <v>0</v>
+      </c>
+      <c r="F154" s="74">
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A155" s="67" t="s">
         <v>600</v>
       </c>
@@ -29011,31 +26464,13 @@
         <v>0</v>
       </c>
       <c r="E155" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F155" s="73">
-        <v>0</v>
-      </c>
-      <c r="G155" s="73">
-        <v>0</v>
-      </c>
-      <c r="H155" s="73">
-        <v>0</v>
-      </c>
-      <c r="I155" s="73">
-        <v>0</v>
-      </c>
-      <c r="J155" s="73">
-        <v>0</v>
-      </c>
-      <c r="K155" s="73">
-        <v>0</v>
-      </c>
-      <c r="L155" s="74">
+        <v>0</v>
+      </c>
+      <c r="F155" s="74">
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A156" s="67" t="s">
         <v>600</v>
       </c>
@@ -29049,31 +26484,13 @@
         <v>0</v>
       </c>
       <c r="E156" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F156" s="73">
-        <v>0</v>
-      </c>
-      <c r="G156" s="73">
-        <v>0</v>
-      </c>
-      <c r="H156" s="73">
-        <v>0</v>
-      </c>
-      <c r="I156" s="73">
-        <v>0</v>
-      </c>
-      <c r="J156" s="73">
-        <v>0</v>
-      </c>
-      <c r="K156" s="73">
-        <v>0</v>
-      </c>
-      <c r="L156" s="74">
+        <v>0</v>
+      </c>
+      <c r="F156" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A157" s="67" t="s">
         <v>600</v>
       </c>
@@ -29087,31 +26504,13 @@
         <v>0</v>
       </c>
       <c r="E157" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F157" s="73">
-        <v>0</v>
-      </c>
-      <c r="G157" s="73">
-        <v>0</v>
-      </c>
-      <c r="H157" s="73">
-        <v>0</v>
-      </c>
-      <c r="I157" s="73">
-        <v>0</v>
-      </c>
-      <c r="J157" s="73">
-        <v>0</v>
-      </c>
-      <c r="K157" s="73">
-        <v>0</v>
-      </c>
-      <c r="L157" s="74">
+        <v>0</v>
+      </c>
+      <c r="F157" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A158" s="67" t="s">
         <v>600</v>
       </c>
@@ -29125,31 +26524,13 @@
         <v>0</v>
       </c>
       <c r="E158" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F158" s="73">
-        <v>0</v>
-      </c>
-      <c r="G158" s="73">
-        <v>0</v>
-      </c>
-      <c r="H158" s="73">
-        <v>0</v>
-      </c>
-      <c r="I158" s="73">
-        <v>0</v>
-      </c>
-      <c r="J158" s="73">
-        <v>0</v>
-      </c>
-      <c r="K158" s="73">
-        <v>0</v>
-      </c>
-      <c r="L158" s="74">
+        <v>0</v>
+      </c>
+      <c r="F158" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A159" s="67" t="s">
         <v>600</v>
       </c>
@@ -29163,31 +26544,13 @@
         <v>0</v>
       </c>
       <c r="E159" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F159" s="73">
-        <v>0</v>
-      </c>
-      <c r="G159" s="73">
-        <v>0</v>
-      </c>
-      <c r="H159" s="73">
-        <v>0</v>
-      </c>
-      <c r="I159" s="73">
-        <v>0</v>
-      </c>
-      <c r="J159" s="73">
-        <v>0</v>
-      </c>
-      <c r="K159" s="73">
-        <v>0</v>
-      </c>
-      <c r="L159" s="74">
+        <v>0</v>
+      </c>
+      <c r="F159" s="74">
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A160" s="67" t="s">
         <v>600</v>
       </c>
@@ -29201,31 +26564,13 @@
         <v>0</v>
       </c>
       <c r="E160" s="73">
-        <v>4430</v>
-      </c>
-      <c r="F160" s="73">
-        <v>0</v>
-      </c>
-      <c r="G160" s="73">
-        <v>0</v>
-      </c>
-      <c r="H160" s="73">
-        <v>0</v>
-      </c>
-      <c r="I160" s="73">
-        <v>0</v>
-      </c>
-      <c r="J160" s="73">
-        <v>0</v>
-      </c>
-      <c r="K160" s="73">
-        <v>0</v>
-      </c>
-      <c r="L160" s="74">
+        <v>0</v>
+      </c>
+      <c r="F160" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A161" s="67" t="s">
         <v>600</v>
       </c>
@@ -29239,31 +26584,13 @@
         <v>0</v>
       </c>
       <c r="E161" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F161" s="73">
-        <v>0</v>
-      </c>
-      <c r="G161" s="73">
-        <v>0</v>
-      </c>
-      <c r="H161" s="73">
-        <v>0</v>
-      </c>
-      <c r="I161" s="73">
-        <v>0</v>
-      </c>
-      <c r="J161" s="73">
-        <v>0</v>
-      </c>
-      <c r="K161" s="73">
-        <v>0</v>
-      </c>
-      <c r="L161" s="74">
+        <v>0</v>
+      </c>
+      <c r="F161" s="74">
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A162" s="67" t="s">
         <v>600</v>
       </c>
@@ -29277,31 +26604,13 @@
         <v>0</v>
       </c>
       <c r="E162" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F162" s="73">
-        <v>0</v>
-      </c>
-      <c r="G162" s="73">
-        <v>0</v>
-      </c>
-      <c r="H162" s="73">
-        <v>0</v>
-      </c>
-      <c r="I162" s="73">
-        <v>0</v>
-      </c>
-      <c r="J162" s="73">
-        <v>0</v>
-      </c>
-      <c r="K162" s="73">
-        <v>0</v>
-      </c>
-      <c r="L162" s="74">
+        <v>0</v>
+      </c>
+      <c r="F162" s="74">
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A163" s="67" t="s">
         <v>600</v>
       </c>
@@ -29315,31 +26624,13 @@
         <v>0</v>
       </c>
       <c r="E163" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F163" s="73">
-        <v>0</v>
-      </c>
-      <c r="G163" s="73">
-        <v>0</v>
-      </c>
-      <c r="H163" s="73">
-        <v>0</v>
-      </c>
-      <c r="I163" s="73">
-        <v>0</v>
-      </c>
-      <c r="J163" s="73">
-        <v>0</v>
-      </c>
-      <c r="K163" s="73">
-        <v>0</v>
-      </c>
-      <c r="L163" s="74">
+        <v>0</v>
+      </c>
+      <c r="F163" s="74">
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A164" s="67" t="s">
         <v>600</v>
       </c>
@@ -29353,31 +26644,13 @@
         <v>0</v>
       </c>
       <c r="E164" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F164" s="73">
-        <v>0</v>
-      </c>
-      <c r="G164" s="73">
-        <v>0</v>
-      </c>
-      <c r="H164" s="73">
-        <v>0</v>
-      </c>
-      <c r="I164" s="73">
-        <v>0</v>
-      </c>
-      <c r="J164" s="73">
-        <v>0</v>
-      </c>
-      <c r="K164" s="73">
-        <v>0</v>
-      </c>
-      <c r="L164" s="74">
+        <v>0</v>
+      </c>
+      <c r="F164" s="74">
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A165" s="67" t="s">
         <v>600</v>
       </c>
@@ -29391,31 +26664,13 @@
         <v>0</v>
       </c>
       <c r="E165" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F165" s="73">
-        <v>0</v>
-      </c>
-      <c r="G165" s="73">
-        <v>0</v>
-      </c>
-      <c r="H165" s="73">
-        <v>0</v>
-      </c>
-      <c r="I165" s="73">
-        <v>0</v>
-      </c>
-      <c r="J165" s="73">
-        <v>0</v>
-      </c>
-      <c r="K165" s="73">
-        <v>0</v>
-      </c>
-      <c r="L165" s="74">
+        <v>0</v>
+      </c>
+      <c r="F165" s="74">
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A166" s="67" t="s">
         <v>600</v>
       </c>
@@ -29429,31 +26684,13 @@
         <v>0</v>
       </c>
       <c r="E166" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F166" s="73">
-        <v>0</v>
-      </c>
-      <c r="G166" s="73">
-        <v>0</v>
-      </c>
-      <c r="H166" s="73">
-        <v>0</v>
-      </c>
-      <c r="I166" s="73">
-        <v>0</v>
-      </c>
-      <c r="J166" s="73">
-        <v>0</v>
-      </c>
-      <c r="K166" s="73">
-        <v>0</v>
-      </c>
-      <c r="L166" s="74">
+        <v>0</v>
+      </c>
+      <c r="F166" s="74">
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A167" s="67" t="s">
         <v>600</v>
       </c>
@@ -29467,31 +26704,13 @@
         <v>0</v>
       </c>
       <c r="E167" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F167" s="73">
-        <v>0</v>
-      </c>
-      <c r="G167" s="73">
-        <v>0</v>
-      </c>
-      <c r="H167" s="73">
-        <v>0</v>
-      </c>
-      <c r="I167" s="73">
-        <v>0</v>
-      </c>
-      <c r="J167" s="73">
-        <v>0</v>
-      </c>
-      <c r="K167" s="73">
-        <v>0</v>
-      </c>
-      <c r="L167" s="74">
+        <v>0</v>
+      </c>
+      <c r="F167" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A168" s="67" t="s">
         <v>600</v>
       </c>
@@ -29505,31 +26724,13 @@
         <v>0</v>
       </c>
       <c r="E168" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F168" s="73">
-        <v>0</v>
-      </c>
-      <c r="G168" s="73">
-        <v>0</v>
-      </c>
-      <c r="H168" s="73">
-        <v>0</v>
-      </c>
-      <c r="I168" s="73">
-        <v>0</v>
-      </c>
-      <c r="J168" s="73">
-        <v>0</v>
-      </c>
-      <c r="K168" s="73">
-        <v>0</v>
-      </c>
-      <c r="L168" s="74">
+        <v>0</v>
+      </c>
+      <c r="F168" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A169" s="67" t="s">
         <v>600</v>
       </c>
@@ -29543,31 +26744,13 @@
         <v>0</v>
       </c>
       <c r="E169" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F169" s="73">
-        <v>0</v>
-      </c>
-      <c r="G169" s="73">
-        <v>0</v>
-      </c>
-      <c r="H169" s="73">
-        <v>0</v>
-      </c>
-      <c r="I169" s="73">
-        <v>0</v>
-      </c>
-      <c r="J169" s="73">
-        <v>0</v>
-      </c>
-      <c r="K169" s="73">
-        <v>0</v>
-      </c>
-      <c r="L169" s="74">
+        <v>0</v>
+      </c>
+      <c r="F169" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A170" s="67" t="s">
         <v>600</v>
       </c>
@@ -29581,31 +26764,13 @@
         <v>0</v>
       </c>
       <c r="E170" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F170" s="73">
-        <v>0</v>
-      </c>
-      <c r="G170" s="73">
-        <v>0</v>
-      </c>
-      <c r="H170" s="73">
-        <v>0</v>
-      </c>
-      <c r="I170" s="73">
-        <v>0</v>
-      </c>
-      <c r="J170" s="73">
-        <v>0</v>
-      </c>
-      <c r="K170" s="73">
-        <v>0</v>
-      </c>
-      <c r="L170" s="74">
+        <v>0</v>
+      </c>
+      <c r="F170" s="74">
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A171" s="67" t="s">
         <v>600</v>
       </c>
@@ -29619,31 +26784,13 @@
         <v>0</v>
       </c>
       <c r="E171" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F171" s="73">
-        <v>0</v>
-      </c>
-      <c r="G171" s="73">
-        <v>0</v>
-      </c>
-      <c r="H171" s="73">
-        <v>0</v>
-      </c>
-      <c r="I171" s="73">
-        <v>0</v>
-      </c>
-      <c r="J171" s="73">
-        <v>0</v>
-      </c>
-      <c r="K171" s="73">
-        <v>0</v>
-      </c>
-      <c r="L171" s="74">
+        <v>0</v>
+      </c>
+      <c r="F171" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A172" s="67" t="s">
         <v>600</v>
       </c>
@@ -29657,31 +26804,13 @@
         <v>0</v>
       </c>
       <c r="E172" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F172" s="73">
-        <v>0</v>
-      </c>
-      <c r="G172" s="73">
-        <v>0</v>
-      </c>
-      <c r="H172" s="73">
-        <v>0</v>
-      </c>
-      <c r="I172" s="73">
-        <v>0</v>
-      </c>
-      <c r="J172" s="73">
-        <v>0</v>
-      </c>
-      <c r="K172" s="73">
-        <v>0</v>
-      </c>
-      <c r="L172" s="74">
+        <v>0</v>
+      </c>
+      <c r="F172" s="74">
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A173" s="67" t="s">
         <v>600</v>
       </c>
@@ -29695,31 +26824,13 @@
         <v>0</v>
       </c>
       <c r="E173" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F173" s="73">
-        <v>0</v>
-      </c>
-      <c r="G173" s="73">
-        <v>0</v>
-      </c>
-      <c r="H173" s="73">
-        <v>0</v>
-      </c>
-      <c r="I173" s="73">
-        <v>0</v>
-      </c>
-      <c r="J173" s="73">
-        <v>0</v>
-      </c>
-      <c r="K173" s="73">
-        <v>0</v>
-      </c>
-      <c r="L173" s="74">
+        <v>0</v>
+      </c>
+      <c r="F173" s="74">
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A174" s="67" t="s">
         <v>600</v>
       </c>
@@ -29733,31 +26844,13 @@
         <v>0</v>
       </c>
       <c r="E174" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F174" s="73">
-        <v>0</v>
-      </c>
-      <c r="G174" s="73">
-        <v>0</v>
-      </c>
-      <c r="H174" s="73">
-        <v>0</v>
-      </c>
-      <c r="I174" s="73">
-        <v>0</v>
-      </c>
-      <c r="J174" s="73">
-        <v>0</v>
-      </c>
-      <c r="K174" s="73">
-        <v>0</v>
-      </c>
-      <c r="L174" s="74">
+        <v>0</v>
+      </c>
+      <c r="F174" s="74">
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A175" s="67" t="s">
         <v>600</v>
       </c>
@@ -29771,31 +26864,13 @@
         <v>0</v>
       </c>
       <c r="E175" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F175" s="73">
-        <v>0</v>
-      </c>
-      <c r="G175" s="73">
-        <v>0</v>
-      </c>
-      <c r="H175" s="73">
-        <v>0</v>
-      </c>
-      <c r="I175" s="73">
-        <v>0</v>
-      </c>
-      <c r="J175" s="73">
-        <v>0</v>
-      </c>
-      <c r="K175" s="73">
-        <v>0</v>
-      </c>
-      <c r="L175" s="74">
+        <v>0</v>
+      </c>
+      <c r="F175" s="74">
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A176" s="67" t="s">
         <v>600</v>
       </c>
@@ -29809,31 +26884,13 @@
         <v>0</v>
       </c>
       <c r="E176" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F176" s="73">
-        <v>0</v>
-      </c>
-      <c r="G176" s="73">
-        <v>0</v>
-      </c>
-      <c r="H176" s="73">
-        <v>0</v>
-      </c>
-      <c r="I176" s="73">
-        <v>0</v>
-      </c>
-      <c r="J176" s="73">
-        <v>0</v>
-      </c>
-      <c r="K176" s="73">
-        <v>0</v>
-      </c>
-      <c r="L176" s="74">
+        <v>0</v>
+      </c>
+      <c r="F176" s="74">
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A177" s="67" t="s">
         <v>600</v>
       </c>
@@ -29847,31 +26904,13 @@
         <v>0</v>
       </c>
       <c r="E177" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F177" s="73">
-        <v>0</v>
-      </c>
-      <c r="G177" s="73">
-        <v>0</v>
-      </c>
-      <c r="H177" s="73">
-        <v>0</v>
-      </c>
-      <c r="I177" s="73">
-        <v>0</v>
-      </c>
-      <c r="J177" s="73">
-        <v>0</v>
-      </c>
-      <c r="K177" s="73">
-        <v>0</v>
-      </c>
-      <c r="L177" s="74">
+        <v>0</v>
+      </c>
+      <c r="F177" s="74">
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A178" s="67" t="s">
         <v>600</v>
       </c>
@@ -29885,31 +26924,13 @@
         <v>0</v>
       </c>
       <c r="E178" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F178" s="73">
-        <v>0</v>
-      </c>
-      <c r="G178" s="73">
-        <v>0</v>
-      </c>
-      <c r="H178" s="73">
-        <v>0</v>
-      </c>
-      <c r="I178" s="73">
-        <v>0</v>
-      </c>
-      <c r="J178" s="73">
-        <v>0</v>
-      </c>
-      <c r="K178" s="73">
-        <v>0</v>
-      </c>
-      <c r="L178" s="74">
+        <v>0</v>
+      </c>
+      <c r="F178" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A179" s="67" t="s">
         <v>600</v>
       </c>
@@ -29923,31 +26944,13 @@
         <v>0</v>
       </c>
       <c r="E179" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F179" s="73">
-        <v>0</v>
-      </c>
-      <c r="G179" s="73">
-        <v>0</v>
-      </c>
-      <c r="H179" s="73">
-        <v>0</v>
-      </c>
-      <c r="I179" s="73">
-        <v>0</v>
-      </c>
-      <c r="J179" s="73">
-        <v>0</v>
-      </c>
-      <c r="K179" s="73">
-        <v>0</v>
-      </c>
-      <c r="L179" s="74">
+        <v>0</v>
+      </c>
+      <c r="F179" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A180" s="67" t="s">
         <v>600</v>
       </c>
@@ -29961,31 +26964,13 @@
         <v>0</v>
       </c>
       <c r="E180" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F180" s="73">
-        <v>0</v>
-      </c>
-      <c r="G180" s="73">
-        <v>0</v>
-      </c>
-      <c r="H180" s="73">
-        <v>0</v>
-      </c>
-      <c r="I180" s="73">
-        <v>0</v>
-      </c>
-      <c r="J180" s="73">
-        <v>0</v>
-      </c>
-      <c r="K180" s="73">
-        <v>0</v>
-      </c>
-      <c r="L180" s="74">
+        <v>0</v>
+      </c>
+      <c r="F180" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A181" s="67" t="s">
         <v>600</v>
       </c>
@@ -29999,31 +26984,13 @@
         <v>0</v>
       </c>
       <c r="E181" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F181" s="73">
-        <v>0</v>
-      </c>
-      <c r="G181" s="73">
-        <v>0</v>
-      </c>
-      <c r="H181" s="73">
-        <v>0</v>
-      </c>
-      <c r="I181" s="73">
-        <v>0</v>
-      </c>
-      <c r="J181" s="73">
-        <v>0</v>
-      </c>
-      <c r="K181" s="73">
-        <v>0</v>
-      </c>
-      <c r="L181" s="74">
+        <v>0</v>
+      </c>
+      <c r="F181" s="74">
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A182" s="67" t="s">
         <v>600</v>
       </c>
@@ -30037,31 +27004,13 @@
         <v>0</v>
       </c>
       <c r="E182" s="73">
-        <v>3976</v>
-      </c>
-      <c r="F182" s="73">
-        <v>0</v>
-      </c>
-      <c r="G182" s="73">
-        <v>0</v>
-      </c>
-      <c r="H182" s="73">
-        <v>0</v>
-      </c>
-      <c r="I182" s="73">
-        <v>0</v>
-      </c>
-      <c r="J182" s="73">
-        <v>0</v>
-      </c>
-      <c r="K182" s="73">
-        <v>0</v>
-      </c>
-      <c r="L182" s="74">
+        <v>0</v>
+      </c>
+      <c r="F182" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A183" s="67" t="s">
         <v>600</v>
       </c>
@@ -30075,31 +27024,13 @@
         <v>0</v>
       </c>
       <c r="E183" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F183" s="73">
-        <v>0</v>
-      </c>
-      <c r="G183" s="73">
-        <v>0</v>
-      </c>
-      <c r="H183" s="73">
-        <v>0</v>
-      </c>
-      <c r="I183" s="73">
-        <v>0</v>
-      </c>
-      <c r="J183" s="73">
-        <v>0</v>
-      </c>
-      <c r="K183" s="73">
-        <v>0</v>
-      </c>
-      <c r="L183" s="74">
+        <v>0</v>
+      </c>
+      <c r="F183" s="74">
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A184" s="67" t="s">
         <v>600</v>
       </c>
@@ -30113,31 +27044,13 @@
         <v>0</v>
       </c>
       <c r="E184" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F184" s="73">
-        <v>0</v>
-      </c>
-      <c r="G184" s="73">
-        <v>0</v>
-      </c>
-      <c r="H184" s="73">
-        <v>0</v>
-      </c>
-      <c r="I184" s="73">
-        <v>0</v>
-      </c>
-      <c r="J184" s="73">
-        <v>0</v>
-      </c>
-      <c r="K184" s="73">
-        <v>0</v>
-      </c>
-      <c r="L184" s="74">
+        <v>0</v>
+      </c>
+      <c r="F184" s="74">
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A185" s="67" t="s">
         <v>600</v>
       </c>
@@ -30151,31 +27064,13 @@
         <v>0</v>
       </c>
       <c r="E185" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F185" s="73">
-        <v>0</v>
-      </c>
-      <c r="G185" s="73">
-        <v>0</v>
-      </c>
-      <c r="H185" s="73">
-        <v>0</v>
-      </c>
-      <c r="I185" s="73">
-        <v>0</v>
-      </c>
-      <c r="J185" s="73">
-        <v>0</v>
-      </c>
-      <c r="K185" s="73">
-        <v>0</v>
-      </c>
-      <c r="L185" s="74">
+        <v>0</v>
+      </c>
+      <c r="F185" s="74">
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A186" s="67" t="s">
         <v>600</v>
       </c>
@@ -30189,31 +27084,13 @@
         <v>0</v>
       </c>
       <c r="E186" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F186" s="73">
-        <v>0</v>
-      </c>
-      <c r="G186" s="73">
-        <v>0</v>
-      </c>
-      <c r="H186" s="73">
-        <v>0</v>
-      </c>
-      <c r="I186" s="73">
-        <v>0</v>
-      </c>
-      <c r="J186" s="73">
-        <v>0</v>
-      </c>
-      <c r="K186" s="73">
-        <v>0</v>
-      </c>
-      <c r="L186" s="74">
+        <v>0</v>
+      </c>
+      <c r="F186" s="74">
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A187" s="67" t="s">
         <v>600</v>
       </c>
@@ -30227,31 +27104,13 @@
         <v>0</v>
       </c>
       <c r="E187" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F187" s="73">
-        <v>0</v>
-      </c>
-      <c r="G187" s="73">
-        <v>0</v>
-      </c>
-      <c r="H187" s="73">
-        <v>0</v>
-      </c>
-      <c r="I187" s="73">
-        <v>0</v>
-      </c>
-      <c r="J187" s="73">
-        <v>0</v>
-      </c>
-      <c r="K187" s="73">
-        <v>0</v>
-      </c>
-      <c r="L187" s="74">
+        <v>0</v>
+      </c>
+      <c r="F187" s="74">
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A188" s="67" t="s">
         <v>600</v>
       </c>
@@ -30265,31 +27124,13 @@
         <v>0</v>
       </c>
       <c r="E188" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F188" s="73">
-        <v>0</v>
-      </c>
-      <c r="G188" s="73">
-        <v>0</v>
-      </c>
-      <c r="H188" s="73">
-        <v>0</v>
-      </c>
-      <c r="I188" s="73">
-        <v>0</v>
-      </c>
-      <c r="J188" s="73">
-        <v>0</v>
-      </c>
-      <c r="K188" s="73">
-        <v>0</v>
-      </c>
-      <c r="L188" s="74">
+        <v>0</v>
+      </c>
+      <c r="F188" s="74">
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A189" s="67" t="s">
         <v>600</v>
       </c>
@@ -30303,31 +27144,13 @@
         <v>0</v>
       </c>
       <c r="E189" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F189" s="73">
-        <v>0</v>
-      </c>
-      <c r="G189" s="73">
-        <v>0</v>
-      </c>
-      <c r="H189" s="73">
-        <v>0</v>
-      </c>
-      <c r="I189" s="73">
-        <v>0</v>
-      </c>
-      <c r="J189" s="73">
-        <v>0</v>
-      </c>
-      <c r="K189" s="73">
-        <v>0</v>
-      </c>
-      <c r="L189" s="74">
+        <v>0</v>
+      </c>
+      <c r="F189" s="74">
         <v>40</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A190" s="67" t="s">
         <v>600</v>
       </c>
@@ -30341,31 +27164,13 @@
         <v>0</v>
       </c>
       <c r="E190" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F190" s="73">
-        <v>0</v>
-      </c>
-      <c r="G190" s="73">
-        <v>0</v>
-      </c>
-      <c r="H190" s="73">
-        <v>0</v>
-      </c>
-      <c r="I190" s="73">
-        <v>0</v>
-      </c>
-      <c r="J190" s="73">
-        <v>0</v>
-      </c>
-      <c r="K190" s="73">
-        <v>0</v>
-      </c>
-      <c r="L190" s="74">
+        <v>0</v>
+      </c>
+      <c r="F190" s="74">
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A191" s="67" t="s">
         <v>600</v>
       </c>
@@ -30379,31 +27184,13 @@
         <v>0</v>
       </c>
       <c r="E191" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F191" s="73">
-        <v>0</v>
-      </c>
-      <c r="G191" s="73">
-        <v>0</v>
-      </c>
-      <c r="H191" s="73">
-        <v>0</v>
-      </c>
-      <c r="I191" s="73">
-        <v>0</v>
-      </c>
-      <c r="J191" s="73">
-        <v>0</v>
-      </c>
-      <c r="K191" s="73">
-        <v>0</v>
-      </c>
-      <c r="L191" s="74">
+        <v>0</v>
+      </c>
+      <c r="F191" s="74">
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A192" s="67" t="s">
         <v>600</v>
       </c>
@@ -30417,31 +27204,13 @@
         <v>0</v>
       </c>
       <c r="E192" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F192" s="73">
-        <v>0</v>
-      </c>
-      <c r="G192" s="73">
-        <v>0</v>
-      </c>
-      <c r="H192" s="73">
-        <v>0</v>
-      </c>
-      <c r="I192" s="73">
-        <v>0</v>
-      </c>
-      <c r="J192" s="73">
-        <v>0</v>
-      </c>
-      <c r="K192" s="73">
-        <v>0</v>
-      </c>
-      <c r="L192" s="74">
+        <v>0</v>
+      </c>
+      <c r="F192" s="74">
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A193" s="67" t="s">
         <v>600</v>
       </c>
@@ -30455,31 +27224,13 @@
         <v>0</v>
       </c>
       <c r="E193" s="73">
-        <v>3094</v>
-      </c>
-      <c r="F193" s="73">
-        <v>0</v>
-      </c>
-      <c r="G193" s="73">
-        <v>0</v>
-      </c>
-      <c r="H193" s="73">
-        <v>0</v>
-      </c>
-      <c r="I193" s="73">
-        <v>0</v>
-      </c>
-      <c r="J193" s="73">
-        <v>0</v>
-      </c>
-      <c r="K193" s="73">
-        <v>0</v>
-      </c>
-      <c r="L193" s="74">
+        <v>0</v>
+      </c>
+      <c r="F193" s="74">
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A194" s="79" t="s">
         <v>601</v>
       </c>
@@ -30492,32 +27243,14 @@
       <c r="D194" s="72">
         <v>0</v>
       </c>
-      <c r="E194" s="92">
-        <v>2300</v>
-      </c>
-      <c r="F194" s="92">
-        <v>0</v>
-      </c>
-      <c r="G194" s="73">
-        <v>0</v>
-      </c>
-      <c r="H194" s="73">
-        <v>0</v>
-      </c>
-      <c r="I194" s="73">
-        <v>0</v>
-      </c>
-      <c r="J194" s="73">
-        <v>0</v>
-      </c>
-      <c r="K194" s="73">
-        <v>0</v>
-      </c>
-      <c r="L194" s="74">
+      <c r="E194" s="73">
+        <v>0</v>
+      </c>
+      <c r="F194" s="74">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A195" s="79" t="s">
         <v>601</v>
       </c>
@@ -30530,32 +27263,14 @@
       <c r="D195" s="72">
         <v>0</v>
       </c>
-      <c r="E195" s="92">
-        <v>2300</v>
+      <c r="E195" s="73">
+        <v>0</v>
       </c>
       <c r="F195" s="92">
-        <v>0</v>
-      </c>
-      <c r="G195" s="73">
-        <v>0</v>
-      </c>
-      <c r="H195" s="73">
-        <v>0</v>
-      </c>
-      <c r="I195" s="73">
-        <v>0</v>
-      </c>
-      <c r="J195" s="73">
-        <v>0</v>
-      </c>
-      <c r="K195" s="73">
-        <v>0</v>
-      </c>
-      <c r="L195" s="93">
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A196" s="79" t="s">
         <v>601</v>
       </c>
@@ -30568,32 +27283,14 @@
       <c r="D196" s="72">
         <v>0</v>
       </c>
-      <c r="E196" s="92">
-        <v>2300</v>
+      <c r="E196" s="73">
+        <v>0</v>
       </c>
       <c r="F196" s="92">
-        <v>0</v>
-      </c>
-      <c r="G196" s="73">
-        <v>0</v>
-      </c>
-      <c r="H196" s="73">
-        <v>0</v>
-      </c>
-      <c r="I196" s="73">
-        <v>0</v>
-      </c>
-      <c r="J196" s="73">
-        <v>0</v>
-      </c>
-      <c r="K196" s="73">
-        <v>0</v>
-      </c>
-      <c r="L196" s="93">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A197" s="79" t="s">
         <v>601</v>
       </c>
@@ -30606,32 +27303,14 @@
       <c r="D197" s="72">
         <v>0</v>
       </c>
-      <c r="E197" s="92">
-        <v>2300</v>
+      <c r="E197" s="73">
+        <v>0</v>
       </c>
       <c r="F197" s="92">
-        <v>0</v>
-      </c>
-      <c r="G197" s="73">
-        <v>0</v>
-      </c>
-      <c r="H197" s="73">
-        <v>0</v>
-      </c>
-      <c r="I197" s="73">
-        <v>0</v>
-      </c>
-      <c r="J197" s="73">
-        <v>0</v>
-      </c>
-      <c r="K197" s="73">
-        <v>0</v>
-      </c>
-      <c r="L197" s="93">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A198" s="79" t="s">
         <v>602</v>
       </c>
@@ -30644,32 +27323,14 @@
       <c r="D198" s="72">
         <v>0</v>
       </c>
-      <c r="E198" s="92">
-        <v>4600</v>
+      <c r="E198" s="73">
+        <v>0</v>
       </c>
       <c r="F198" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G198" s="73">
-        <v>0</v>
-      </c>
-      <c r="H198" s="73">
-        <v>0</v>
-      </c>
-      <c r="I198" s="73">
-        <v>0</v>
-      </c>
-      <c r="J198" s="73">
-        <v>0</v>
-      </c>
-      <c r="K198" s="73">
-        <v>0</v>
-      </c>
-      <c r="L198" s="93">
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A199" s="79" t="s">
         <v>602</v>
       </c>
@@ -30682,32 +27343,14 @@
       <c r="D199" s="72">
         <v>0</v>
       </c>
-      <c r="E199" s="92">
-        <v>4600</v>
+      <c r="E199" s="73">
+        <v>0</v>
       </c>
       <c r="F199" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G199" s="73">
-        <v>0</v>
-      </c>
-      <c r="H199" s="73">
-        <v>0</v>
-      </c>
-      <c r="I199" s="73">
-        <v>0</v>
-      </c>
-      <c r="J199" s="73">
-        <v>0</v>
-      </c>
-      <c r="K199" s="73">
-        <v>0</v>
-      </c>
-      <c r="L199" s="93">
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A200" s="79" t="s">
         <v>602</v>
       </c>
@@ -30720,32 +27363,14 @@
       <c r="D200" s="72">
         <v>0</v>
       </c>
-      <c r="E200" s="92">
-        <v>4600</v>
+      <c r="E200" s="73">
+        <v>0</v>
       </c>
       <c r="F200" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G200" s="73">
-        <v>0</v>
-      </c>
-      <c r="H200" s="73">
-        <v>0</v>
-      </c>
-      <c r="I200" s="73">
-        <v>0</v>
-      </c>
-      <c r="J200" s="73">
-        <v>0</v>
-      </c>
-      <c r="K200" s="73">
-        <v>0</v>
-      </c>
-      <c r="L200" s="93">
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A201" s="79" t="s">
         <v>602</v>
       </c>
@@ -30758,32 +27383,14 @@
       <c r="D201" s="72">
         <v>0</v>
       </c>
-      <c r="E201" s="92">
-        <v>4600</v>
+      <c r="E201" s="73">
+        <v>0</v>
       </c>
       <c r="F201" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G201" s="73">
-        <v>0</v>
-      </c>
-      <c r="H201" s="73">
-        <v>0</v>
-      </c>
-      <c r="I201" s="73">
-        <v>0</v>
-      </c>
-      <c r="J201" s="73">
-        <v>0</v>
-      </c>
-      <c r="K201" s="73">
-        <v>0</v>
-      </c>
-      <c r="L201" s="93">
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A202" s="79" t="s">
         <v>602</v>
       </c>
@@ -30796,32 +27403,14 @@
       <c r="D202" s="72">
         <v>0</v>
       </c>
-      <c r="E202" s="92">
-        <v>4600</v>
+      <c r="E202" s="73">
+        <v>0</v>
       </c>
       <c r="F202" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G202" s="73">
-        <v>0</v>
-      </c>
-      <c r="H202" s="73">
-        <v>0</v>
-      </c>
-      <c r="I202" s="73">
-        <v>0</v>
-      </c>
-      <c r="J202" s="73">
-        <v>0</v>
-      </c>
-      <c r="K202" s="73">
-        <v>0</v>
-      </c>
-      <c r="L202" s="93">
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A203" s="79" t="s">
         <v>602</v>
       </c>
@@ -30834,32 +27423,14 @@
       <c r="D203" s="72">
         <v>0</v>
       </c>
-      <c r="E203" s="92">
-        <v>4600</v>
+      <c r="E203" s="73">
+        <v>0</v>
       </c>
       <c r="F203" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G203" s="73">
-        <v>0</v>
-      </c>
-      <c r="H203" s="73">
-        <v>0</v>
-      </c>
-      <c r="I203" s="73">
-        <v>0</v>
-      </c>
-      <c r="J203" s="73">
-        <v>0</v>
-      </c>
-      <c r="K203" s="73">
-        <v>0</v>
-      </c>
-      <c r="L203" s="93">
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A204" s="79" t="s">
         <v>602</v>
       </c>
@@ -30872,32 +27443,14 @@
       <c r="D204" s="72">
         <v>0</v>
       </c>
-      <c r="E204" s="92">
-        <v>4600</v>
+      <c r="E204" s="73">
+        <v>0</v>
       </c>
       <c r="F204" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G204" s="73">
-        <v>0</v>
-      </c>
-      <c r="H204" s="73">
-        <v>0</v>
-      </c>
-      <c r="I204" s="73">
-        <v>0</v>
-      </c>
-      <c r="J204" s="73">
-        <v>0</v>
-      </c>
-      <c r="K204" s="73">
-        <v>0</v>
-      </c>
-      <c r="L204" s="93">
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A205" s="79" t="s">
         <v>602</v>
       </c>
@@ -30910,29 +27463,51 @@
       <c r="D205" s="72">
         <v>0</v>
       </c>
-      <c r="E205" s="92">
-        <v>4600</v>
+      <c r="E205" s="73">
+        <v>0</v>
       </c>
       <c r="F205" s="92">
-        <v>10040</v>
-      </c>
-      <c r="G205" s="73">
-        <v>0</v>
-      </c>
-      <c r="H205" s="73">
-        <v>0</v>
-      </c>
-      <c r="I205" s="73">
-        <v>0</v>
-      </c>
-      <c r="J205" s="73">
-        <v>0</v>
-      </c>
-      <c r="K205" s="73">
-        <v>0</v>
-      </c>
-      <c r="L205" s="93">
         <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="B206" s="99" t="s">
+        <v>619</v>
+      </c>
+      <c r="C206" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="D206" s="101">
+        <v>0</v>
+      </c>
+      <c r="E206" s="73">
+        <v>0</v>
+      </c>
+      <c r="F206" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="B207" s="99" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="D207" s="102">
+        <v>0</v>
+      </c>
+      <c r="E207" s="73">
+        <v>0</v>
+      </c>
+      <c r="F207" s="80">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -30945,10 +27520,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B1D443-A086-4BB9-8CBB-73B5A61AE428}">
   <sheetPr codeName="Лист4"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -31577,6 +28152,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A20" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>621</v>
+      </c>
+      <c r="C20" s="91">
+        <v>0</v>
+      </c>
+      <c r="D20" s="87">
+        <v>0</v>
+      </c>
+      <c r="E20" s="87">
+        <v>0</v>
+      </c>
+      <c r="F20" s="87">
+        <v>0</v>
+      </c>
+      <c r="G20" s="87">
+        <v>0</v>
+      </c>
+      <c r="H20" s="87">
+        <v>0</v>
+      </c>
+      <c r="I20" s="87">
+        <v>14372</v>
+      </c>
+      <c r="J20" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A21" s="80" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>622</v>
+      </c>
+      <c r="C21" s="91">
+        <v>0</v>
+      </c>
+      <c r="D21" s="87">
+        <v>0</v>
+      </c>
+      <c r="E21" s="87">
+        <v>0</v>
+      </c>
+      <c r="F21" s="87">
+        <v>0</v>
+      </c>
+      <c r="G21" s="87">
+        <v>0</v>
+      </c>
+      <c r="H21" s="87">
+        <v>0</v>
+      </c>
+      <c r="I21" s="87">
+        <v>21000</v>
+      </c>
+      <c r="J21" s="87">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7469FCE-E14B-4F9A-A63C-1D4224AF55BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D770E9-0156-41F1-840B-59979CDDE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="4" activeTab="9" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
@@ -2485,16 +2485,6 @@
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{702D37C1-FD0B-45E0-8955-AA0F39D7F389}"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3370,6 +3360,16 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3984,105 +3984,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:AI74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="62"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="51"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="50"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="49"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="48"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="47"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="46"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="44"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="43"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="42"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="35"/>
-    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="34"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="33"/>
-    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="32"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="31"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="60"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="50"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="49"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="48"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="47"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="46"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="45"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="43"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="42"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="41"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="36"/>
+    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="34"/>
+    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="33"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="31"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="30"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:G192" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="28" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="27" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="27" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="26" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:I229" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="19" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="18" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="17" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="18" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="17" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="16" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B12" xr:uid="{AB78FFAA-4D60-419F-9D9A-15685CF12B1B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11908,7 +11908,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M2:N74">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11925,7 +11925,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D770E9-0156-41F1-840B-59979CDDE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BDDCD0-F8F1-48E0-84F8-3EDB00EDC018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="4" activeTab="9" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="1" activeTab="3" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="2" r:id="rId1"/>
@@ -810,9 +810,6 @@
     <t>case_1: ((actual_height - nisha_height - 360 - 11) &gt;= 960 and (actual_height - nisha_height - 360 - 11) &lt;= 1499) case_2: ((actual_height - nisha_height - 360 - 11) &gt;= 1500 and (actual_height - nisha_height - 360 - 11) &lt;= 1859)</t>
   </si>
   <si>
-    <t>(actual_height - nisha_height - 720 - 11) &gt;= 960 and (actual_height - nisha_height - 720 - 11) &lt;= 1499</t>
-  </si>
-  <si>
     <t>Изделие</t>
   </si>
   <si>
@@ -1927,6 +1924,9 @@
   </si>
   <si>
     <t>Frame_черный_браш</t>
+  </si>
+  <si>
+    <t>case_1: ((actual_height - nisha_height - 720 - 11) &gt;= 960 and (actual_height - nisha_height - 720 - 11) &lt;= 1499)</t>
   </si>
 </sst>
 </file>
@@ -4426,49 +4426,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>347</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>348</v>
       </c>
       <c r="R1" s="24" t="s">
         <v>48</v>
@@ -4480,37 +4480,37 @@
         <v>50</v>
       </c>
       <c r="U1" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>54</v>
@@ -4602,7 +4602,7 @@
         <v>67</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -4702,7 +4702,7 @@
         <v>67</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF3" s="8">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>67</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF4" s="8">
         <v>2</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="5" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>64</v>
@@ -4906,13 +4906,13 @@
       </c>
       <c r="AB5" s="8"/>
       <c r="AC5" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD5" s="8">
         <v>0</v>
       </c>
       <c r="AE5" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF5" s="8">
         <v>1</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF6" s="8">
         <v>1</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF7" s="8">
         <v>2</v>
@@ -5204,7 +5204,7 @@
         <v>67</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF8" s="8">
         <v>1</v>
@@ -5304,7 +5304,7 @@
         <v>67</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF9" s="8">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF10" s="8">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF11" s="8">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>67</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF12" s="8">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>67</v>
       </c>
       <c r="AA13" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF13" s="8">
         <v>3</v>
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF14" s="8">
         <v>4</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF15" s="8">
         <v>3</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF16" s="8">
         <v>2</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF17" s="8">
         <v>2</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF18" s="8">
         <v>1</v>
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="65" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF19" s="8">
         <v>1</v>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF21" s="8">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>67</v>
       </c>
       <c r="AA22" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF22" s="8">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>67</v>
       </c>
       <c r="AA23" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF23" s="8">
         <v>2</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF24" s="8">
         <v>2</v>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="AE25" s="65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF25" s="8">
         <v>3</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>64</v>
@@ -7006,13 +7006,13 @@
       </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD26" s="8">
         <v>0</v>
       </c>
       <c r="AE26" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF26" s="8">
         <v>1</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF27" s="8">
         <v>1</v>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF28" s="8">
         <v>2</v>
@@ -7303,7 +7303,7 @@
         <v>67</v>
       </c>
       <c r="AA29" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="AE29" s="65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF29" s="8">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>67</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF30" s="8">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="AE31" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF31" s="8">
         <v>1</v>
@@ -7601,12 +7601,12 @@
         <v>79</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE32" s="65">
         <v>0</v>
@@ -7701,15 +7701,15 @@
         <v>79</v>
       </c>
       <c r="AA33" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
       <c r="AD33" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE33" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF33" s="8">
         <v>1</v>
@@ -7801,15 +7801,15 @@
         <v>79</v>
       </c>
       <c r="AA34" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE34" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF34" s="8">
         <v>1</v>
@@ -7901,7 +7901,7 @@
         <v>67</v>
       </c>
       <c r="AA35" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="AE35" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF35" s="8">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>67</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF36" s="8">
         <v>1</v>
@@ -8100,15 +8100,15 @@
         <v>79</v>
       </c>
       <c r="AA37" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
       <c r="AD37" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE37" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF37" s="8">
         <v>2</v>
@@ -8200,15 +8200,15 @@
         <v>79</v>
       </c>
       <c r="AA38" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
       <c r="AD38" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AE38" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF38" s="8">
         <v>2</v>
@@ -8299,15 +8299,15 @@
         <v>79</v>
       </c>
       <c r="AA39" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
       <c r="AD39" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE39" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF39" s="8">
         <v>1</v>
@@ -8399,7 +8399,7 @@
         <v>67</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="AE40" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF40" s="8">
         <v>1</v>
@@ -8499,7 +8499,7 @@
         <v>67</v>
       </c>
       <c r="AA41" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="AE41" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF41" s="8">
         <v>2</v>
@@ -8598,7 +8598,7 @@
         <v>67</v>
       </c>
       <c r="AA42" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF42" s="8">
         <v>1</v>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="43" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>137</v>
@@ -8698,17 +8698,17 @@
         <v>79</v>
       </c>
       <c r="AA43" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE43" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF43" s="8">
         <v>1</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="44" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>137</v>
@@ -8800,17 +8800,17 @@
         <v>79</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD44" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE44" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF44" s="8">
         <v>2</v>
@@ -8827,7 +8827,7 @@
     </row>
     <row r="45" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>137</v>
@@ -8902,17 +8902,17 @@
         <v>67</v>
       </c>
       <c r="AA45" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD45" s="8">
         <v>0</v>
       </c>
       <c r="AE45" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF45" s="8">
         <v>2</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="46" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>137</v>
@@ -9004,17 +9004,17 @@
         <v>67</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AD46" s="8">
         <v>0</v>
       </c>
       <c r="AE46" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF46" s="8">
         <v>1</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="AE47" s="65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF47" s="8">
         <v>1</v>
@@ -9208,15 +9208,15 @@
         <v>79</v>
       </c>
       <c r="AA48" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
       <c r="AD48" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE48" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF48" s="8">
         <v>1</v>
@@ -9310,15 +9310,15 @@
         <v>79</v>
       </c>
       <c r="AA49" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB49" s="8"/>
       <c r="AC49" s="8"/>
       <c r="AD49" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE49" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF49" s="8">
         <v>2</v>
@@ -9412,15 +9412,15 @@
         <v>79</v>
       </c>
       <c r="AA50" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AD50" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE50" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF50" s="8">
         <v>2</v>
@@ -9514,7 +9514,7 @@
         <v>67</v>
       </c>
       <c r="AA51" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB51" s="8"/>
       <c r="AC51" s="8"/>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="AE51" s="65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF51" s="8">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF52" s="8">
         <v>1</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF53" s="8">
         <v>1</v>
@@ -9813,15 +9813,15 @@
         <v>79</v>
       </c>
       <c r="AA54" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB54" s="8"/>
       <c r="AC54" s="8"/>
       <c r="AD54" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE54" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF54" s="8">
         <v>1</v>
@@ -9913,15 +9913,15 @@
         <v>79</v>
       </c>
       <c r="AA55" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
       <c r="AD55" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE55" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF55" s="8">
         <v>1</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="56" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>181</v>
@@ -10015,17 +10015,17 @@
         <v>67</v>
       </c>
       <c r="AA56" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB56" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8">
         <v>0</v>
       </c>
       <c r="AE56" s="65" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF56" s="8">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF57" s="8">
         <v>1</v>
@@ -10220,10 +10220,10 @@
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
       <c r="AD58" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE58" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF58" s="8">
         <v>2</v>
@@ -10318,10 +10318,10 @@
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
       <c r="AD59" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE59" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF59" s="8">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>67</v>
       </c>
       <c r="AA60" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB60" s="8"/>
       <c r="AC60" s="8"/>
@@ -10421,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="AE60" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF60" s="8">
         <v>2</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF61" s="8">
         <v>2</v>
@@ -10613,15 +10613,15 @@
         <v>79</v>
       </c>
       <c r="AA62" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8"/>
       <c r="AD62" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE62" s="65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF62" s="8">
         <v>4</v>
@@ -10713,15 +10713,15 @@
         <v>79</v>
       </c>
       <c r="AA63" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
       <c r="AD63" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE63" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF63" s="8">
         <v>3</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="64" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>181</v>
@@ -10815,17 +10815,17 @@
         <v>67</v>
       </c>
       <c r="AA64" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB64" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC64" s="8"/>
       <c r="AD64" s="8">
         <v>0</v>
       </c>
       <c r="AE64" s="65" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF64" s="8">
         <v>2</v>
@@ -10842,7 +10842,7 @@
     </row>
     <row r="65" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>181</v>
@@ -10919,17 +10919,17 @@
         <v>67</v>
       </c>
       <c r="AA65" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB65" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AC65" s="8"/>
       <c r="AD65" s="8">
         <v>0</v>
       </c>
       <c r="AE65" s="65" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AF65" s="8">
         <v>3</v>
@@ -10946,7 +10946,7 @@
     </row>
     <row r="66" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>181</v>
@@ -11023,17 +11023,17 @@
         <v>67</v>
       </c>
       <c r="AA66" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB66" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC66" s="8"/>
       <c r="AD66" s="8">
         <v>0</v>
       </c>
       <c r="AE66" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF66" s="8">
         <v>2</v>
@@ -11127,7 +11127,7 @@
         <v>67</v>
       </c>
       <c r="AA67" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB67" s="8"/>
       <c r="AC67" s="8"/>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="AE67" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF67" s="8">
         <v>2</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="AE68" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF68" s="8">
         <v>3</v>
@@ -11327,15 +11327,15 @@
         <v>79</v>
       </c>
       <c r="AA69" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB69" s="8"/>
       <c r="AC69" s="8"/>
       <c r="AD69" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE69" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF69" s="8">
         <v>1</v>
@@ -11427,15 +11427,15 @@
         <v>79</v>
       </c>
       <c r="AA70" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB70" s="8"/>
       <c r="AC70" s="8"/>
       <c r="AD70" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AE70" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF70" s="8">
         <v>2</v>
@@ -11527,7 +11527,7 @@
         <v>67</v>
       </c>
       <c r="AA71" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB71" s="8"/>
       <c r="AC71" s="8"/>
@@ -11535,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="AE71" s="65" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF71" s="8">
         <v>1</v>
@@ -11627,7 +11627,7 @@
         <v>67</v>
       </c>
       <c r="AA72" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB72" s="8"/>
       <c r="AC72" s="8"/>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="AE72" s="65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF72" s="8">
         <v>2</v>
@@ -11729,7 +11729,7 @@
         <v>67</v>
       </c>
       <c r="AA73" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB73" s="8"/>
       <c r="AC73" s="8"/>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="AE73" s="65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF73" s="8">
         <v>2</v>
@@ -11831,7 +11831,7 @@
         <v>67</v>
       </c>
       <c r="AA74" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB74" s="8"/>
       <c r="AC74" s="8"/>
@@ -11839,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="AE74" s="65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF74" s="8">
         <v>2</v>
@@ -11924,7 +11924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9860A0D5-6200-4BC8-AB0C-84B9A2A7A591}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -11935,15 +11935,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
+        <v>613</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>614</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="95" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B2" s="96">
         <v>2931</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B3" s="96">
         <v>4033</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="4" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="95" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="97">
         <v>4373</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="5" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="95" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B5" s="97">
         <v>4373</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="6" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="95" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6" s="97">
         <v>5000</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="7" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="95" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B7" s="97">
         <v>5000</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="8" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="95" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B8" s="97">
         <v>9900</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="9" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B9" s="98">
         <v>9200</v>
@@ -12026,15 +12026,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A1" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>251</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" s="56">
         <v>2185</v>
@@ -12042,7 +12042,7 @@
     </row>
     <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B3" s="58">
         <v>2912</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="9" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -12961,7 +12961,7 @@
     </row>
     <row r="59" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B59" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -12976,7 +12976,7 @@
     </row>
     <row r="60" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="61" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B61" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="112" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B112" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13771,7 +13771,7 @@
     </row>
     <row r="113" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B113" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="114" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="115" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B115" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="116" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B116" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13831,7 +13831,7 @@
     </row>
     <row r="117" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B117" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="118" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B118" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13861,7 +13861,7 @@
     </row>
     <row r="119" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B119" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13876,7 +13876,7 @@
     </row>
     <row r="120" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B120" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13891,7 +13891,7 @@
     </row>
     <row r="121" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B121" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="122" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B122" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -13921,7 +13921,7 @@
     </row>
     <row r="123" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B123" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14281,7 +14281,7 @@
     </row>
     <row r="147" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B147" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14296,7 +14296,7 @@
     </row>
     <row r="148" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14551,7 +14551,7 @@
     </row>
     <row r="165" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B165" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="166" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B166" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="167" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14596,7 +14596,7 @@
     </row>
     <row r="168" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B168" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14611,7 +14611,7 @@
     </row>
     <row r="169" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B169" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14626,7 +14626,7 @@
     </row>
     <row r="170" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B170" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="171" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B171" s="3">
         <f>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</f>
@@ -15001,8 +15001,8 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>45</v>
@@ -15196,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>45</v>
@@ -15220,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
@@ -16482,7 +16482,7 @@
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>45</v>
@@ -16498,7 +16498,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
@@ -16506,7 +16506,7 @@
     </row>
     <row r="68" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="40" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>45</v>
@@ -16522,7 +16522,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
@@ -17468,7 +17468,7 @@
     </row>
     <row r="107" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B107" s="40" t="s">
         <v>45</v>
@@ -17496,7 +17496,7 @@
     </row>
     <row r="108" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B108" s="40" t="s">
         <v>45</v>
@@ -17512,7 +17512,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
@@ -17520,7 +17520,7 @@
     </row>
     <row r="109" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B109" s="40" t="s">
         <v>46</v>
@@ -17548,7 +17548,7 @@
     </row>
     <row r="110" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B110" s="40" t="s">
         <v>46</v>
@@ -17564,7 +17564,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="111" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B111" s="43" t="s">
         <v>47</v>
@@ -17600,7 +17600,7 @@
     </row>
     <row r="112" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B112" s="43" t="s">
         <v>47</v>
@@ -17616,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="F112" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
@@ -17624,7 +17624,7 @@
     </row>
     <row r="113" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B113" s="40" t="s">
         <v>45</v>
@@ -17640,7 +17640,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G113" s="38"/>
       <c r="H113" s="38"/>
@@ -17648,7 +17648,7 @@
     </row>
     <row r="114" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" s="40" t="s">
         <v>46</v>
@@ -17664,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G114" s="38"/>
       <c r="H114" s="38"/>
@@ -17672,7 +17672,7 @@
     </row>
     <row r="115" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B115" s="43" t="s">
         <v>47</v>
@@ -17688,7 +17688,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="116" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B116" s="40" t="s">
         <v>45</v>
@@ -17724,7 +17724,7 @@
     </row>
     <row r="117" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B117" s="40" t="s">
         <v>45</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G117" s="38"/>
       <c r="H117" s="38"/>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="118" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" s="40" t="s">
         <v>46</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="119" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B119" s="43" t="s">
         <v>47</v>
@@ -17804,7 +17804,7 @@
     </row>
     <row r="120" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B120" s="40" t="s">
         <v>45</v>
@@ -17820,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="F120" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G120" s="38"/>
       <c r="H120" s="38"/>
@@ -17828,7 +17828,7 @@
     </row>
     <row r="121" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B121" s="40" t="s">
         <v>46</v>
@@ -17844,7 +17844,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
@@ -17852,7 +17852,7 @@
     </row>
     <row r="122" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B122" s="43" t="s">
         <v>47</v>
@@ -17868,7 +17868,7 @@
         <v>1</v>
       </c>
       <c r="F122" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G122" s="38"/>
       <c r="H122" s="38"/>
@@ -17876,7 +17876,7 @@
     </row>
     <row r="123" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B123" s="40" t="s">
         <v>45</v>
@@ -17892,7 +17892,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="124" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B124" s="40" t="s">
         <v>46</v>
@@ -17916,7 +17916,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="125" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B125" s="43" t="s">
         <v>47</v>
@@ -17940,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G125" s="38"/>
       <c r="H125" s="38"/>
@@ -17948,7 +17948,7 @@
     </row>
     <row r="126" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B126" s="40" t="s">
         <v>45</v>
@@ -17964,7 +17964,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G126" s="38"/>
       <c r="H126" s="38"/>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="127" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B127" s="40" t="s">
         <v>45</v>
@@ -17994,7 +17994,7 @@
     </row>
     <row r="128" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B128" s="40" t="s">
         <v>45</v>
@@ -18022,7 +18022,7 @@
     </row>
     <row r="129" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B129" s="40" t="s">
         <v>45</v>
@@ -18038,7 +18038,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
@@ -18046,7 +18046,7 @@
     </row>
     <row r="130" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B130" s="40" t="s">
         <v>45</v>
@@ -18062,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G130" s="38"/>
       <c r="H130" s="38"/>
@@ -18070,7 +18070,7 @@
     </row>
     <row r="131" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B131" s="40" t="s">
         <v>45</v>
@@ -18086,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
@@ -18522,7 +18522,7 @@
     </row>
     <row r="149" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B149" s="40" t="s">
         <v>45</v>
@@ -18544,7 +18544,7 @@
     </row>
     <row r="150" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" s="40" t="s">
         <v>46</v>
@@ -18566,7 +18566,7 @@
     </row>
     <row r="151" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B151" s="43" t="s">
         <v>47</v>
@@ -19282,7 +19282,7 @@
     </row>
     <row r="180" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B180" s="40" t="s">
         <v>45</v>
@@ -19310,7 +19310,7 @@
     </row>
     <row r="181" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B181" s="40" t="s">
         <v>45</v>
@@ -19332,7 +19332,7 @@
     </row>
     <row r="182" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B182" s="40" t="s">
         <v>45</v>
@@ -19360,7 +19360,7 @@
     </row>
     <row r="183" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B183" s="40" t="s">
         <v>46</v>
@@ -19382,7 +19382,7 @@
     </row>
     <row r="184" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B184" s="40" t="s">
         <v>46</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="185" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B185" s="40" t="s">
         <v>46</v>
@@ -19432,7 +19432,7 @@
     </row>
     <row r="186" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B186" s="43" t="s">
         <v>47</v>
@@ -19454,7 +19454,7 @@
     </row>
     <row r="187" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B187" s="43" t="s">
         <v>47</v>
@@ -19482,7 +19482,7 @@
     </row>
     <row r="188" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B188" s="40" t="s">
         <v>45</v>
@@ -19510,7 +19510,7 @@
     </row>
     <row r="189" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B189" s="40" t="s">
         <v>45</v>
@@ -19532,7 +19532,7 @@
     </row>
     <row r="190" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B190" s="40" t="s">
         <v>46</v>
@@ -19554,7 +19554,7 @@
     </row>
     <row r="191" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B191" s="40" t="s">
         <v>46</v>
@@ -19576,7 +19576,7 @@
     </row>
     <row r="192" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B192" s="40" t="s">
         <v>45</v>
@@ -19592,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G192" s="38" t="s">
         <v>230</v>
@@ -19604,7 +19604,7 @@
     </row>
     <row r="193" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B193" s="40" t="s">
         <v>45</v>
@@ -19626,7 +19626,7 @@
     </row>
     <row r="194" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B194" s="40" t="s">
         <v>46</v>
@@ -19648,7 +19648,7 @@
     </row>
     <row r="195" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B195" s="40" t="s">
         <v>46</v>
@@ -19670,7 +19670,7 @@
     </row>
     <row r="196" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B196" s="43" t="s">
         <v>47</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="197" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B197" s="43" t="s">
         <v>47</v>
@@ -20318,7 +20318,7 @@
         <v>4</v>
       </c>
       <c r="F220" s="38" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="G220" s="41" t="s">
         <v>23</v>
@@ -20346,7 +20346,7 @@
         <v>4</v>
       </c>
       <c r="F221" s="38" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="G221" s="41" t="s">
         <v>24</v>
@@ -20374,7 +20374,7 @@
         <v>4</v>
       </c>
       <c r="F222" s="38" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="G222" s="41" t="s">
         <v>24</v>
@@ -21205,98 +21205,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="60" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="63" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -21334,51 +21334,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="94" customFormat="1" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A1" s="93" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1" s="93" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="G1" s="93" t="s">
         <v>364</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="H1" s="93" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="I1" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
+        <v>605</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>606</v>
+      </c>
+      <c r="L1" s="93" t="s">
         <v>367</v>
-      </c>
-      <c r="J1" s="93" t="s">
-        <v>606</v>
-      </c>
-      <c r="K1" s="93" t="s">
-        <v>607</v>
-      </c>
-      <c r="L1" s="93" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>369</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>370</v>
       </c>
       <c r="D2" s="81">
         <v>19</v>
@@ -21410,13 +21410,13 @@
     </row>
     <row r="3" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" s="81" t="s">
         <v>371</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>372</v>
       </c>
       <c r="D3" s="81">
         <v>19</v>
@@ -21448,13 +21448,13 @@
     </row>
     <row r="4" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D4" s="81">
         <v>19</v>
@@ -21486,13 +21486,13 @@
     </row>
     <row r="5" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D5" s="81">
         <v>19</v>
@@ -21524,13 +21524,13 @@
     </row>
     <row r="6" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" s="81">
         <v>19</v>
@@ -21562,13 +21562,13 @@
     </row>
     <row r="7" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D7" s="81">
         <v>19</v>
@@ -21600,13 +21600,13 @@
     </row>
     <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D8" s="81">
         <v>19</v>
@@ -21638,13 +21638,13 @@
     </row>
     <row r="9" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D9" s="81">
         <v>19</v>
@@ -21676,13 +21676,13 @@
     </row>
     <row r="10" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D10" s="81">
         <v>19</v>
@@ -21714,13 +21714,13 @@
     </row>
     <row r="11" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D11" s="81">
         <v>19</v>
@@ -21752,13 +21752,13 @@
     </row>
     <row r="12" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D12" s="81">
         <v>19</v>
@@ -21790,13 +21790,13 @@
     </row>
     <row r="13" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" s="81">
         <v>0</v>
@@ -21828,13 +21828,13 @@
     </row>
     <row r="14" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A14" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" s="81">
         <v>19</v>
@@ -21866,13 +21866,13 @@
     </row>
     <row r="15" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C15" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D15" s="81">
         <v>19</v>
@@ -21904,13 +21904,13 @@
     </row>
     <row r="16" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A16" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D16" s="81">
         <v>19</v>
@@ -21942,13 +21942,13 @@
     </row>
     <row r="17" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D17" s="81">
         <v>19</v>
@@ -21980,13 +21980,13 @@
     </row>
     <row r="18" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D18" s="81">
         <v>19</v>
@@ -22018,13 +22018,13 @@
     </row>
     <row r="19" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D19" s="81">
         <v>19</v>
@@ -22056,13 +22056,13 @@
     </row>
     <row r="20" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D20" s="81">
         <v>19</v>
@@ -22094,13 +22094,13 @@
     </row>
     <row r="21" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D21" s="81">
         <v>19</v>
@@ -22132,13 +22132,13 @@
     </row>
     <row r="22" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A22" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D22" s="81">
         <v>19</v>
@@ -22170,13 +22170,13 @@
     </row>
     <row r="23" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A23" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D23" s="81">
         <v>19</v>
@@ -22208,13 +22208,13 @@
     </row>
     <row r="24" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A24" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D24" s="81">
         <v>19</v>
@@ -22246,13 +22246,13 @@
     </row>
     <row r="25" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A25" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D25" s="81">
         <v>19</v>
@@ -22284,13 +22284,13 @@
     </row>
     <row r="26" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D26" s="81">
         <v>22</v>
@@ -22322,13 +22322,13 @@
     </row>
     <row r="27" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A27" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D27" s="81">
         <v>18</v>
@@ -22360,13 +22360,13 @@
     </row>
     <row r="28" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A28" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" s="81">
         <v>18</v>
@@ -22398,13 +22398,13 @@
     </row>
     <row r="29" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A29" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C29" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D29" s="81">
         <v>19</v>
@@ -22436,13 +22436,13 @@
     </row>
     <row r="30" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D30" s="81">
         <v>19</v>
@@ -22474,13 +22474,13 @@
     </row>
     <row r="31" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D31" s="81">
         <v>19</v>
@@ -22512,13 +22512,13 @@
     </row>
     <row r="32" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D32" s="81">
         <v>19</v>
@@ -22550,13 +22550,13 @@
     </row>
     <row r="33" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33" s="81">
         <v>19</v>
@@ -22588,13 +22588,13 @@
     </row>
     <row r="34" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D34" s="81">
         <v>19</v>
@@ -22626,13 +22626,13 @@
     </row>
     <row r="35" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D35" s="81">
         <v>19</v>
@@ -22664,13 +22664,13 @@
     </row>
     <row r="36" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C36" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" s="81">
         <v>19</v>
@@ -22702,13 +22702,13 @@
     </row>
     <row r="37" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A37" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C37" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D37" s="81">
         <v>19</v>
@@ -22740,13 +22740,13 @@
     </row>
     <row r="38" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A38" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D38" s="81">
         <v>19</v>
@@ -22778,13 +22778,13 @@
     </row>
     <row r="39" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A39" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D39" s="81">
         <v>19</v>
@@ -22816,13 +22816,13 @@
     </row>
     <row r="40" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A40" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B40" s="81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C40" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D40" s="81">
         <v>19</v>
@@ -22854,13 +22854,13 @@
     </row>
     <row r="41" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A41" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C41" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D41" s="81">
         <v>19</v>
@@ -22892,13 +22892,13 @@
     </row>
     <row r="42" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A42" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" s="81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D42" s="81">
         <v>19</v>
@@ -22930,13 +22930,13 @@
     </row>
     <row r="43" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A43" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C43" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="81">
         <v>19</v>
@@ -22968,13 +22968,13 @@
     </row>
     <row r="44" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A44" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B44" s="81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D44" s="81">
         <v>19</v>
@@ -23006,13 +23006,13 @@
     </row>
     <row r="45" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A45" s="81" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B45" s="81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C45" s="81" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D45" s="81">
         <v>19</v>
@@ -23044,13 +23044,13 @@
     </row>
     <row r="46" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A46" s="81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B46" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C46" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D46" s="81">
         <v>18</v>
@@ -23082,13 +23082,13 @@
     </row>
     <row r="47" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A47" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D47" s="81">
         <v>16</v>
@@ -23120,13 +23120,13 @@
     </row>
     <row r="48" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A48" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="81">
         <v>16</v>
@@ -23158,13 +23158,13 @@
     </row>
     <row r="49" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A49" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" s="81">
         <v>16</v>
@@ -23196,13 +23196,13 @@
     </row>
     <row r="50" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A50" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D50" s="81">
         <v>16</v>
@@ -23234,13 +23234,13 @@
     </row>
     <row r="51" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A51" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B51" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D51" s="81">
         <v>16</v>
@@ -23272,13 +23272,13 @@
     </row>
     <row r="52" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A52" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B52" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C52" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D52" s="81">
         <v>16</v>
@@ -23310,13 +23310,13 @@
     </row>
     <row r="53" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A53" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" s="81" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C53" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D53" s="30">
         <v>20</v>
@@ -23372,33 +23372,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>603</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>535</v>
-      </c>
       <c r="D1" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>415</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>416</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>418</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>419</v>
       </c>
       <c r="D2" s="69">
         <v>2</v>
@@ -23412,13 +23412,13 @@
     </row>
     <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>420</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>421</v>
       </c>
       <c r="D3" s="69">
         <v>1</v>
@@ -23432,13 +23432,13 @@
     </row>
     <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D4" s="69">
         <v>1</v>
@@ -23452,13 +23452,13 @@
     </row>
     <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D5" s="69">
         <v>1</v>
@@ -23472,13 +23472,13 @@
     </row>
     <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D6" s="69">
         <v>1</v>
@@ -23492,13 +23492,13 @@
     </row>
     <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D7" s="69">
         <v>4</v>
@@ -23512,13 +23512,13 @@
     </row>
     <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D8" s="69">
         <v>3</v>
@@ -23532,13 +23532,13 @@
     </row>
     <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D9" s="69">
         <v>1</v>
@@ -23552,13 +23552,13 @@
     </row>
     <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D10" s="69">
         <v>1</v>
@@ -23572,13 +23572,13 @@
     </row>
     <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" s="69">
         <v>1</v>
@@ -23592,13 +23592,13 @@
     </row>
     <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D12" s="69">
         <v>1</v>
@@ -23612,13 +23612,13 @@
     </row>
     <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D13" s="69">
         <v>2</v>
@@ -23632,13 +23632,13 @@
     </row>
     <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A14" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" s="69">
         <v>1</v>
@@ -23652,13 +23652,13 @@
     </row>
     <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A15" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D15" s="69">
         <v>1</v>
@@ -23672,13 +23672,13 @@
     </row>
     <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A16" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D16" s="69">
         <v>4</v>
@@ -23692,13 +23692,13 @@
     </row>
     <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" s="69">
         <v>1</v>
@@ -23712,13 +23712,13 @@
     </row>
     <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D18" s="69">
         <v>1</v>
@@ -23732,13 +23732,13 @@
     </row>
     <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" s="69">
         <v>1</v>
@@ -23752,13 +23752,13 @@
     </row>
     <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D20" s="69">
         <v>1</v>
@@ -23772,13 +23772,13 @@
     </row>
     <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D21" s="69">
         <v>1</v>
@@ -23792,13 +23792,13 @@
     </row>
     <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A22" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D22" s="69">
         <v>1</v>
@@ -23812,13 +23812,13 @@
     </row>
     <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A23" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D23" s="69">
         <v>1</v>
@@ -23832,13 +23832,13 @@
     </row>
     <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A24" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D24" s="69">
         <v>1</v>
@@ -23852,13 +23852,13 @@
     </row>
     <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A25" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" s="69">
         <v>3</v>
@@ -23872,13 +23872,13 @@
     </row>
     <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A26" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D26" s="69">
         <v>2</v>
@@ -23892,13 +23892,13 @@
     </row>
     <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A27" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D27" s="69">
         <v>1</v>
@@ -23912,13 +23912,13 @@
     </row>
     <row r="28" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A28" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D28" s="69">
         <v>3</v>
@@ -23932,13 +23932,13 @@
     </row>
     <row r="29" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A29" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D29" s="69">
         <v>1</v>
@@ -23952,13 +23952,13 @@
     </row>
     <row r="30" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A30" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D30" s="69">
         <v>3</v>
@@ -23972,13 +23972,13 @@
     </row>
     <row r="31" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A31" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D31" s="69">
         <v>2</v>
@@ -23992,13 +23992,13 @@
     </row>
     <row r="32" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A32" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D32" s="69">
         <v>3</v>
@@ -24012,13 +24012,13 @@
     </row>
     <row r="33" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A33" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D33" s="69">
         <v>1</v>
@@ -24032,13 +24032,13 @@
     </row>
     <row r="34" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A34" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D34" s="69">
         <v>2</v>
@@ -24052,13 +24052,13 @@
     </row>
     <row r="35" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A35" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D35" s="69">
         <v>1</v>
@@ -24072,13 +24072,13 @@
     </row>
     <row r="36" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A36" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D36" s="69">
         <v>1</v>
@@ -24092,13 +24092,13 @@
     </row>
     <row r="37" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A37" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D37" s="69">
         <v>1</v>
@@ -24112,13 +24112,13 @@
     </row>
     <row r="38" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A38" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D38" s="69">
         <v>3</v>
@@ -24132,13 +24132,13 @@
     </row>
     <row r="39" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A39" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D39" s="69">
         <v>2</v>
@@ -24152,13 +24152,13 @@
     </row>
     <row r="40" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A40" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D40" s="69">
         <v>2</v>
@@ -24172,13 +24172,13 @@
     </row>
     <row r="41" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A41" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D41" s="69">
         <v>2</v>
@@ -24192,13 +24192,13 @@
     </row>
     <row r="42" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A42" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D42" s="69">
         <v>1</v>
@@ -24212,13 +24212,13 @@
     </row>
     <row r="43" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A43" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D43" s="69">
         <v>4</v>
@@ -24232,13 +24232,13 @@
     </row>
     <row r="44" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A44" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D44" s="69">
         <v>4</v>
@@ -24252,13 +24252,13 @@
     </row>
     <row r="45" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A45" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B45" s="67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D45" s="69">
         <v>1</v>
@@ -24272,13 +24272,13 @@
     </row>
     <row r="46" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A46" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D46" s="69">
         <v>3</v>
@@ -24292,13 +24292,13 @@
     </row>
     <row r="47" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A47" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D47" s="69">
         <v>3</v>
@@ -24312,13 +24312,13 @@
     </row>
     <row r="48" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A48" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D48" s="69">
         <v>2</v>
@@ -24332,13 +24332,13 @@
     </row>
     <row r="49" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A49" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B49" s="67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D49" s="69">
         <v>1</v>
@@ -24352,13 +24352,13 @@
     </row>
     <row r="50" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A50" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D50" s="69">
         <v>1</v>
@@ -24372,13 +24372,13 @@
     </row>
     <row r="51" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A51" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B51" s="67" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D51" s="69">
         <v>4</v>
@@ -24392,13 +24392,13 @@
     </row>
     <row r="52" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A52" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D52" s="69">
         <v>1</v>
@@ -24412,13 +24412,13 @@
     </row>
     <row r="53" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A53" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D53" s="69">
         <v>3</v>
@@ -24432,13 +24432,13 @@
     </row>
     <row r="54" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A54" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B54" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D54" s="69">
         <v>3</v>
@@ -24452,13 +24452,13 @@
     </row>
     <row r="55" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A55" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D55" s="69">
         <v>3</v>
@@ -24472,13 +24472,13 @@
     </row>
     <row r="56" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A56" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D56" s="69">
         <v>3</v>
@@ -24492,13 +24492,13 @@
     </row>
     <row r="57" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A57" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D57" s="69">
         <v>3</v>
@@ -24512,13 +24512,13 @@
     </row>
     <row r="58" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A58" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B58" s="67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D58" s="69">
         <v>3</v>
@@ -24532,13 +24532,13 @@
     </row>
     <row r="59" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A59" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B59" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D59" s="69">
         <v>3</v>
@@ -24552,13 +24552,13 @@
     </row>
     <row r="60" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A60" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B60" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D60" s="69">
         <v>3</v>
@@ -24572,13 +24572,13 @@
     </row>
     <row r="61" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A61" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B61" s="67" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D61" s="69">
         <v>3</v>
@@ -24592,13 +24592,13 @@
     </row>
     <row r="62" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A62" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D62" s="69">
         <v>3</v>
@@ -24612,13 +24612,13 @@
     </row>
     <row r="63" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A63" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D63" s="69">
         <v>2</v>
@@ -24632,13 +24632,13 @@
     </row>
     <row r="64" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A64" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B64" s="67" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D64" s="69">
         <v>3</v>
@@ -24652,13 +24652,13 @@
     </row>
     <row r="65" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A65" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B65" s="67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D65" s="69">
         <v>2</v>
@@ -24672,13 +24672,13 @@
     </row>
     <row r="66" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A66" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B66" s="67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D66" s="69">
         <v>3</v>
@@ -24692,13 +24692,13 @@
     </row>
     <row r="67" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A67" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B67" s="67" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D67" s="69">
         <v>2</v>
@@ -24712,13 +24712,13 @@
     </row>
     <row r="68" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A68" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B68" s="67" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D68" s="69">
         <v>1</v>
@@ -24732,13 +24732,13 @@
     </row>
     <row r="69" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A69" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B69" s="67" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D69" s="69">
         <v>2</v>
@@ -24752,13 +24752,13 @@
     </row>
     <row r="70" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A70" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B70" s="67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D70" s="69">
         <v>2</v>
@@ -24772,13 +24772,13 @@
     </row>
     <row r="71" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A71" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D71" s="69">
         <v>2</v>
@@ -24792,13 +24792,13 @@
     </row>
     <row r="72" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A72" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B72" s="67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D72" s="69">
         <v>3</v>
@@ -24812,13 +24812,13 @@
     </row>
     <row r="73" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A73" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B73" s="67" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D73" s="69">
         <v>3</v>
@@ -24832,13 +24832,13 @@
     </row>
     <row r="74" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A74" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B74" s="67" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D74" s="69">
         <v>3</v>
@@ -24852,13 +24852,13 @@
     </row>
     <row r="75" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A75" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D75" s="69">
         <v>3</v>
@@ -24872,13 +24872,13 @@
     </row>
     <row r="76" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A76" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D76" s="69">
         <v>3</v>
@@ -24892,13 +24892,13 @@
     </row>
     <row r="77" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A77" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B77" s="67" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D77" s="69">
         <v>4</v>
@@ -24912,13 +24912,13 @@
     </row>
     <row r="78" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A78" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B78" s="67" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D78" s="69">
         <v>3</v>
@@ -24932,13 +24932,13 @@
     </row>
     <row r="79" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A79" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B79" s="67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D79" s="69">
         <v>2</v>
@@ -24952,13 +24952,13 @@
     </row>
     <row r="80" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A80" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B80" s="67" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C80" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D80" s="69">
         <v>2</v>
@@ -24972,13 +24972,13 @@
     </row>
     <row r="81" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A81" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B81" s="67" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D81" s="69">
         <v>4</v>
@@ -24992,13 +24992,13 @@
     </row>
     <row r="82" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A82" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B82" s="67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D82" s="69">
         <v>4</v>
@@ -25012,13 +25012,13 @@
     </row>
     <row r="83" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A83" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B83" s="67" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D83" s="69">
         <v>2</v>
@@ -25032,13 +25032,13 @@
     </row>
     <row r="84" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A84" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B84" s="67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D84" s="69">
         <v>3</v>
@@ -25052,13 +25052,13 @@
     </row>
     <row r="85" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A85" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B85" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D85" s="69">
         <v>3</v>
@@ -25072,13 +25072,13 @@
     </row>
     <row r="86" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A86" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B86" s="67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D86" s="69">
         <v>3</v>
@@ -25092,13 +25092,13 @@
     </row>
     <row r="87" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A87" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B87" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D87" s="69">
         <v>3</v>
@@ -25112,13 +25112,13 @@
     </row>
     <row r="88" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A88" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B88" s="67" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D88" s="69">
         <v>3</v>
@@ -25132,13 +25132,13 @@
     </row>
     <row r="89" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A89" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B89" s="67" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C89" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D89" s="69">
         <v>2</v>
@@ -25152,13 +25152,13 @@
     </row>
     <row r="90" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A90" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B90" s="67" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C90" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D90" s="69">
         <v>3</v>
@@ -25172,13 +25172,13 @@
     </row>
     <row r="91" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A91" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B91" s="67" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C91" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D91" s="69">
         <v>3</v>
@@ -25192,13 +25192,13 @@
     </row>
     <row r="92" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A92" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B92" s="67" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C92" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D92" s="69">
         <v>4</v>
@@ -25212,13 +25212,13 @@
     </row>
     <row r="93" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A93" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B93" s="67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C93" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D93" s="69">
         <v>3</v>
@@ -25232,13 +25232,13 @@
     </row>
     <row r="94" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A94" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B94" s="67" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C94" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D94" s="69">
         <v>3</v>
@@ -25252,13 +25252,13 @@
     </row>
     <row r="95" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A95" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B95" s="67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C95" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D95" s="69">
         <v>3</v>
@@ -25272,13 +25272,13 @@
     </row>
     <row r="96" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A96" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B96" s="67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C96" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D96" s="69">
         <v>3</v>
@@ -25292,13 +25292,13 @@
     </row>
     <row r="97" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A97" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B97" s="67" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C97" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D97" s="69">
         <v>3</v>
@@ -25312,13 +25312,13 @@
     </row>
     <row r="98" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A98" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B98" s="67" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C98" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D98" s="69">
         <v>3</v>
@@ -25332,13 +25332,13 @@
     </row>
     <row r="99" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A99" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D99" s="69">
         <v>3</v>
@@ -25352,13 +25352,13 @@
     </row>
     <row r="100" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A100" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B100" s="67" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D100" s="69">
         <v>2</v>
@@ -25372,13 +25372,13 @@
     </row>
     <row r="101" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A101" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B101" s="67" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C101" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D101" s="69">
         <v>3</v>
@@ -25392,13 +25392,13 @@
     </row>
     <row r="102" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A102" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B102" s="67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C102" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D102" s="69">
         <v>2</v>
@@ -25412,13 +25412,13 @@
     </row>
     <row r="103" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A103" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B103" s="67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C103" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D103" s="69">
         <v>1</v>
@@ -25432,13 +25432,13 @@
     </row>
     <row r="104" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A104" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B104" s="67" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C104" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D104" s="69">
         <v>2</v>
@@ -25452,13 +25452,13 @@
     </row>
     <row r="105" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A105" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B105" s="67" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C105" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D105" s="69">
         <v>3</v>
@@ -25472,13 +25472,13 @@
     </row>
     <row r="106" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A106" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B106" s="67" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D106" s="69">
         <v>3</v>
@@ -25492,13 +25492,13 @@
     </row>
     <row r="107" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A107" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B107" s="67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D107" s="69">
         <v>3</v>
@@ -25512,13 +25512,13 @@
     </row>
     <row r="108" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A108" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D108" s="69">
         <v>3</v>
@@ -25532,13 +25532,13 @@
     </row>
     <row r="109" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A109" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D109" s="69">
         <v>3</v>
@@ -25552,13 +25552,13 @@
     </row>
     <row r="110" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A110" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B110" s="67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C110" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D110" s="69">
         <v>3</v>
@@ -25572,13 +25572,13 @@
     </row>
     <row r="111" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A111" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B111" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D111" s="69">
         <v>3</v>
@@ -25592,13 +25592,13 @@
     </row>
     <row r="112" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A112" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B112" s="67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D112" s="69">
         <v>2</v>
@@ -25612,13 +25612,13 @@
     </row>
     <row r="113" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A113" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B113" s="67" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C113" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D113" s="69">
         <v>2</v>
@@ -25632,13 +25632,13 @@
     </row>
     <row r="114" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A114" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B114" s="67" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D114" s="69">
         <v>3</v>
@@ -25652,13 +25652,13 @@
     </row>
     <row r="115" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A115" s="67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" s="67" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C115" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D115" s="69">
         <v>3</v>
@@ -25672,13 +25672,13 @@
     </row>
     <row r="116" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A116" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B116" s="67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C116" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D116" s="72">
         <v>0</v>
@@ -25692,13 +25692,13 @@
     </row>
     <row r="117" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A117" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B117" s="67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C117" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D117" s="72">
         <v>0</v>
@@ -25712,13 +25712,13 @@
     </row>
     <row r="118" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A118" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B118" s="75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C118" s="71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D118" s="72">
         <v>0</v>
@@ -25732,13 +25732,13 @@
     </row>
     <row r="119" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A119" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B119" s="67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C119" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D119" s="72">
         <v>0</v>
@@ -25752,13 +25752,13 @@
     </row>
     <row r="120" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A120" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B120" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C120" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D120" s="72">
         <v>0</v>
@@ -25772,13 +25772,13 @@
     </row>
     <row r="121" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A121" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B121" s="67" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C121" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D121" s="72">
         <v>0</v>
@@ -25792,13 +25792,13 @@
     </row>
     <row r="122" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A122" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B122" s="67" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C122" s="71" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D122" s="72">
         <v>0</v>
@@ -25812,13 +25812,13 @@
     </row>
     <row r="123" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A123" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B123" s="67" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D123" s="72">
         <v>0</v>
@@ -25832,13 +25832,13 @@
     </row>
     <row r="124" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A124" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B124" s="67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C124" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D124" s="72">
         <v>0</v>
@@ -25852,13 +25852,13 @@
     </row>
     <row r="125" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A125" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B125" s="67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C125" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D125" s="72">
         <v>0</v>
@@ -25872,13 +25872,13 @@
     </row>
     <row r="126" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A126" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B126" s="67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C126" s="71" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D126" s="72">
         <v>0</v>
@@ -25892,13 +25892,13 @@
     </row>
     <row r="127" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A127" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B127" s="67" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C127" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D127" s="72">
         <v>0</v>
@@ -25912,13 +25912,13 @@
     </row>
     <row r="128" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A128" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B128" s="67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C128" s="71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D128" s="72">
         <v>0</v>
@@ -25932,13 +25932,13 @@
     </row>
     <row r="129" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A129" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B129" s="67" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C129" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D129" s="72">
         <v>0</v>
@@ -25952,13 +25952,13 @@
     </row>
     <row r="130" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A130" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B130" s="67" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C130" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D130" s="72">
         <v>0</v>
@@ -25972,13 +25972,13 @@
     </row>
     <row r="131" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A131" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B131" s="67" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C131" s="71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D131" s="72">
         <v>0</v>
@@ -25992,13 +25992,13 @@
     </row>
     <row r="132" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A132" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B132" s="67" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C132" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D132" s="72">
         <v>0</v>
@@ -26012,13 +26012,13 @@
     </row>
     <row r="133" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A133" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B133" s="67" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C133" s="71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D133" s="72">
         <v>0</v>
@@ -26032,13 +26032,13 @@
     </row>
     <row r="134" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A134" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B134" s="75" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C134" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D134" s="72">
         <v>0</v>
@@ -26052,13 +26052,13 @@
     </row>
     <row r="135" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A135" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B135" s="67" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C135" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D135" s="72">
         <v>0</v>
@@ -26072,13 +26072,13 @@
     </row>
     <row r="136" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A136" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B136" s="67" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C136" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D136" s="72">
         <v>0</v>
@@ -26092,13 +26092,13 @@
     </row>
     <row r="137" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A137" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B137" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D137" s="72">
         <v>0</v>
@@ -26112,13 +26112,13 @@
     </row>
     <row r="138" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A138" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B138" s="67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C138" s="71" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D138" s="72">
         <v>0</v>
@@ -26132,13 +26132,13 @@
     </row>
     <row r="139" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A139" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B139" s="67" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C139" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D139" s="72">
         <v>0</v>
@@ -26152,13 +26152,13 @@
     </row>
     <row r="140" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A140" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B140" s="67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C140" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D140" s="72">
         <v>0</v>
@@ -26172,13 +26172,13 @@
     </row>
     <row r="141" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A141" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B141" s="67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C141" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D141" s="72">
         <v>0</v>
@@ -26192,13 +26192,13 @@
     </row>
     <row r="142" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A142" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B142" s="67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C142" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D142" s="72">
         <v>0</v>
@@ -26212,13 +26212,13 @@
     </row>
     <row r="143" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A143" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B143" s="67" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C143" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D143" s="72">
         <v>0</v>
@@ -26232,13 +26232,13 @@
     </row>
     <row r="144" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A144" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B144" s="67" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C144" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D144" s="72">
         <v>0</v>
@@ -26252,13 +26252,13 @@
     </row>
     <row r="145" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A145" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B145" s="67" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D145" s="72">
         <v>0</v>
@@ -26272,13 +26272,13 @@
     </row>
     <row r="146" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A146" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B146" s="67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C146" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D146" s="72">
         <v>0</v>
@@ -26292,13 +26292,13 @@
     </row>
     <row r="147" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A147" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B147" s="67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C147" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D147" s="72">
         <v>0</v>
@@ -26312,13 +26312,13 @@
     </row>
     <row r="148" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A148" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B148" s="67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C148" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D148" s="72">
         <v>0</v>
@@ -26332,13 +26332,13 @@
     </row>
     <row r="149" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A149" s="67" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B149" s="67" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C149" s="71" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D149" s="72">
         <v>0</v>
@@ -26352,13 +26352,13 @@
     </row>
     <row r="150" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A150" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B150" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C150" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D150" s="72">
         <v>0</v>
@@ -26372,13 +26372,13 @@
     </row>
     <row r="151" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A151" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B151" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C151" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D151" s="72">
         <v>0</v>
@@ -26392,13 +26392,13 @@
     </row>
     <row r="152" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A152" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B152" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C152" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D152" s="72">
         <v>0</v>
@@ -26412,13 +26412,13 @@
     </row>
     <row r="153" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A153" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B153" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C153" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D153" s="72">
         <v>0</v>
@@ -26432,13 +26432,13 @@
     </row>
     <row r="154" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A154" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B154" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C154" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D154" s="72">
         <v>0</v>
@@ -26452,13 +26452,13 @@
     </row>
     <row r="155" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A155" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B155" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C155" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D155" s="72">
         <v>0</v>
@@ -26472,13 +26472,13 @@
     </row>
     <row r="156" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A156" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B156" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C156" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D156" s="72">
         <v>0</v>
@@ -26492,13 +26492,13 @@
     </row>
     <row r="157" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A157" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B157" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C157" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D157" s="72">
         <v>0</v>
@@ -26512,13 +26512,13 @@
     </row>
     <row r="158" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A158" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B158" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C158" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D158" s="72">
         <v>0</v>
@@ -26532,13 +26532,13 @@
     </row>
     <row r="159" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A159" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B159" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C159" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D159" s="72">
         <v>0</v>
@@ -26552,13 +26552,13 @@
     </row>
     <row r="160" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A160" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B160" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C160" s="67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D160" s="72">
         <v>0</v>
@@ -26572,13 +26572,13 @@
     </row>
     <row r="161" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A161" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B161" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D161" s="72">
         <v>0</v>
@@ -26592,13 +26592,13 @@
     </row>
     <row r="162" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A162" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B162" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C162" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D162" s="72">
         <v>0</v>
@@ -26612,13 +26612,13 @@
     </row>
     <row r="163" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A163" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B163" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D163" s="72">
         <v>0</v>
@@ -26632,13 +26632,13 @@
     </row>
     <row r="164" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A164" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B164" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C164" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D164" s="72">
         <v>0</v>
@@ -26652,13 +26652,13 @@
     </row>
     <row r="165" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A165" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C165" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D165" s="72">
         <v>0</v>
@@ -26672,13 +26672,13 @@
     </row>
     <row r="166" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A166" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C166" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D166" s="72">
         <v>0</v>
@@ -26692,13 +26692,13 @@
     </row>
     <row r="167" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A167" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C167" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D167" s="72">
         <v>0</v>
@@ -26712,13 +26712,13 @@
     </row>
     <row r="168" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A168" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B168" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C168" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D168" s="72">
         <v>0</v>
@@ -26732,13 +26732,13 @@
     </row>
     <row r="169" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A169" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B169" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C169" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D169" s="72">
         <v>0</v>
@@ -26752,13 +26752,13 @@
     </row>
     <row r="170" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A170" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B170" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C170" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D170" s="72">
         <v>0</v>
@@ -26772,13 +26772,13 @@
     </row>
     <row r="171" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A171" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B171" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C171" s="71" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D171" s="72">
         <v>0</v>
@@ -26792,13 +26792,13 @@
     </row>
     <row r="172" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A172" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B172" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C172" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D172" s="72">
         <v>0</v>
@@ -26812,13 +26812,13 @@
     </row>
     <row r="173" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A173" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B173" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C173" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D173" s="72">
         <v>0</v>
@@ -26832,13 +26832,13 @@
     </row>
     <row r="174" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A174" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B174" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D174" s="72">
         <v>0</v>
@@ -26852,13 +26852,13 @@
     </row>
     <row r="175" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A175" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B175" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D175" s="72">
         <v>0</v>
@@ -26872,13 +26872,13 @@
     </row>
     <row r="176" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A176" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B176" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D176" s="72">
         <v>0</v>
@@ -26892,13 +26892,13 @@
     </row>
     <row r="177" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A177" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B177" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C177" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D177" s="72">
         <v>0</v>
@@ -26912,13 +26912,13 @@
     </row>
     <row r="178" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A178" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B178" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C178" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D178" s="72">
         <v>0</v>
@@ -26932,13 +26932,13 @@
     </row>
     <row r="179" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A179" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B179" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C179" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D179" s="72">
         <v>0</v>
@@ -26952,13 +26952,13 @@
     </row>
     <row r="180" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A180" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B180" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C180" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D180" s="72">
         <v>0</v>
@@ -26972,13 +26972,13 @@
     </row>
     <row r="181" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A181" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B181" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C181" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D181" s="72">
         <v>0</v>
@@ -26992,13 +26992,13 @@
     </row>
     <row r="182" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A182" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B182" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C182" s="71" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D182" s="72">
         <v>0</v>
@@ -27012,13 +27012,13 @@
     </row>
     <row r="183" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A183" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B183" s="67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C183" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D183" s="72">
         <v>0</v>
@@ -27032,13 +27032,13 @@
     </row>
     <row r="184" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A184" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B184" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C184" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D184" s="72">
         <v>0</v>
@@ -27052,13 +27052,13 @@
     </row>
     <row r="185" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A185" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B185" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C185" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D185" s="72">
         <v>0</v>
@@ -27072,13 +27072,13 @@
     </row>
     <row r="186" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A186" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B186" s="67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C186" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D186" s="72">
         <v>0</v>
@@ -27092,13 +27092,13 @@
     </row>
     <row r="187" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A187" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B187" s="67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C187" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D187" s="72">
         <v>0</v>
@@ -27112,13 +27112,13 @@
     </row>
     <row r="188" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A188" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B188" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C188" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D188" s="72">
         <v>0</v>
@@ -27132,13 +27132,13 @@
     </row>
     <row r="189" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A189" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B189" s="67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C189" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D189" s="72">
         <v>0</v>
@@ -27152,13 +27152,13 @@
     </row>
     <row r="190" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A190" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B190" s="67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C190" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D190" s="72">
         <v>0</v>
@@ -27172,13 +27172,13 @@
     </row>
     <row r="191" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A191" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B191" s="67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C191" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D191" s="72">
         <v>0</v>
@@ -27192,13 +27192,13 @@
     </row>
     <row r="192" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A192" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B192" s="67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C192" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D192" s="72">
         <v>0</v>
@@ -27212,13 +27212,13 @@
     </row>
     <row r="193" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A193" s="67" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B193" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C193" s="71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D193" s="72">
         <v>0</v>
@@ -27232,13 +27232,13 @@
     </row>
     <row r="194" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A194" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B194" s="79" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C194" s="79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D194" s="72">
         <v>0</v>
@@ -27252,13 +27252,13 @@
     </row>
     <row r="195" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A195" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B195" s="79" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C195" s="79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D195" s="72">
         <v>0</v>
@@ -27272,13 +27272,13 @@
     </row>
     <row r="196" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A196" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B196" s="79" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C196" s="79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D196" s="72">
         <v>0</v>
@@ -27292,13 +27292,13 @@
     </row>
     <row r="197" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A197" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B197" s="79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C197" s="79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D197" s="72">
         <v>0</v>
@@ -27312,13 +27312,13 @@
     </row>
     <row r="198" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A198" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B198" s="79" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C198" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D198" s="72">
         <v>0</v>
@@ -27332,13 +27332,13 @@
     </row>
     <row r="199" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A199" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B199" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C199" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D199" s="72">
         <v>0</v>
@@ -27352,13 +27352,13 @@
     </row>
     <row r="200" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A200" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B200" s="79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C200" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D200" s="72">
         <v>0</v>
@@ -27372,13 +27372,13 @@
     </row>
     <row r="201" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A201" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B201" s="79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C201" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D201" s="72">
         <v>0</v>
@@ -27392,13 +27392,13 @@
     </row>
     <row r="202" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A202" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B202" s="79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C202" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D202" s="72">
         <v>0</v>
@@ -27412,13 +27412,13 @@
     </row>
     <row r="203" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A203" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B203" s="79" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C203" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D203" s="72">
         <v>0</v>
@@ -27432,13 +27432,13 @@
     </row>
     <row r="204" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A204" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B204" s="79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C204" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D204" s="72">
         <v>0</v>
@@ -27452,13 +27452,13 @@
     </row>
     <row r="205" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A205" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B205" s="79" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C205" s="79" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D205" s="72">
         <v>0</v>
@@ -27472,13 +27472,13 @@
     </row>
     <row r="206" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="80" t="s">
+        <v>617</v>
+      </c>
+      <c r="B206" s="99" t="s">
         <v>618</v>
       </c>
-      <c r="B206" s="99" t="s">
-        <v>619</v>
-      </c>
       <c r="C206" s="80" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D206" s="101">
         <v>0</v>
@@ -27492,13 +27492,13 @@
     </row>
     <row r="207" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B207" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C207" s="80" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D207" s="102">
         <v>0</v>
@@ -27541,42 +27541,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>535</v>
-      </c>
       <c r="C1" s="83" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>598</v>
+      </c>
+      <c r="H1" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1" s="68" t="s">
+        <v>596</v>
+      </c>
+      <c r="J1" s="83" t="s">
         <v>415</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>594</v>
-      </c>
-      <c r="F1" s="68" t="s">
-        <v>598</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>599</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>596</v>
-      </c>
-      <c r="I1" s="68" t="s">
-        <v>597</v>
-      </c>
-      <c r="J1" s="83" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A2" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C2" s="90">
         <v>1</v>
@@ -27605,10 +27605,10 @@
     </row>
     <row r="3" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A3" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="90">
         <v>2</v>
@@ -27637,10 +27637,10 @@
     </row>
     <row r="4" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A4" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" s="90">
         <v>3</v>
@@ -27669,10 +27669,10 @@
     </row>
     <row r="5" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A5" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C5" s="90">
         <v>1</v>
@@ -27701,10 +27701,10 @@
     </row>
     <row r="6" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A6" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="90">
         <v>2</v>
@@ -27733,10 +27733,10 @@
     </row>
     <row r="7" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A7" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C7" s="90">
         <v>3</v>
@@ -27765,10 +27765,10 @@
     </row>
     <row r="8" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A8" s="82" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="90">
         <v>4</v>
@@ -27797,10 +27797,10 @@
     </row>
     <row r="9" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" s="91">
         <v>0</v>
@@ -27830,10 +27830,10 @@
     </row>
     <row r="10" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A10" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C10" s="91">
         <v>0</v>
@@ -27863,10 +27863,10 @@
     </row>
     <row r="11" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A11" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B11" s="82" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C11" s="91">
         <v>0</v>
@@ -27896,10 +27896,10 @@
     </row>
     <row r="12" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A12" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C12" s="91">
         <v>0</v>
@@ -27929,10 +27929,10 @@
     </row>
     <row r="13" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A13" s="82" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B13" s="82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C13" s="91">
         <v>0</v>
@@ -27962,10 +27962,10 @@
     </row>
     <row r="14" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A14" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C14" s="91">
         <v>0</v>
@@ -27994,10 +27994,10 @@
     </row>
     <row r="15" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A15" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C15" s="91">
         <v>0</v>
@@ -28026,10 +28026,10 @@
     </row>
     <row r="16" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
       <c r="A16" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C16" s="91">
         <v>0</v>
@@ -28058,10 +28058,10 @@
     </row>
     <row r="17" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A17" s="84" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C17" s="91">
         <v>0</v>
@@ -28090,10 +28090,10 @@
     </row>
     <row r="18" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A18" s="79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C18" s="91">
         <v>0</v>
@@ -28122,10 +28122,10 @@
     </row>
     <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A19" s="79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C19" s="91">
         <v>0</v>
@@ -28154,10 +28154,10 @@
     </row>
     <row r="20" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A20" s="80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C20" s="91">
         <v>0</v>
@@ -28186,10 +28186,10 @@
     </row>
     <row r="21" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A21" s="80" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C21" s="91">
         <v>0</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BDDCD0-F8F1-48E0-84F8-3EDB00EDC018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD426C-7344-467E-8CE1-6696BAB27E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" firstSheet="1" activeTab="3" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="637">
   <si>
     <t>Артикул</t>
   </si>
@@ -1927,6 +1927,48 @@
   </si>
   <si>
     <t>case_1: ((actual_height - nisha_height - 720 - 11) &gt;= 960 and (actual_height - nisha_height - 720 - 11) &lt;= 1499)</t>
+  </si>
+  <si>
+    <t>height_fas = (height - 4)  width_fas =  (width - 4)</t>
+  </si>
+  <si>
+    <t>Количество_фасадов</t>
+  </si>
+  <si>
+    <t>Размеры 4 фасада</t>
+  </si>
+  <si>
+    <t>Размеры 3 фасада</t>
+  </si>
+  <si>
+    <t>Размеры 2 фасада</t>
+  </si>
+  <si>
+    <t>Размеры 1 фасада</t>
+  </si>
+  <si>
+    <t>height_fas = (height - 4)  width_fas =  (width - 354)</t>
+  </si>
+  <si>
+    <t>height_fas = (height - 4)  width_fas =  (width - 454)</t>
+  </si>
+  <si>
+    <t>height_fas =176  width_fas =  (width - 4)</t>
+  </si>
+  <si>
+    <t>height_fas =(height - 180)  width_fas =  (width - 4)</t>
+  </si>
+  <si>
+    <t>height_fas =(height - 180)  width_fas =  (width/2 - 4)</t>
+  </si>
+  <si>
+    <t>height_fas =356  width_fas =  (width - 4)</t>
+  </si>
+  <si>
+    <t>height_fas =116  width_fas =  (width - 4)</t>
+  </si>
+  <si>
+    <t>height_fas = (height - 4)  width_fas =  (width +66)</t>
   </si>
 </sst>
 </file>
@@ -2484,7 +2526,62 @@
     <cellStyle name="Процентный" xfId="6" builtinId="5"/>
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{702D37C1-FD0B-45E0-8955-AA0F39D7F389}"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3360,16 +3457,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3984,105 +4071,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AI74" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="A1:AI74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
-  <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="61"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="60"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="51"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="50"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="49"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="48"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="47"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="46"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="45"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="43"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="42"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="41"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="34"/>
-    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="33"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="32"/>
-    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="31"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="30"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AN74" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:AN74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="67"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="66"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="56"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="55"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="54"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="53"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="52"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="51"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="49"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="48"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="47"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="42"/>
+    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="40"/>
+    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="39"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="38"/>
+    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="37"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="36"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="35"/>
+    <tableColumn id="25" xr3:uid="{FD179656-71C1-482E-B61E-EFA168DD7AF3}" name="Количество_фасадов" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{9B2D5432-F2F8-42CF-AD19-13AFD40B18A0}" name="Размеры 1 фасада" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{0C593AC3-4CB4-499B-84B3-A816E55F2BF9}" name="Размеры 2 фасада" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{8AA2B4C6-98E1-4476-A469-E8E73682F5DF}" name="Размеры 3 фасада" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{F206699E-D4B7-4C7E-B32E-6C3C75F76386}" name="Размеры 4 фасада" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A1:G192" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="27" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="26" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="33" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="32" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:I229" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="18" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="17" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="16" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="24" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="23" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="22" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:B12" xr:uid="{AB78FFAA-4D60-419F-9D9A-15685CF12B1B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4386,11 +4478,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7343B05B-A5FF-4B67-8659-2E8CE8386EC3}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:AP141"/>
+  <dimension ref="A1:AQ141"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC71" sqref="AC71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4409,16 +4501,16 @@
     <col min="31" max="31" width="35.3828125" style="29" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="45.69140625" style="25" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="45.69140625" style="20" customWidth="1"/>
-    <col min="35" max="35" width="20.69140625" style="20" customWidth="1"/>
-    <col min="36" max="36" width="19.3046875" style="20" customWidth="1"/>
-    <col min="37" max="38" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.84375" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.84375" style="20" customWidth="1"/>
-    <col min="41" max="41" width="14.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.15234375" style="20"/>
+    <col min="35" max="36" width="20.69140625" style="20" customWidth="1"/>
+    <col min="37" max="37" width="42.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="44.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.84375" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.84375" style="20" customWidth="1"/>
+    <col min="42" max="42" width="14.15234375" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.15234375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4524,8 +4616,23 @@
       <c r="AI1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -4624,8 +4731,23 @@
       <c r="AI2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -4724,8 +4846,23 @@
       <c r="AI3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -4824,8 +4961,23 @@
       <c r="AI4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>328</v>
       </c>
@@ -4926,8 +5078,23 @@
       <c r="AI5" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AJ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>76</v>
       </c>
@@ -5026,8 +5193,23 @@
       <c r="AI6" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -5126,8 +5308,23 @@
       <c r="AI7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ7" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>82</v>
       </c>
@@ -5226,8 +5423,23 @@
       <c r="AI8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -5326,8 +5538,23 @@
       <c r="AI9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
@@ -5426,8 +5653,23 @@
       <c r="AI10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -5526,8 +5768,23 @@
       <c r="AI11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
@@ -5626,8 +5883,23 @@
       <c r="AI12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL12" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>94</v>
       </c>
@@ -5726,8 +5998,23 @@
       <c r="AI13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ13" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL13" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM13" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -5826,8 +6113,23 @@
       <c r="AI14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL14" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AM14" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -5926,8 +6228,23 @@
       <c r="AI15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ15" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -6026,8 +6343,23 @@
       <c r="AI16" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AL16" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>102</v>
       </c>
@@ -6125,8 +6457,23 @@
       <c r="AI17" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ17" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AL17" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM17" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -6225,8 +6572,23 @@
       <c r="AI18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
@@ -6324,8 +6686,23 @@
       <c r="AI19" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="AL19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>111</v>
       </c>
@@ -6424,8 +6801,23 @@
       <c r="AI20" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
@@ -6524,8 +6916,23 @@
       <c r="AI21" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>116</v>
       </c>
@@ -6624,8 +7031,23 @@
       <c r="AI22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
@@ -6724,8 +7146,23 @@
       <c r="AI23" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ23" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
         <v>120</v>
       </c>
@@ -6824,8 +7261,23 @@
       <c r="AI24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>122</v>
       </c>
@@ -6924,8 +7376,23 @@
       <c r="AI25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ25" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>329</v>
       </c>
@@ -7026,8 +7493,23 @@
       <c r="AI26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
@@ -7126,8 +7608,23 @@
       <c r="AI27" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ27" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="13" t="s">
         <v>127</v>
       </c>
@@ -7226,8 +7723,23 @@
       <c r="AI28" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
         <v>129</v>
       </c>
@@ -7325,8 +7837,23 @@
       <c r="AI29" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13" t="s">
         <v>131</v>
       </c>
@@ -7424,8 +7951,23 @@
       <c r="AI30" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
         <v>133</v>
       </c>
@@ -7523,8 +8065,23 @@
       <c r="AI31" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="14" t="s">
         <v>136</v>
       </c>
@@ -7623,8 +8180,23 @@
       <c r="AI32" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="14" t="s">
         <v>139</v>
       </c>
@@ -7723,8 +8295,23 @@
       <c r="AI33" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="14" t="s">
         <v>141</v>
       </c>
@@ -7823,8 +8410,23 @@
       <c r="AI34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -7923,8 +8525,23 @@
       <c r="AI35" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="14" t="s">
         <v>147</v>
       </c>
@@ -8022,8 +8639,23 @@
       <c r="AI36" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ36" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14" t="s">
         <v>149</v>
       </c>
@@ -8122,8 +8754,23 @@
       <c r="AI37" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ37" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="14" t="s">
         <v>151</v>
       </c>
@@ -8222,8 +8869,23 @@
       <c r="AI38" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>153</v>
       </c>
@@ -8321,8 +8983,23 @@
       <c r="AI39" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="40" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ39" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="15" t="s">
         <v>155</v>
       </c>
@@ -8421,8 +9098,23 @@
       <c r="AI40" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
         <v>158</v>
       </c>
@@ -8521,8 +9213,23 @@
       <c r="AI41" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ41" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>160</v>
       </c>
@@ -8620,8 +9327,23 @@
       <c r="AI42" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ42" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14" t="s">
         <v>315</v>
       </c>
@@ -8722,8 +9444,23 @@
       <c r="AI43" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ43" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14" t="s">
         <v>322</v>
       </c>
@@ -8824,8 +9561,23 @@
       <c r="AI44" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ44" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14" t="s">
         <v>325</v>
       </c>
@@ -8926,8 +9678,23 @@
       <c r="AI45" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ45" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16" t="s">
         <v>326</v>
       </c>
@@ -9028,8 +9795,23 @@
       <c r="AI46" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ46" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="14" t="s">
         <v>167</v>
       </c>
@@ -9128,8 +9910,23 @@
       <c r="AI47" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ47" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>169</v>
       </c>
@@ -9230,8 +10027,23 @@
       <c r="AI48" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ48" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14" t="s">
         <v>171</v>
       </c>
@@ -9332,8 +10144,23 @@
       <c r="AI49" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="50" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ49" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14" t="s">
         <v>173</v>
       </c>
@@ -9434,8 +10261,23 @@
       <c r="AI50" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ50" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
         <v>175</v>
       </c>
@@ -9536,8 +10378,23 @@
       <c r="AI51" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ51" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>133</v>
       </c>
@@ -9635,8 +10492,23 @@
       <c r="AI52" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ52" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="15" t="s">
         <v>178</v>
       </c>
@@ -9735,8 +10607,23 @@
       <c r="AI53" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ53" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="14" t="s">
         <v>180</v>
       </c>
@@ -9835,8 +10722,23 @@
       <c r="AI54" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>183</v>
       </c>
@@ -9935,8 +10837,23 @@
       <c r="AI55" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ55" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14" t="s">
         <v>310</v>
       </c>
@@ -10039,8 +10956,23 @@
       <c r="AI56" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ56" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="17" t="s">
         <v>187</v>
       </c>
@@ -10139,8 +11071,23 @@
       <c r="AI57" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ57" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14" t="s">
         <v>189</v>
       </c>
@@ -10237,8 +11184,23 @@
       <c r="AI58" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ58" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="14" t="s">
         <v>191</v>
       </c>
@@ -10335,8 +11297,23 @@
       <c r="AI59" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ59" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
         <v>193</v>
       </c>
@@ -10435,8 +11412,23 @@
       <c r="AI60" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ60" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="14" t="s">
         <v>196</v>
       </c>
@@ -10535,8 +11527,23 @@
       <c r="AI61" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ61" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="18" t="s">
         <v>198</v>
       </c>
@@ -10635,8 +11642,23 @@
       <c r="AI62" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AJ62" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14" t="s">
         <v>200</v>
       </c>
@@ -10735,8 +11757,23 @@
       <c r="AI63" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ63" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK63" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="14" t="s">
         <v>311</v>
       </c>
@@ -10839,8 +11876,23 @@
       <c r="AI64" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ64" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="14" t="s">
         <v>312</v>
       </c>
@@ -10943,8 +11995,23 @@
       <c r="AI65" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ65" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="14" t="s">
         <v>313</v>
       </c>
@@ -11047,8 +12114,23 @@
       <c r="AI66" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ66" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK66" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="14" t="s">
         <v>206</v>
       </c>
@@ -11149,8 +12231,23 @@
       <c r="AI67" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ67" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="14" t="s">
         <v>208</v>
       </c>
@@ -11249,8 +12346,23 @@
       <c r="AI68" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ68" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK68" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="19" t="s">
         <v>210</v>
       </c>
@@ -11349,8 +12461,23 @@
       <c r="AI69" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="70" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ69" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19" t="s">
         <v>213</v>
       </c>
@@ -11449,8 +12576,23 @@
       <c r="AI70" s="8">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ70" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM70" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="19" t="s">
         <v>215</v>
       </c>
@@ -11549,8 +12691,23 @@
       <c r="AI71" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ71" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="19" t="s">
         <v>217</v>
       </c>
@@ -11649,8 +12806,23 @@
       <c r="AI72" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ72" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="13" t="s">
         <v>219</v>
       </c>
@@ -11751,8 +12923,23 @@
       <c r="AI73" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ73" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="13" t="s">
         <v>221</v>
       </c>
@@ -11853,8 +13040,23 @@
       <c r="AI74" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ74" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -11879,7 +13081,7 @@
       <c r="AE75" s="29"/>
       <c r="AF75" s="25"/>
     </row>
-    <row r="76" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -11908,7 +13110,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M2:N74">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15001,7 +16203,7 @@
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B199" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Documents\GitHub\calc_kitchen_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kitchen_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD426C-7344-467E-8CE1-6696BAB27E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9299A47-13F1-40B5-A5E0-020B2A6B94B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38627D7D-736F-4D1A-9ABD-DADB48A4DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="2" r:id="rId1"/>
@@ -47,10 +47,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2529,61 +2526,6 @@
   <dxfs count="72">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2948,6 +2890,51 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3456,6 +3443,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4071,110 +4068,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AN74" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAD99A53-3DAF-42B4-9642-575EE721CDC8}" name="Прайс" displayName="Прайс" ref="A1:AN74" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A1:AN74" xr:uid="{B6A411DD-54E4-4F8A-8614-345EC598C3AB}"/>
   <tableColumns count="40">
-    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="67"/>
-    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="60"/>
-    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="59"/>
-    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="56"/>
-    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="55"/>
-    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="54"/>
-    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="53"/>
-    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="52"/>
-    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="51"/>
-    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="49"/>
-    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="48"/>
-    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="47"/>
-    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="43"/>
-    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="42"/>
-    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="41"/>
-    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="40"/>
-    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="39"/>
-    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="37"/>
-    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="36"/>
-    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="35"/>
-    <tableColumn id="25" xr3:uid="{FD179656-71C1-482E-B61E-EFA168DD7AF3}" name="Количество_фасадов" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{9B2D5432-F2F8-42CF-AD19-13AFD40B18A0}" name="Размеры 1 фасада" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{0C593AC3-4CB4-499B-84B3-A816E55F2BF9}" name="Размеры 2 фасада" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{8AA2B4C6-98E1-4476-A469-E8E73682F5DF}" name="Размеры 3 фасада" dataDxfId="2"/>
-    <tableColumn id="28" xr3:uid="{F206699E-D4B7-4C7E-B32E-6C3C75F76386}" name="Размеры 4 фасада" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4F8856EA-AFEC-478D-B545-3D28E9B808CB}" name="Артикул" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{BEF401B1-37D1-41E4-AAF7-3A084D127422}" name="Тип" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{50E408EE-2C02-4A80-8F13-EECDD5646C8E}" name="Варианты_наполнения" dataDxfId="66"/>
+    <tableColumn id="16" xr3:uid="{177D320A-EF66-4D00-B844-1726363AEB1C}" name="Вид_модуля" dataDxfId="65"/>
+    <tableColumn id="15" xr3:uid="{47476BC9-5BE4-4FDF-93D5-45BC8B589BB9}" name="Профиль_Gola" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{9A09997E-0B4A-43C2-AAE4-DBA22A351A04}" name="Признаки_для_фильтров" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{4B61EC30-43A5-4A37-8075-C43BE48C26A0}" name="Высота_min" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{FD0E9A0B-3A07-4A00-9FB2-83E7D23FF743}" name="Высота_max" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{981BA99F-25FC-4C44-916D-C9A30FA51329}" name="Ширина_min" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{69539F65-205A-44D1-8A50-E314A57CC84F}" name="Ширина_max" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{365068AA-90B1-4232-995A-2D78D8DA43CA}" name="Глубина_min" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{A3703BF6-3D07-42B4-B6BE-A14DC951D34D}" name="Глубина_max" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{2D3A333C-B164-4A3E-BDA7-63CA8B32CB56}" name="Базовая_цена" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{29240A1F-8A2D-4D3B-B0EC-91208FF7C1AC}" name="Базовая_цена_цветной_корпус" dataDxfId="55"/>
+    <tableColumn id="99" xr3:uid="{A3C031D4-355B-4D00-85A3-066E9FC1E064}" name="Базовая_высота" dataDxfId="54"/>
+    <tableColumn id="98" xr3:uid="{DE410C3F-FD58-42E6-960B-0F268C155E29}" name="Базовая_ширина" dataDxfId="53"/>
+    <tableColumn id="97" xr3:uid="{058D6ADC-5915-4922-BFE7-FDDAAF34EBC0}" name="Базовая_глубина" dataDxfId="52"/>
+    <tableColumn id="96" xr3:uid="{F1674E16-B13B-48AD-9568-12568BAE967C}" name="Коэфф.высота" dataDxfId="51"/>
+    <tableColumn id="95" xr3:uid="{E880B5F2-4A08-4E4A-B682-E39354E07835}" name="Коэфф.ширина" dataDxfId="50"/>
+    <tableColumn id="83" xr3:uid="{70466367-BC8B-49A6-9ACE-0BEC11E8D001}" name="Коэфф.глубина" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{20F073B8-1100-4D33-8B85-E27E3327E95D}" name="Настраиваемая_ниша" dataDxfId="48"/>
+    <tableColumn id="70" xr3:uid="{9F8C0302-EDFB-4F66-B3B4-A70A637F82EE}" name="Профиль_Gola_для_подвесных_шкафов_алюм.16_мм" dataDxfId="47"/>
+    <tableColumn id="74" xr3:uid="{836B66F8-B7DF-4EC6-B406-76D5756E8B6D}" name="Полки_min,шт." dataDxfId="46"/>
+    <tableColumn id="75" xr3:uid="{50988234-B6A7-4D23-8A34-BB689FE15098}" name="Полки_max,шт." dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{43058056-3995-4335-92CE-86D5912F2985}" name="Полки_по_умолчанию" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{DE6FE596-49A6-4E69-B36F-9F95DFF1B59F}" name="Доступ_к_стеклянным_полкам" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{AD825195-C800-405B-ABFD-7E444ADEB0CE}" name="Формула_расчета_полок" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{56CF9F61-19F7-47E3-9801-40655631DD95}" name="Размеры_ниши_по_умолчанию" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{9AE947A4-3F1B-48F6-98CF-97105D8B1FED}" name="Доступные_ширины_по_умолчанию" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{1E501A88-377D-43EC-8B0F-C4D94C3BDFC9}" name="Формула_расчета_стеклянных_полок" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{F03CD1B2-90C0-41E8-BE49-C5583915FCAF}" name="Формула_расчета_фасадов" dataDxfId="38"/>
+    <tableColumn id="84" xr3:uid="{6D6D4D86-D41F-4C0A-A160-933BB64BFB63}" name="Кол-во фасадов" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{FA12C39A-2C51-40E2-9BBF-8F8B39035213}" name="Tip-on" dataDxfId="36"/>
+    <tableColumn id="94" xr3:uid="{8C35DE26-2BF9-4151-9A05-E2AB0919AD4D}" name="Наличие подсветки на нижнем горизонте" dataDxfId="35"/>
+    <tableColumn id="93" xr3:uid="{D05D017A-1E3B-4F56-9425-9AD3F982BAA2}" name="профиль рассеиватель HLBL" dataDxfId="34"/>
+    <tableColumn id="25" xr3:uid="{FD179656-71C1-482E-B61E-EFA168DD7AF3}" name="Количество_фасадов" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{9B2D5432-F2F8-42CF-AD19-13AFD40B18A0}" name="Размеры 1 фасада" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{0C593AC3-4CB4-499B-84B3-A816E55F2BF9}" name="Размеры 2 фасада" dataDxfId="31"/>
+    <tableColumn id="27" xr3:uid="{8AA2B4C6-98E1-4476-A469-E8E73682F5DF}" name="Размеры 3 фасада" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{F206699E-D4B7-4C7E-B32E-6C3C75F76386}" name="Размеры 4 фасада" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97836E88-6B36-49E8-ADE3-50DD8E2F47CF}" name="kf_korp" displayName="kf_korp" ref="A1:G192" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A1:G192" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="33" dataCellStyle="Обычный 5"/>
-    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="32" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{2FAD823B-74F8-4EF5-A803-FC6DB323BD63}" name="name_module" dataDxfId="27" dataCellStyle="Обычный 5"/>
+    <tableColumn id="7" xr3:uid="{E2AC7B38-C88A-43D0-9364-4B9D4A2AFE99}" name="id_furn" dataDxfId="26" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kf_korp[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6A9D9FC6-5088-4B02-92FA-14028B8B7A6F}" name="name_furn" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{BDF9712C-E250-4A0C-9E72-9DE1F41A0A64}" name="quanity" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{50F407F5-4B28-4DDF-91A4-6D5EBCA16C54}" name="condition" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{A3F1A53D-401C-4752-A3D9-940027FB44E4}" name="name_furn_changed" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{C85AE6AD-EC2A-496F-83CF-7A65E23B6D33}" name="changed_quantity" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A60E23B7-88E0-4458-B93E-087F5FF660B5}" name="kompl" displayName="kompl" ref="A1:I229" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:I229" xr:uid="{812204A0-4971-4F08-8D21-63E1605773EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="24" dataCellStyle="Обычный 5"/>
-    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="23" dataCellStyle="Обычный 5"/>
-    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="22" dataCellStyle="Обычный 5">
+    <tableColumn id="1" xr3:uid="{0DB33535-AF68-4EA6-B3F1-27AA313DFD03}" name="name_module" dataDxfId="18" dataCellStyle="Обычный 5"/>
+    <tableColumn id="5" xr3:uid="{82B074E5-97B7-4974-8E64-3EB7A6B2B01C}" name="number_kompl" dataDxfId="17" dataCellStyle="Обычный 5"/>
+    <tableColumn id="11" xr3:uid="{A59C3EAD-D296-498B-9F90-B67702DA4396}" name="id_furn" dataDxfId="16" dataCellStyle="Обычный 5">
       <calculatedColumnFormula>VLOOKUP(kompl[[#This Row],[name_furn]],furn[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{028965F0-6F38-4B70-B780-AB9892775797}" name="name_furn" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{08EAB364-744B-4ED6-92B9-B9C1EE8D0270}" name="quanity" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{FCAF2D24-69A2-440E-ABEF-C810DCAD1DCB}" name="condition" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{872F58E9-D63B-45FF-9CCC-DA38EC916010}" name="name_furn_changed" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{DD9FB63B-8364-4A84-9D9B-914E9CE2EBCE}" name="changed_quantity" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CC028AB6-5C97-4D65-9D64-51065BD7CE28}" name="changed_quantity_case_2" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7532D65B-75E3-411F-A5EC-4666AFD672D4}" name="furn" displayName="furn" ref="A1:C54" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C54" xr:uid="{09B5EAE4-9935-4C25-8056-464E52C379E3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{3BF26646-A609-48BA-AFF9-F465C21D6735}" name="name_furn" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{25079F83-8FAA-4136-B94C-E5B885B55C1B}" name="price" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1E9574CA-5DA5-4F1C-98BD-6AB361EC683E}" name="id_furn" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1147B984-7E1E-4C19-9EBE-C2FC1D5F3754}" name="Цвета_Softline_Marine" displayName="Цвета_Softline_Marine" ref="A1:B12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:B12" xr:uid="{AB78FFAA-4D60-419F-9D9A-15685CF12B1B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{BD0FD1DB-D895-4C35-80DA-F2675B35B9EE}" name="Цвета" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{12AF8379-5CF0-4A15-B62F-800A34E20A1D}" name="Категория" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4481,36 +4478,36 @@
   <dimension ref="A1:AQ141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF14" sqref="AF14"/>
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.3046875" style="8" customWidth="1"/>
-    <col min="3" max="5" width="15.69140625" style="8" customWidth="1"/>
-    <col min="6" max="11" width="15.69140625" style="20" customWidth="1"/>
-    <col min="12" max="19" width="15.69140625" style="7" customWidth="1"/>
-    <col min="20" max="21" width="19.15234375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="23.53515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.84375" style="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="28.15234375" style="29" customWidth="1"/>
-    <col min="27" max="27" width="43.84375" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="43.84375" style="29" customWidth="1"/>
-    <col min="31" max="31" width="35.3828125" style="29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="45.69140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="45.69140625" style="20" customWidth="1"/>
-    <col min="35" max="36" width="20.69140625" style="20" customWidth="1"/>
-    <col min="37" max="37" width="42.84375" style="20" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="44.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.84375" style="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.84375" style="20" customWidth="1"/>
-    <col min="42" max="42" width="14.15234375" style="20" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.15234375" style="20"/>
+    <col min="1" max="1" width="18.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" style="8" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" style="8" customWidth="1"/>
+    <col min="6" max="11" width="15.7109375" style="20" customWidth="1"/>
+    <col min="12" max="19" width="15.7109375" style="7" customWidth="1"/>
+    <col min="20" max="21" width="19.140625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="28.140625" style="29" customWidth="1"/>
+    <col min="27" max="27" width="43.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="43.85546875" style="29" customWidth="1"/>
+    <col min="31" max="31" width="35.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="45.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="45.7109375" style="20" customWidth="1"/>
+    <col min="35" max="36" width="20.7109375" style="20" customWidth="1"/>
+    <col min="37" max="37" width="42.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="44.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.85546875" style="20" customWidth="1"/>
+    <col min="42" max="42" width="14.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" s="23" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4632,7 +4629,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>69</v>
       </c>
@@ -4862,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
@@ -4977,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>328</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>76</v>
       </c>
@@ -5209,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>80</v>
       </c>
@@ -5324,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>82</v>
       </c>
@@ -5439,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>85</v>
       </c>
@@ -5554,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>87</v>
       </c>
@@ -5669,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>89</v>
       </c>
@@ -5784,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>91</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>94</v>
       </c>
@@ -6014,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>96</v>
       </c>
@@ -6129,7 +6126,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -6359,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>102</v>
       </c>
@@ -6473,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -6588,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>108</v>
       </c>
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>111</v>
       </c>
@@ -6817,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
@@ -6932,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>116</v>
       </c>
@@ -7047,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>118</v>
       </c>
@@ -7162,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>120</v>
       </c>
@@ -7277,7 +7274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>122</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>329</v>
       </c>
@@ -7509,7 +7506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
@@ -7624,7 +7621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>127</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>129</v>
       </c>
@@ -7853,7 +7850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>131</v>
       </c>
@@ -7967,7 +7964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>133</v>
       </c>
@@ -8081,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>136</v>
       </c>
@@ -8196,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>139</v>
       </c>
@@ -8311,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>141</v>
       </c>
@@ -8426,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>144</v>
       </c>
@@ -8541,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>147</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>149</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>151</v>
       </c>
@@ -8885,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>153</v>
       </c>
@@ -8999,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>155</v>
       </c>
@@ -9114,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>158</v>
       </c>
@@ -9229,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>160</v>
       </c>
@@ -9343,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>315</v>
       </c>
@@ -9460,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>322</v>
       </c>
@@ -9577,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>325</v>
       </c>
@@ -9694,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>326</v>
       </c>
@@ -9811,7 +9808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>167</v>
       </c>
@@ -9926,7 +9923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>169</v>
       </c>
@@ -10043,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>171</v>
       </c>
@@ -10160,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>173</v>
       </c>
@@ -10277,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>175</v>
       </c>
@@ -10394,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>133</v>
       </c>
@@ -10508,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>178</v>
       </c>
@@ -10623,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>180</v>
       </c>
@@ -10738,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>183</v>
       </c>
@@ -10853,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>310</v>
       </c>
@@ -10972,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>187</v>
       </c>
@@ -11087,7 +11084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>189</v>
       </c>
@@ -11200,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:40" s="20" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>191</v>
       </c>
@@ -11313,7 +11310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>193</v>
       </c>
@@ -11428,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>196</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>198</v>
       </c>
@@ -11658,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:40" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>200</v>
       </c>
@@ -11773,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>311</v>
       </c>
@@ -11892,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>312</v>
       </c>
@@ -12011,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>313</v>
       </c>
@@ -12130,7 +12127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>206</v>
       </c>
@@ -12247,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>208</v>
       </c>
@@ -12362,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>210</v>
       </c>
@@ -12477,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>213</v>
       </c>
@@ -12592,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>215</v>
       </c>
@@ -12707,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>217</v>
       </c>
@@ -12822,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>219</v>
       </c>
@@ -12939,7 +12936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>221</v>
       </c>
@@ -13056,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -13081,7 +13078,7 @@
       <c r="AE75" s="29"/>
       <c r="AF75" s="25"/>
     </row>
-    <row r="76" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -13106,11 +13103,11 @@
       <c r="AE76" s="29"/>
       <c r="AF76" s="25"/>
     </row>
-    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M2:N74">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13130,12 +13127,12 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>613</v>
       </c>
@@ -13143,7 +13140,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>615</v>
       </c>
@@ -13151,7 +13148,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>607</v>
       </c>
@@ -13159,7 +13156,7 @@
         <v>4033</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>616</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>608</v>
       </c>
@@ -13175,7 +13172,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>609</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>610</v>
       </c>
@@ -13191,7 +13188,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>611</v>
       </c>
@@ -13199,7 +13196,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>612</v>
       </c>
@@ -13221,12 +13218,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>250</v>
       </c>
@@ -13234,7 +13231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>258</v>
       </c>
@@ -13242,7 +13239,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>259</v>
       </c>
@@ -13264,17 +13261,17 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.84375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>223</v>
       </c>
@@ -13297,7 +13294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
@@ -13312,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>69</v>
       </c>
@@ -13342,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>69</v>
       </c>
@@ -13357,7 +13354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>72</v>
       </c>
@@ -13372,7 +13369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>72</v>
       </c>
@@ -13387,7 +13384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>328</v>
       </c>
@@ -13402,7 +13399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>328</v>
       </c>
@@ -13417,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -13432,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>80</v>
       </c>
@@ -13462,7 +13459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>80</v>
       </c>
@@ -13477,7 +13474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>82</v>
       </c>
@@ -13492,7 +13489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
@@ -13507,7 +13504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>82</v>
       </c>
@@ -13522,7 +13519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>82</v>
       </c>
@@ -13537,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
@@ -13552,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -13567,7 +13564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -13582,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -13597,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>87</v>
       </c>
@@ -13612,7 +13609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
@@ -13627,7 +13624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>87</v>
       </c>
@@ -13642,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>89</v>
       </c>
@@ -13657,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>89</v>
       </c>
@@ -13672,7 +13669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>89</v>
       </c>
@@ -13696,7 +13693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>91</v>
       </c>
@@ -13711,7 +13708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>91</v>
       </c>
@@ -13726,7 +13723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>94</v>
       </c>
@@ -13741,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
@@ -13756,7 +13753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>96</v>
       </c>
@@ -13771,7 +13768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -13786,7 +13783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>98</v>
       </c>
@@ -13801,7 +13798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>98</v>
       </c>
@@ -13816,7 +13813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>100</v>
       </c>
@@ -13831,7 +13828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>100</v>
       </c>
@@ -13846,7 +13843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>102</v>
       </c>
@@ -13861,7 +13858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>102</v>
       </c>
@@ -13876,7 +13873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
@@ -13891,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -13906,7 +13903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -13921,7 +13918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -13936,7 +13933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>111</v>
       </c>
@@ -13951,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>111</v>
       </c>
@@ -13966,7 +13963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>114</v>
       </c>
@@ -13981,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>114</v>
       </c>
@@ -13996,7 +13993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>116</v>
       </c>
@@ -14011,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>116</v>
       </c>
@@ -14026,7 +14023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>116</v>
       </c>
@@ -14041,7 +14038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>118</v>
       </c>
@@ -14056,7 +14053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>118</v>
       </c>
@@ -14071,7 +14068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>120</v>
       </c>
@@ -14086,7 +14083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>120</v>
       </c>
@@ -14101,7 +14098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>120</v>
       </c>
@@ -14116,7 +14113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>122</v>
       </c>
@@ -14131,7 +14128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>122</v>
       </c>
@@ -14146,7 +14143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>122</v>
       </c>
@@ -14161,7 +14158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>329</v>
       </c>
@@ -14176,7 +14173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>329</v>
       </c>
@@ -14191,7 +14188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>329</v>
       </c>
@@ -14206,7 +14203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>125</v>
       </c>
@@ -14221,7 +14218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>125</v>
       </c>
@@ -14236,7 +14233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>125</v>
       </c>
@@ -14251,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>127</v>
       </c>
@@ -14266,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>127</v>
       </c>
@@ -14281,7 +14278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>127</v>
       </c>
@@ -14296,7 +14293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>129</v>
       </c>
@@ -14311,7 +14308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>129</v>
       </c>
@@ -14326,7 +14323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>129</v>
       </c>
@@ -14341,7 +14338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>129</v>
       </c>
@@ -14356,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>131</v>
       </c>
@@ -14371,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>131</v>
       </c>
@@ -14386,7 +14383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>131</v>
       </c>
@@ -14401,7 +14398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>131</v>
       </c>
@@ -14416,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>133</v>
       </c>
@@ -14431,7 +14428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>136</v>
       </c>
@@ -14446,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>136</v>
       </c>
@@ -14461,7 +14458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>136</v>
       </c>
@@ -14476,7 +14473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>139</v>
       </c>
@@ -14491,7 +14488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>139</v>
       </c>
@@ -14506,7 +14503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>139</v>
       </c>
@@ -14521,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>141</v>
       </c>
@@ -14536,7 +14533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>141</v>
       </c>
@@ -14551,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>141</v>
       </c>
@@ -14566,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>144</v>
       </c>
@@ -14581,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>144</v>
       </c>
@@ -14596,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>144</v>
       </c>
@@ -14611,7 +14608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>147</v>
       </c>
@@ -14626,7 +14623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>147</v>
       </c>
@@ -14641,7 +14638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>147</v>
       </c>
@@ -14656,7 +14653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>149</v>
       </c>
@@ -14671,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>149</v>
       </c>
@@ -14686,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>149</v>
       </c>
@@ -14701,7 +14698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>151</v>
       </c>
@@ -14716,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>151</v>
       </c>
@@ -14731,7 +14728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>151</v>
       </c>
@@ -14746,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>153</v>
       </c>
@@ -14761,7 +14758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>153</v>
       </c>
@@ -14776,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>153</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>153</v>
       </c>
@@ -14806,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>153</v>
       </c>
@@ -14821,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>155</v>
       </c>
@@ -14836,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>155</v>
       </c>
@@ -14851,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>155</v>
       </c>
@@ -14866,7 +14863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>158</v>
       </c>
@@ -14881,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>158</v>
       </c>
@@ -14896,7 +14893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>158</v>
       </c>
@@ -14911,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>160</v>
       </c>
@@ -14926,7 +14923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>160</v>
       </c>
@@ -14941,7 +14938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>160</v>
       </c>
@@ -14956,7 +14953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>315</v>
       </c>
@@ -14971,7 +14968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>315</v>
       </c>
@@ -14986,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>315</v>
       </c>
@@ -15001,7 +14998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>322</v>
       </c>
@@ -15016,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>322</v>
       </c>
@@ -15031,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>322</v>
       </c>
@@ -15046,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>325</v>
       </c>
@@ -15061,7 +15058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>325</v>
       </c>
@@ -15076,7 +15073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>325</v>
       </c>
@@ -15091,7 +15088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>326</v>
       </c>
@@ -15106,7 +15103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>326</v>
       </c>
@@ -15121,7 +15118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>326</v>
       </c>
@@ -15136,7 +15133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>167</v>
       </c>
@@ -15151,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>167</v>
       </c>
@@ -15166,7 +15163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>169</v>
       </c>
@@ -15181,7 +15178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>169</v>
       </c>
@@ -15196,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>169</v>
       </c>
@@ -15211,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>171</v>
       </c>
@@ -15226,7 +15223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>171</v>
       </c>
@@ -15241,7 +15238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>171</v>
       </c>
@@ -15256,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>173</v>
       </c>
@@ -15271,7 +15268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>173</v>
       </c>
@@ -15286,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>173</v>
       </c>
@@ -15301,7 +15298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>175</v>
       </c>
@@ -15316,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>175</v>
       </c>
@@ -15331,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>175</v>
       </c>
@@ -15346,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
         <v>175</v>
       </c>
@@ -15361,7 +15358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14" t="s">
         <v>133</v>
       </c>
@@ -15376,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>178</v>
       </c>
@@ -15391,7 +15388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>178</v>
       </c>
@@ -15406,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>180</v>
       </c>
@@ -15421,7 +15418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>180</v>
       </c>
@@ -15436,7 +15433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>183</v>
       </c>
@@ -15451,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>183</v>
       </c>
@@ -15466,7 +15463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>183</v>
       </c>
@@ -15481,7 +15478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>310</v>
       </c>
@@ -15496,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>310</v>
       </c>
@@ -15511,7 +15508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>187</v>
       </c>
@@ -15526,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>187</v>
       </c>
@@ -15541,7 +15538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>189</v>
       </c>
@@ -15556,7 +15553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>189</v>
       </c>
@@ -15571,7 +15568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>191</v>
       </c>
@@ -15586,7 +15583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>191</v>
       </c>
@@ -15601,7 +15598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>191</v>
       </c>
@@ -15616,7 +15613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>193</v>
       </c>
@@ -15631,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>193</v>
       </c>
@@ -15646,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>196</v>
       </c>
@@ -15661,7 +15658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>196</v>
       </c>
@@ -15676,7 +15673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>196</v>
       </c>
@@ -15691,7 +15688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
         <v>198</v>
       </c>
@@ -15706,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
         <v>198</v>
       </c>
@@ -15721,7 +15718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>200</v>
       </c>
@@ -15736,7 +15733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>200</v>
       </c>
@@ -15751,7 +15748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>311</v>
       </c>
@@ -15766,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>311</v>
       </c>
@@ -15781,7 +15778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>311</v>
       </c>
@@ -15796,7 +15793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
         <v>312</v>
       </c>
@@ -15811,7 +15808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>312</v>
       </c>
@@ -15826,7 +15823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>313</v>
       </c>
@@ -15841,7 +15838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>313</v>
       </c>
@@ -15856,7 +15853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>206</v>
       </c>
@@ -15871,7 +15868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>206</v>
       </c>
@@ -15886,7 +15883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>206</v>
       </c>
@@ -15901,7 +15898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>208</v>
       </c>
@@ -15916,7 +15913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>208</v>
       </c>
@@ -15931,7 +15928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>210</v>
       </c>
@@ -15946,7 +15943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="19" t="s">
         <v>210</v>
       </c>
@@ -15961,7 +15958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>210</v>
       </c>
@@ -15976,7 +15973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="19" t="s">
         <v>213</v>
       </c>
@@ -15991,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="19" t="s">
         <v>213</v>
       </c>
@@ -16006,7 +16003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="19" t="s">
         <v>213</v>
       </c>
@@ -16021,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="19" t="s">
         <v>215</v>
       </c>
@@ -16036,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="19" t="s">
         <v>215</v>
       </c>
@@ -16051,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>215</v>
       </c>
@@ -16066,7 +16063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="19" t="s">
         <v>217</v>
       </c>
@@ -16081,7 +16078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>217</v>
       </c>
@@ -16096,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="19" t="s">
         <v>217</v>
       </c>
@@ -16111,7 +16108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
         <v>219</v>
       </c>
@@ -16126,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
         <v>219</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
         <v>221</v>
       </c>
@@ -16156,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>221</v>
       </c>
@@ -16171,7 +16168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193" s="33"/>
@@ -16180,7 +16177,7 @@
       <c r="F193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194" s="33"/>
@@ -16207,19 +16204,19 @@
       <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="21.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.3828125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.3828125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="28.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>223</v>
       </c>
@@ -16248,7 +16245,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>69</v>
       </c>
@@ -16270,7 +16267,7 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
@@ -16292,7 +16289,7 @@
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>69</v>
       </c>
@@ -16314,7 +16311,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>72</v>
       </c>
@@ -16336,7 +16333,7 @@
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>72</v>
       </c>
@@ -16358,7 +16355,7 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>72</v>
       </c>
@@ -16380,7 +16377,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>328</v>
       </c>
@@ -16404,7 +16401,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>328</v>
       </c>
@@ -16428,7 +16425,7 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>76</v>
       </c>
@@ -16450,7 +16447,7 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>76</v>
       </c>
@@ -16472,7 +16469,7 @@
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>76</v>
       </c>
@@ -16494,7 +16491,7 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>80</v>
       </c>
@@ -16516,7 +16513,7 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>80</v>
       </c>
@@ -16538,7 +16535,7 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>80</v>
       </c>
@@ -16560,7 +16557,7 @@
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
         <v>82</v>
       </c>
@@ -16582,7 +16579,7 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
         <v>82</v>
       </c>
@@ -16604,7 +16601,7 @@
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="s">
         <v>82</v>
       </c>
@@ -16626,7 +16623,7 @@
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>85</v>
       </c>
@@ -16648,7 +16645,7 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>85</v>
       </c>
@@ -16670,7 +16667,7 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>85</v>
       </c>
@@ -16692,7 +16689,7 @@
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>87</v>
       </c>
@@ -16714,7 +16711,7 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>87</v>
       </c>
@@ -16736,7 +16733,7 @@
       <c r="H23" s="38"/>
       <c r="I23" s="38"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
         <v>87</v>
       </c>
@@ -16758,7 +16755,7 @@
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>89</v>
       </c>
@@ -16780,7 +16777,7 @@
       <c r="H25" s="38"/>
       <c r="I25" s="38"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>89</v>
       </c>
@@ -16802,7 +16799,7 @@
       <c r="H26" s="38"/>
       <c r="I26" s="38"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>89</v>
       </c>
@@ -16824,7 +16821,7 @@
       <c r="H27" s="38"/>
       <c r="I27" s="38"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="s">
         <v>91</v>
       </c>
@@ -16846,7 +16843,7 @@
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
         <v>91</v>
       </c>
@@ -16868,7 +16865,7 @@
       <c r="H29" s="38"/>
       <c r="I29" s="38"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>91</v>
       </c>
@@ -16890,7 +16887,7 @@
       <c r="H30" s="38"/>
       <c r="I30" s="38"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>91</v>
       </c>
@@ -16912,7 +16909,7 @@
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="s">
         <v>91</v>
       </c>
@@ -16934,7 +16931,7 @@
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40" t="s">
         <v>94</v>
       </c>
@@ -16956,7 +16953,7 @@
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>94</v>
       </c>
@@ -16978,7 +16975,7 @@
       <c r="H34" s="38"/>
       <c r="I34" s="38"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40" t="s">
         <v>94</v>
       </c>
@@ -17000,7 +16997,7 @@
       <c r="H35" s="38"/>
       <c r="I35" s="38"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
         <v>94</v>
       </c>
@@ -17022,7 +17019,7 @@
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40" t="s">
         <v>94</v>
       </c>
@@ -17044,7 +17041,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="38"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>96</v>
       </c>
@@ -17066,7 +17063,7 @@
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>96</v>
       </c>
@@ -17088,7 +17085,7 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>96</v>
       </c>
@@ -17110,7 +17107,7 @@
       <c r="H40" s="38"/>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>96</v>
       </c>
@@ -17132,7 +17129,7 @@
       <c r="H41" s="38"/>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>98</v>
       </c>
@@ -17154,7 +17151,7 @@
       <c r="H42" s="38"/>
       <c r="I42" s="38"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>98</v>
       </c>
@@ -17176,7 +17173,7 @@
       <c r="H43" s="38"/>
       <c r="I43" s="38"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>98</v>
       </c>
@@ -17198,7 +17195,7 @@
       <c r="H44" s="38"/>
       <c r="I44" s="38"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>98</v>
       </c>
@@ -17220,7 +17217,7 @@
       <c r="H45" s="38"/>
       <c r="I45" s="38"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>98</v>
       </c>
@@ -17242,7 +17239,7 @@
       <c r="H46" s="38"/>
       <c r="I46" s="38"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>98</v>
       </c>
@@ -17264,7 +17261,7 @@
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>98</v>
       </c>
@@ -17286,7 +17283,7 @@
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>100</v>
       </c>
@@ -17308,7 +17305,7 @@
       <c r="H49" s="38"/>
       <c r="I49" s="38"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>100</v>
       </c>
@@ -17330,7 +17327,7 @@
       <c r="H50" s="38"/>
       <c r="I50" s="38"/>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>100</v>
       </c>
@@ -17352,7 +17349,7 @@
       <c r="H51" s="38"/>
       <c r="I51" s="38"/>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>100</v>
       </c>
@@ -17374,7 +17371,7 @@
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>102</v>
       </c>
@@ -17396,7 +17393,7 @@
       <c r="H53" s="38"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
         <v>102</v>
       </c>
@@ -17418,7 +17415,7 @@
       <c r="H54" s="38"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
         <v>105</v>
       </c>
@@ -17440,7 +17437,7 @@
       <c r="H55" s="38"/>
       <c r="I55" s="38"/>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
         <v>105</v>
       </c>
@@ -17462,7 +17459,7 @@
       <c r="H56" s="38"/>
       <c r="I56" s="38"/>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
         <v>108</v>
       </c>
@@ -17484,7 +17481,7 @@
       <c r="H57" s="38"/>
       <c r="I57" s="38"/>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>108</v>
       </c>
@@ -17506,7 +17503,7 @@
       <c r="H58" s="38"/>
       <c r="I58" s="38"/>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
         <v>108</v>
       </c>
@@ -17528,7 +17525,7 @@
       <c r="H59" s="38"/>
       <c r="I59" s="38"/>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="46" t="s">
         <v>114</v>
       </c>
@@ -17550,7 +17547,7 @@
       <c r="H60" s="38"/>
       <c r="I60" s="38"/>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="46" t="s">
         <v>114</v>
       </c>
@@ -17572,7 +17569,7 @@
       <c r="H61" s="38"/>
       <c r="I61" s="38"/>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46" t="s">
         <v>116</v>
       </c>
@@ -17594,7 +17591,7 @@
       <c r="H62" s="38"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="46" t="s">
         <v>118</v>
       </c>
@@ -17616,7 +17613,7 @@
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>120</v>
       </c>
@@ -17638,7 +17635,7 @@
       <c r="H64" s="38"/>
       <c r="I64" s="38"/>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
         <v>122</v>
       </c>
@@ -17660,7 +17657,7 @@
       <c r="H65" s="38"/>
       <c r="I65" s="38"/>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="46" t="s">
         <v>122</v>
       </c>
@@ -17682,7 +17679,7 @@
       <c r="H66" s="38"/>
       <c r="I66" s="38"/>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="46" t="s">
         <v>329</v>
       </c>
@@ -17706,7 +17703,7 @@
       <c r="H67" s="38"/>
       <c r="I67" s="38"/>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
         <v>329</v>
       </c>
@@ -17730,7 +17727,7 @@
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
         <v>125</v>
       </c>
@@ -17752,7 +17749,7 @@
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
         <v>125</v>
       </c>
@@ -17774,7 +17771,7 @@
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
         <v>127</v>
       </c>
@@ -17796,7 +17793,7 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
         <v>127</v>
       </c>
@@ -17818,7 +17815,7 @@
       <c r="H72" s="38"/>
       <c r="I72" s="38"/>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
         <v>129</v>
       </c>
@@ -17840,7 +17837,7 @@
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
         <v>131</v>
       </c>
@@ -17862,7 +17859,7 @@
       <c r="H74" s="38"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>139</v>
       </c>
@@ -17890,7 +17887,7 @@
       </c>
       <c r="I75" s="38"/>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>139</v>
       </c>
@@ -17918,7 +17915,7 @@
       </c>
       <c r="I76" s="38"/>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>139</v>
       </c>
@@ -17946,7 +17943,7 @@
       </c>
       <c r="I77" s="38"/>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>141</v>
       </c>
@@ -17968,7 +17965,7 @@
       <c r="H78" s="38"/>
       <c r="I78" s="38"/>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
         <v>141</v>
       </c>
@@ -17990,7 +17987,7 @@
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>141</v>
       </c>
@@ -18012,7 +18009,7 @@
       <c r="H80" s="38"/>
       <c r="I80" s="38"/>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>144</v>
       </c>
@@ -18040,7 +18037,7 @@
       </c>
       <c r="I81" s="38"/>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>144</v>
       </c>
@@ -18062,7 +18059,7 @@
       <c r="H82" s="38"/>
       <c r="I82" s="38"/>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>144</v>
       </c>
@@ -18084,7 +18081,7 @@
       <c r="H83" s="38"/>
       <c r="I83" s="38"/>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>144</v>
       </c>
@@ -18106,7 +18103,7 @@
       <c r="H84" s="38"/>
       <c r="I84" s="38"/>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>144</v>
       </c>
@@ -18128,7 +18125,7 @@
       <c r="H85" s="38"/>
       <c r="I85" s="38"/>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>147</v>
       </c>
@@ -18156,7 +18153,7 @@
       </c>
       <c r="I86" s="38"/>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>147</v>
       </c>
@@ -18178,7 +18175,7 @@
       <c r="H87" s="38"/>
       <c r="I87" s="38"/>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>147</v>
       </c>
@@ -18200,7 +18197,7 @@
       <c r="H88" s="38"/>
       <c r="I88" s="38"/>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>147</v>
       </c>
@@ -18222,7 +18219,7 @@
       <c r="H89" s="38"/>
       <c r="I89" s="38"/>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>147</v>
       </c>
@@ -18244,7 +18241,7 @@
       <c r="H90" s="38"/>
       <c r="I90" s="38"/>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>149</v>
       </c>
@@ -18272,7 +18269,7 @@
       </c>
       <c r="I91" s="38"/>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>149</v>
       </c>
@@ -18300,7 +18297,7 @@
       </c>
       <c r="I92" s="38"/>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>149</v>
       </c>
@@ -18328,7 +18325,7 @@
       </c>
       <c r="I93" s="38"/>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>151</v>
       </c>
@@ -18350,7 +18347,7 @@
       <c r="H94" s="38"/>
       <c r="I94" s="38"/>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
         <v>153</v>
       </c>
@@ -18378,7 +18375,7 @@
       </c>
       <c r="I95" s="38"/>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="47" t="s">
         <v>153</v>
       </c>
@@ -18406,7 +18403,7 @@
       </c>
       <c r="I96" s="38"/>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
         <v>153</v>
       </c>
@@ -18434,7 +18431,7 @@
       </c>
       <c r="I97" s="38"/>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
         <v>155</v>
       </c>
@@ -18462,7 +18459,7 @@
       </c>
       <c r="I98" s="38"/>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
         <v>155</v>
       </c>
@@ -18490,7 +18487,7 @@
       </c>
       <c r="I99" s="38"/>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
         <v>155</v>
       </c>
@@ -18518,7 +18515,7 @@
       </c>
       <c r="I100" s="38"/>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>158</v>
       </c>
@@ -18546,7 +18543,7 @@
       </c>
       <c r="I101" s="38"/>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
         <v>158</v>
       </c>
@@ -18574,7 +18571,7 @@
       </c>
       <c r="I102" s="38"/>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49" t="s">
         <v>158</v>
       </c>
@@ -18602,7 +18599,7 @@
       </c>
       <c r="I103" s="38"/>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
         <v>160</v>
       </c>
@@ -18624,7 +18621,7 @@
       <c r="H104" s="38"/>
       <c r="I104" s="38"/>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>160</v>
       </c>
@@ -18646,7 +18643,7 @@
       <c r="H105" s="38"/>
       <c r="I105" s="38"/>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>160</v>
       </c>
@@ -18668,7 +18665,7 @@
       <c r="H106" s="38"/>
       <c r="I106" s="38"/>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>315</v>
       </c>
@@ -18696,7 +18693,7 @@
       </c>
       <c r="I107" s="38"/>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>315</v>
       </c>
@@ -18720,7 +18717,7 @@
       <c r="H108" s="38"/>
       <c r="I108" s="38"/>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>315</v>
       </c>
@@ -18748,7 +18745,7 @@
       </c>
       <c r="I109" s="38"/>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>315</v>
       </c>
@@ -18772,7 +18769,7 @@
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
         <v>315</v>
       </c>
@@ -18800,7 +18797,7 @@
       </c>
       <c r="I111" s="38"/>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>315</v>
       </c>
@@ -18824,7 +18821,7 @@
       <c r="H112" s="38"/>
       <c r="I112" s="38"/>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>315</v>
       </c>
@@ -18848,7 +18845,7 @@
       <c r="H113" s="38"/>
       <c r="I113" s="38"/>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>315</v>
       </c>
@@ -18872,7 +18869,7 @@
       <c r="H114" s="38"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
         <v>315</v>
       </c>
@@ -18896,7 +18893,7 @@
       <c r="H115" s="38"/>
       <c r="I115" s="38"/>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>322</v>
       </c>
@@ -18924,7 +18921,7 @@
       </c>
       <c r="I116" s="38"/>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>322</v>
       </c>
@@ -18948,7 +18945,7 @@
       <c r="H117" s="38"/>
       <c r="I117" s="38"/>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
         <v>322</v>
       </c>
@@ -18976,7 +18973,7 @@
       </c>
       <c r="I118" s="38"/>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>322</v>
       </c>
@@ -19004,7 +19001,7 @@
       </c>
       <c r="I119" s="38"/>
     </row>
-    <row r="120" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="47" t="s">
         <v>322</v>
       </c>
@@ -19028,7 +19025,7 @@
       <c r="H120" s="38"/>
       <c r="I120" s="38"/>
     </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="47" t="s">
         <v>322</v>
       </c>
@@ -19052,7 +19049,7 @@
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
     </row>
-    <row r="122" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="47" t="s">
         <v>322</v>
       </c>
@@ -19076,7 +19073,7 @@
       <c r="H122" s="38"/>
       <c r="I122" s="38"/>
     </row>
-    <row r="123" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
         <v>322</v>
       </c>
@@ -19100,7 +19097,7 @@
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
     </row>
-    <row r="124" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="47" t="s">
         <v>322</v>
       </c>
@@ -19124,7 +19121,7 @@
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
     </row>
-    <row r="125" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="47" t="s">
         <v>322</v>
       </c>
@@ -19148,7 +19145,7 @@
       <c r="H125" s="38"/>
       <c r="I125" s="38"/>
     </row>
-    <row r="126" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>325</v>
       </c>
@@ -19172,7 +19169,7 @@
       <c r="H126" s="38"/>
       <c r="I126" s="38"/>
     </row>
-    <row r="127" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>325</v>
       </c>
@@ -19194,7 +19191,7 @@
       <c r="H127" s="38"/>
       <c r="I127" s="38"/>
     </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>325</v>
       </c>
@@ -19222,7 +19219,7 @@
       </c>
       <c r="I128" s="38"/>
     </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
         <v>326</v>
       </c>
@@ -19246,7 +19243,7 @@
       <c r="H129" s="38"/>
       <c r="I129" s="38"/>
     </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="50" t="s">
         <v>326</v>
       </c>
@@ -19270,7 +19267,7 @@
       <c r="H130" s="38"/>
       <c r="I130" s="38"/>
     </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="50" t="s">
         <v>326</v>
       </c>
@@ -19294,7 +19291,7 @@
       <c r="H131" s="38"/>
       <c r="I131" s="38"/>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>167</v>
       </c>
@@ -19322,7 +19319,7 @@
       </c>
       <c r="I132" s="38"/>
     </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>167</v>
       </c>
@@ -19350,7 +19347,7 @@
       </c>
       <c r="I133" s="38"/>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
         <v>167</v>
       </c>
@@ -19378,7 +19375,7 @@
       </c>
       <c r="I134" s="38"/>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="47" t="s">
         <v>169</v>
       </c>
@@ -19406,7 +19403,7 @@
       </c>
       <c r="I135" s="38"/>
     </row>
-    <row r="136" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="47" t="s">
         <v>169</v>
       </c>
@@ -19434,7 +19431,7 @@
       </c>
       <c r="I136" s="38"/>
     </row>
-    <row r="137" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="47" t="s">
         <v>171</v>
       </c>
@@ -19462,7 +19459,7 @@
       </c>
       <c r="I137" s="38"/>
     </row>
-    <row r="138" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="47" t="s">
         <v>171</v>
       </c>
@@ -19490,7 +19487,7 @@
       </c>
       <c r="I138" s="38"/>
     </row>
-    <row r="139" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
         <v>173</v>
       </c>
@@ -19512,7 +19509,7 @@
       <c r="H139" s="38"/>
       <c r="I139" s="38"/>
     </row>
-    <row r="140" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>175</v>
       </c>
@@ -19540,7 +19537,7 @@
       </c>
       <c r="I140" s="38"/>
     </row>
-    <row r="141" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>175</v>
       </c>
@@ -19568,7 +19565,7 @@
       </c>
       <c r="I141" s="38"/>
     </row>
-    <row r="142" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49" t="s">
         <v>178</v>
       </c>
@@ -19590,7 +19587,7 @@
       <c r="H142" s="38"/>
       <c r="I142" s="38"/>
     </row>
-    <row r="143" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49" t="s">
         <v>178</v>
       </c>
@@ -19612,7 +19609,7 @@
       <c r="H143" s="38"/>
       <c r="I143" s="38"/>
     </row>
-    <row r="144" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
         <v>178</v>
       </c>
@@ -19634,7 +19631,7 @@
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
     </row>
-    <row r="145" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
         <v>180</v>
       </c>
@@ -19656,7 +19653,7 @@
       <c r="H145" s="38"/>
       <c r="I145" s="38"/>
     </row>
-    <row r="146" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="47" t="s">
         <v>180</v>
       </c>
@@ -19678,7 +19675,7 @@
       <c r="H146" s="38"/>
       <c r="I146" s="38"/>
     </row>
-    <row r="147" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="47" t="s">
         <v>180</v>
       </c>
@@ -19700,7 +19697,7 @@
       <c r="H147" s="38"/>
       <c r="I147" s="38"/>
     </row>
-    <row r="148" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="47" t="s">
         <v>183</v>
       </c>
@@ -19722,7 +19719,7 @@
       <c r="H148" s="38"/>
       <c r="I148" s="38"/>
     </row>
-    <row r="149" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="47" t="s">
         <v>310</v>
       </c>
@@ -19744,7 +19741,7 @@
       <c r="H149" s="38"/>
       <c r="I149" s="38"/>
     </row>
-    <row r="150" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="47" t="s">
         <v>310</v>
       </c>
@@ -19766,7 +19763,7 @@
       <c r="H150" s="38"/>
       <c r="I150" s="38"/>
     </row>
-    <row r="151" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="47" t="s">
         <v>310</v>
       </c>
@@ -19788,7 +19785,7 @@
       <c r="H151" s="38"/>
       <c r="I151" s="38"/>
     </row>
-    <row r="152" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="51" t="s">
         <v>187</v>
       </c>
@@ -19810,7 +19807,7 @@
       <c r="H152" s="38"/>
       <c r="I152" s="38"/>
     </row>
-    <row r="153" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="51" t="s">
         <v>187</v>
       </c>
@@ -19832,7 +19829,7 @@
       <c r="H153" s="38"/>
       <c r="I153" s="38"/>
     </row>
-    <row r="154" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="51" t="s">
         <v>187</v>
       </c>
@@ -19854,7 +19851,7 @@
       <c r="H154" s="38"/>
       <c r="I154" s="38"/>
     </row>
-    <row r="155" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="51" t="s">
         <v>187</v>
       </c>
@@ -19876,7 +19873,7 @@
       <c r="H155" s="38"/>
       <c r="I155" s="38"/>
     </row>
-    <row r="156" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>189</v>
       </c>
@@ -19904,7 +19901,7 @@
       </c>
       <c r="I156" s="38"/>
     </row>
-    <row r="157" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>189</v>
       </c>
@@ -19932,7 +19929,7 @@
       </c>
       <c r="I157" s="38"/>
     </row>
-    <row r="158" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>189</v>
       </c>
@@ -19960,7 +19957,7 @@
       </c>
       <c r="I158" s="38"/>
     </row>
-    <row r="159" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>191</v>
       </c>
@@ -19988,7 +19985,7 @@
       </c>
       <c r="I159" s="38"/>
     </row>
-    <row r="160" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>193</v>
       </c>
@@ -20016,7 +20013,7 @@
       </c>
       <c r="I160" s="38"/>
     </row>
-    <row r="161" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>193</v>
       </c>
@@ -20044,7 +20041,7 @@
       </c>
       <c r="I161" s="38"/>
     </row>
-    <row r="162" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
         <v>196</v>
       </c>
@@ -20072,7 +20069,7 @@
       </c>
       <c r="I162" s="38"/>
     </row>
-    <row r="163" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="52" t="s">
         <v>198</v>
       </c>
@@ -20094,7 +20091,7 @@
       <c r="H163" s="38"/>
       <c r="I163" s="38"/>
     </row>
-    <row r="164" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="52" t="s">
         <v>198</v>
       </c>
@@ -20116,7 +20113,7 @@
       <c r="H164" s="38"/>
       <c r="I164" s="38"/>
     </row>
-    <row r="165" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="52" t="s">
         <v>198</v>
       </c>
@@ -20144,7 +20141,7 @@
       </c>
       <c r="I165" s="38"/>
     </row>
-    <row r="166" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="52" t="s">
         <v>198</v>
       </c>
@@ -20166,7 +20163,7 @@
       <c r="H166" s="38"/>
       <c r="I166" s="38"/>
     </row>
-    <row r="167" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="52" t="s">
         <v>198</v>
       </c>
@@ -20188,7 +20185,7 @@
       <c r="H167" s="38"/>
       <c r="I167" s="38"/>
     </row>
-    <row r="168" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="52" t="s">
         <v>198</v>
       </c>
@@ -20210,7 +20207,7 @@
       <c r="H168" s="38"/>
       <c r="I168" s="38"/>
     </row>
-    <row r="169" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="52" t="s">
         <v>198</v>
       </c>
@@ -20238,7 +20235,7 @@
       </c>
       <c r="I169" s="38"/>
     </row>
-    <row r="170" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="52" t="s">
         <v>198</v>
       </c>
@@ -20260,7 +20257,7 @@
       <c r="H170" s="38"/>
       <c r="I170" s="38"/>
     </row>
-    <row r="171" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="52" t="s">
         <v>198</v>
       </c>
@@ -20282,7 +20279,7 @@
       <c r="H171" s="38"/>
       <c r="I171" s="38"/>
     </row>
-    <row r="172" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="52" t="s">
         <v>198</v>
       </c>
@@ -20310,7 +20307,7 @@
       </c>
       <c r="I172" s="38"/>
     </row>
-    <row r="173" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>200</v>
       </c>
@@ -20332,7 +20329,7 @@
       <c r="H173" s="38"/>
       <c r="I173" s="38"/>
     </row>
-    <row r="174" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="47" t="s">
         <v>200</v>
       </c>
@@ -20360,7 +20357,7 @@
       </c>
       <c r="I174" s="38"/>
     </row>
-    <row r="175" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
         <v>200</v>
       </c>
@@ -20382,7 +20379,7 @@
       <c r="H175" s="38"/>
       <c r="I175" s="38"/>
     </row>
-    <row r="176" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="47" t="s">
         <v>200</v>
       </c>
@@ -20404,7 +20401,7 @@
       <c r="H176" s="38"/>
       <c r="I176" s="38"/>
     </row>
-    <row r="177" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="47" t="s">
         <v>200</v>
       </c>
@@ -20432,7 +20429,7 @@
       </c>
       <c r="I177" s="38"/>
     </row>
-    <row r="178" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>200</v>
       </c>
@@ -20454,7 +20451,7 @@
       <c r="H178" s="38"/>
       <c r="I178" s="38"/>
     </row>
-    <row r="179" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>200</v>
       </c>
@@ -20482,7 +20479,7 @@
       </c>
       <c r="I179" s="38"/>
     </row>
-    <row r="180" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="47" t="s">
         <v>311</v>
       </c>
@@ -20510,7 +20507,7 @@
       </c>
       <c r="I180" s="38"/>
     </row>
-    <row r="181" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="47" t="s">
         <v>312</v>
       </c>
@@ -20532,7 +20529,7 @@
       <c r="H181" s="38"/>
       <c r="I181" s="38"/>
     </row>
-    <row r="182" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="47" t="s">
         <v>312</v>
       </c>
@@ -20560,7 +20557,7 @@
       </c>
       <c r="I182" s="38"/>
     </row>
-    <row r="183" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="47" t="s">
         <v>312</v>
       </c>
@@ -20582,7 +20579,7 @@
       <c r="H183" s="38"/>
       <c r="I183" s="38"/>
     </row>
-    <row r="184" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="47" t="s">
         <v>312</v>
       </c>
@@ -20604,7 +20601,7 @@
       <c r="H184" s="38"/>
       <c r="I184" s="38"/>
     </row>
-    <row r="185" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="47" t="s">
         <v>312</v>
       </c>
@@ -20632,7 +20629,7 @@
       </c>
       <c r="I185" s="38"/>
     </row>
-    <row r="186" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="47" t="s">
         <v>312</v>
       </c>
@@ -20654,7 +20651,7 @@
       <c r="H186" s="38"/>
       <c r="I186" s="38"/>
     </row>
-    <row r="187" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>312</v>
       </c>
@@ -20682,7 +20679,7 @@
       </c>
       <c r="I187" s="38"/>
     </row>
-    <row r="188" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="47" t="s">
         <v>312</v>
       </c>
@@ -20710,7 +20707,7 @@
       </c>
       <c r="I188" s="38"/>
     </row>
-    <row r="189" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>312</v>
       </c>
@@ -20732,7 +20729,7 @@
       <c r="H189" s="38"/>
       <c r="I189" s="38"/>
     </row>
-    <row r="190" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>312</v>
       </c>
@@ -20754,7 +20751,7 @@
       <c r="H190" s="38"/>
       <c r="I190" s="38"/>
     </row>
-    <row r="191" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="47" t="s">
         <v>312</v>
       </c>
@@ -20776,7 +20773,7 @@
       <c r="H191" s="38"/>
       <c r="I191" s="38"/>
     </row>
-    <row r="192" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>313</v>
       </c>
@@ -20804,7 +20801,7 @@
       </c>
       <c r="I192" s="8"/>
     </row>
-    <row r="193" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>313</v>
       </c>
@@ -20826,7 +20823,7 @@
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
     </row>
-    <row r="194" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>313</v>
       </c>
@@ -20848,7 +20845,7 @@
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
     </row>
-    <row r="195" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>313</v>
       </c>
@@ -20870,7 +20867,7 @@
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
     </row>
-    <row r="196" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>313</v>
       </c>
@@ -20892,7 +20889,7 @@
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
     </row>
-    <row r="197" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>313</v>
       </c>
@@ -20914,7 +20911,7 @@
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
     </row>
-    <row r="198" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="47" t="s">
         <v>206</v>
       </c>
@@ -20944,7 +20941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="47" t="s">
         <v>206</v>
       </c>
@@ -20966,7 +20963,7 @@
       <c r="H199" s="38"/>
       <c r="I199" s="38"/>
     </row>
-    <row r="200" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="47" t="s">
         <v>208</v>
       </c>
@@ -20988,7 +20985,7 @@
       <c r="H200" s="38"/>
       <c r="I200" s="38"/>
     </row>
-    <row r="201" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="47" t="s">
         <v>208</v>
       </c>
@@ -21010,7 +21007,7 @@
       <c r="H201" s="38"/>
       <c r="I201" s="38"/>
     </row>
-    <row r="202" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>208</v>
       </c>
@@ -21032,7 +21029,7 @@
       <c r="H202" s="38"/>
       <c r="I202" s="38"/>
     </row>
-    <row r="203" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
         <v>208</v>
       </c>
@@ -21054,7 +21051,7 @@
       <c r="H203" s="38"/>
       <c r="I203" s="38"/>
     </row>
-    <row r="204" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="53" t="s">
         <v>210</v>
       </c>
@@ -21082,7 +21079,7 @@
       </c>
       <c r="I204" s="38"/>
     </row>
-    <row r="205" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="53" t="s">
         <v>210</v>
       </c>
@@ -21110,7 +21107,7 @@
       </c>
       <c r="I205" s="38"/>
     </row>
-    <row r="206" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="53" t="s">
         <v>210</v>
       </c>
@@ -21138,7 +21135,7 @@
       </c>
       <c r="I206" s="38"/>
     </row>
-    <row r="207" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="53" t="s">
         <v>210</v>
       </c>
@@ -21166,7 +21163,7 @@
       </c>
       <c r="I207" s="38"/>
     </row>
-    <row r="208" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="53" t="s">
         <v>210</v>
       </c>
@@ -21194,7 +21191,7 @@
       </c>
       <c r="I208" s="38"/>
     </row>
-    <row r="209" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="53" t="s">
         <v>213</v>
       </c>
@@ -21222,7 +21219,7 @@
       </c>
       <c r="I209" s="38"/>
     </row>
-    <row r="210" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="53" t="s">
         <v>213</v>
       </c>
@@ -21250,7 +21247,7 @@
       </c>
       <c r="I210" s="38"/>
     </row>
-    <row r="211" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="53" t="s">
         <v>213</v>
       </c>
@@ -21278,7 +21275,7 @@
       </c>
       <c r="I211" s="38"/>
     </row>
-    <row r="212" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="53" t="s">
         <v>213</v>
       </c>
@@ -21306,7 +21303,7 @@
       </c>
       <c r="I212" s="38"/>
     </row>
-    <row r="213" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="53" t="s">
         <v>213</v>
       </c>
@@ -21334,7 +21331,7 @@
       </c>
       <c r="I213" s="38"/>
     </row>
-    <row r="214" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="53" t="s">
         <v>215</v>
       </c>
@@ -21362,7 +21359,7 @@
       </c>
       <c r="I214" s="38"/>
     </row>
-    <row r="215" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="53" t="s">
         <v>215</v>
       </c>
@@ -21390,7 +21387,7 @@
       </c>
       <c r="I215" s="38"/>
     </row>
-    <row r="216" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="53" t="s">
         <v>215</v>
       </c>
@@ -21418,7 +21415,7 @@
       </c>
       <c r="I216" s="38"/>
     </row>
-    <row r="217" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="53" t="s">
         <v>217</v>
       </c>
@@ -21446,7 +21443,7 @@
       </c>
       <c r="I217" s="38"/>
     </row>
-    <row r="218" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="53" t="s">
         <v>217</v>
       </c>
@@ -21474,7 +21471,7 @@
       </c>
       <c r="I218" s="38"/>
     </row>
-    <row r="219" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="53" t="s">
         <v>217</v>
       </c>
@@ -21502,7 +21499,7 @@
       </c>
       <c r="I219" s="38"/>
     </row>
-    <row r="220" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="43" t="s">
         <v>219</v>
       </c>
@@ -21530,7 +21527,7 @@
       </c>
       <c r="I220" s="38"/>
     </row>
-    <row r="221" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="43" t="s">
         <v>219</v>
       </c>
@@ -21558,7 +21555,7 @@
       </c>
       <c r="I221" s="38"/>
     </row>
-    <row r="222" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="43" t="s">
         <v>219</v>
       </c>
@@ -21586,7 +21583,7 @@
       </c>
       <c r="I222" s="38"/>
     </row>
-    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="43" t="s">
         <v>221</v>
       </c>
@@ -21616,7 +21613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="43" t="s">
         <v>221</v>
       </c>
@@ -21638,7 +21635,7 @@
       <c r="H224" s="38"/>
       <c r="I224" s="38"/>
     </row>
-    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="43" t="s">
         <v>221</v>
       </c>
@@ -21668,7 +21665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="43" t="s">
         <v>221</v>
       </c>
@@ -21690,7 +21687,7 @@
       <c r="H226" s="38"/>
       <c r="I226" s="38"/>
     </row>
-    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="43" t="s">
         <v>221</v>
       </c>
@@ -21712,7 +21709,7 @@
       <c r="H227" s="38"/>
       <c r="I227" s="38"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="43" t="s">
         <v>221</v>
       </c>
@@ -21742,7 +21739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="43" t="s">
         <v>221</v>
       </c>
@@ -21781,14 +21778,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.3828125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.84375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="30"/>
+    <col min="1" max="1" width="100.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>224</v>
       </c>
@@ -21799,7 +21796,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
@@ -21810,7 +21807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
@@ -21821,7 +21818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
@@ -21832,7 +21829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
@@ -21843,7 +21840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
@@ -21854,7 +21851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
@@ -21865,7 +21862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
@@ -21876,7 +21873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>11</v>
       </c>
@@ -21887,7 +21884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>12</v>
       </c>
@@ -21898,7 +21895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>13</v>
       </c>
@@ -21909,7 +21906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>15</v>
       </c>
@@ -21920,7 +21917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
@@ -21931,7 +21928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
@@ -21942,7 +21939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>2</v>
       </c>
@@ -21953,7 +21950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>58</v>
       </c>
@@ -21964,7 +21961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
@@ -21975,7 +21972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>52</v>
       </c>
@@ -21986,7 +21983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>57</v>
       </c>
@@ -21997,7 +21994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>59</v>
       </c>
@@ -22008,7 +22005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>226</v>
       </c>
@@ -22019,7 +22016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>22</v>
       </c>
@@ -22030,7 +22027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>17</v>
       </c>
@@ -22041,7 +22038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>21</v>
       </c>
@@ -22052,7 +22049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>18</v>
       </c>
@@ -22063,7 +22060,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>19</v>
       </c>
@@ -22074,7 +22071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>20</v>
       </c>
@@ -22085,7 +22082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>23</v>
       </c>
@@ -22096,7 +22093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>24</v>
       </c>
@@ -22107,7 +22104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>25</v>
       </c>
@@ -22118,7 +22115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>26</v>
       </c>
@@ -22129,7 +22126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>36</v>
       </c>
@@ -22140,7 +22137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>38</v>
       </c>
@@ -22151,7 +22148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>40</v>
       </c>
@@ -22162,7 +22159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
@@ -22173,7 +22170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>37</v>
       </c>
@@ -22184,7 +22181,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>39</v>
       </c>
@@ -22195,7 +22192,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>42</v>
       </c>
@@ -22206,7 +22203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>53</v>
       </c>
@@ -22217,7 +22214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>35</v>
       </c>
@@ -22228,7 +22225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>235</v>
       </c>
@@ -22239,7 +22236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>27</v>
       </c>
@@ -22250,7 +22247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>29</v>
       </c>
@@ -22261,7 +22258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>28</v>
       </c>
@@ -22272,7 +22269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>30</v>
       </c>
@@ -22283,7 +22280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>31</v>
       </c>
@@ -22294,7 +22291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>229</v>
       </c>
@@ -22305,7 +22302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>43</v>
       </c>
@@ -22316,7 +22313,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>32</v>
       </c>
@@ -22327,7 +22324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>230</v>
       </c>
@@ -22338,7 +22335,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>33</v>
       </c>
@@ -22349,7 +22346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>34</v>
       </c>
@@ -22360,7 +22357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>60</v>
       </c>
@@ -22371,7 +22368,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>44</v>
       </c>
@@ -22399,13 +22396,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.69140625" customWidth="1"/>
-    <col min="2" max="2" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>260</v>
       </c>
@@ -22413,7 +22410,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>261</v>
       </c>
@@ -22421,7 +22418,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>262</v>
       </c>
@@ -22429,7 +22426,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>263</v>
       </c>
@@ -22437,7 +22434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>264</v>
       </c>
@@ -22445,7 +22442,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>265</v>
       </c>
@@ -22453,7 +22450,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>266</v>
       </c>
@@ -22461,7 +22458,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>267</v>
       </c>
@@ -22469,7 +22466,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>268</v>
       </c>
@@ -22477,7 +22474,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
         <v>269</v>
       </c>
@@ -22485,7 +22482,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>270</v>
       </c>
@@ -22493,7 +22490,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
         <v>271</v>
       </c>
@@ -22518,23 +22515,23 @@
       <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.15234375" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.69140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="30" customWidth="1"/>
     <col min="3" max="3" width="16" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3828125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="15.53515625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="11.3046875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3046875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.53515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.84375" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.53515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.69140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="94" customFormat="1" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="94" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>533</v>
       </c>
@@ -22572,7 +22569,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>591</v>
       </c>
@@ -22610,7 +22607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>591</v>
       </c>
@@ -22648,7 +22645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>591</v>
       </c>
@@ -22686,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>591</v>
       </c>
@@ -22724,7 +22721,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
         <v>591</v>
       </c>
@@ -22762,7 +22759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
         <v>591</v>
       </c>
@@ -22800,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
         <v>591</v>
       </c>
@@ -22838,7 +22835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
         <v>591</v>
       </c>
@@ -22876,7 +22873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
         <v>591</v>
       </c>
@@ -22914,7 +22911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
         <v>591</v>
       </c>
@@ -22952,7 +22949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
         <v>591</v>
       </c>
@@ -22990,7 +22987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
         <v>591</v>
       </c>
@@ -23028,7 +23025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
         <v>591</v>
       </c>
@@ -23066,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>591</v>
       </c>
@@ -23104,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
         <v>591</v>
       </c>
@@ -23142,7 +23139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
         <v>591</v>
       </c>
@@ -23180,7 +23177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
         <v>591</v>
       </c>
@@ -23218,7 +23215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
         <v>591</v>
       </c>
@@ -23256,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
         <v>591</v>
       </c>
@@ -23294,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
         <v>591</v>
       </c>
@@ -23332,7 +23329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
         <v>591</v>
       </c>
@@ -23370,7 +23367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
         <v>591</v>
       </c>
@@ -23408,7 +23405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
         <v>591</v>
       </c>
@@ -23446,7 +23443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
         <v>591</v>
       </c>
@@ -23484,7 +23481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
         <v>591</v>
       </c>
@@ -23522,7 +23519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>591</v>
       </c>
@@ -23560,7 +23557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
         <v>591</v>
       </c>
@@ -23598,7 +23595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>591</v>
       </c>
@@ -23636,7 +23633,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
         <v>591</v>
       </c>
@@ -23674,7 +23671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
         <v>591</v>
       </c>
@@ -23712,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
         <v>591</v>
       </c>
@@ -23750,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>591</v>
       </c>
@@ -23788,7 +23785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
         <v>591</v>
       </c>
@@ -23826,7 +23823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>591</v>
       </c>
@@ -23864,7 +23861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
         <v>591</v>
       </c>
@@ -23902,7 +23899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
         <v>591</v>
       </c>
@@ -23940,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
         <v>591</v>
       </c>
@@ -23978,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
         <v>591</v>
       </c>
@@ -24016,7 +24013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
         <v>591</v>
       </c>
@@ -24054,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
         <v>591</v>
       </c>
@@ -24092,7 +24089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
         <v>591</v>
       </c>
@@ -24130,7 +24127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
         <v>591</v>
       </c>
@@ -24168,7 +24165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
         <v>591</v>
       </c>
@@ -24206,7 +24203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
         <v>591</v>
       </c>
@@ -24244,7 +24241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
         <v>592</v>
       </c>
@@ -24282,7 +24279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
         <v>599</v>
       </c>
@@ -24320,7 +24317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
         <v>599</v>
       </c>
@@ -24358,7 +24355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
         <v>599</v>
       </c>
@@ -24396,7 +24393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
         <v>599</v>
       </c>
@@ -24434,7 +24431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="79" t="s">
         <v>600</v>
       </c>
@@ -24472,7 +24469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="79" t="s">
         <v>601</v>
       </c>
@@ -24510,7 +24507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>617</v>
       </c>
@@ -24562,17 +24559,17 @@
       <selection activeCell="C206" sqref="C206:C207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.3046875" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.3828125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.53515625" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.84375" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="68" t="s">
         <v>533</v>
       </c>
@@ -24592,7 +24589,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>591</v>
       </c>
@@ -24612,7 +24609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
         <v>591</v>
       </c>
@@ -24632,7 +24629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>591</v>
       </c>
@@ -24652,7 +24649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
         <v>591</v>
       </c>
@@ -24672,7 +24669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
         <v>591</v>
       </c>
@@ -24692,7 +24689,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
         <v>591</v>
       </c>
@@ -24712,7 +24709,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
         <v>591</v>
       </c>
@@ -24732,7 +24729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
         <v>591</v>
       </c>
@@ -24752,7 +24749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
         <v>591</v>
       </c>
@@ -24772,7 +24769,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>591</v>
       </c>
@@ -24792,7 +24789,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>591</v>
       </c>
@@ -24812,7 +24809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>591</v>
       </c>
@@ -24832,7 +24829,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
         <v>591</v>
       </c>
@@ -24852,7 +24849,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
         <v>591</v>
       </c>
@@ -24872,7 +24869,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
         <v>591</v>
       </c>
@@ -24892,7 +24889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
         <v>591</v>
       </c>
@@ -24912,7 +24909,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="67" t="s">
         <v>591</v>
       </c>
@@ -24932,7 +24929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>591</v>
       </c>
@@ -24952,7 +24949,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="67" t="s">
         <v>591</v>
       </c>
@@ -24972,7 +24969,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="67" t="s">
         <v>591</v>
       </c>
@@ -24992,7 +24989,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>591</v>
       </c>
@@ -25012,7 +25009,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="67" t="s">
         <v>591</v>
       </c>
@@ -25032,7 +25029,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>591</v>
       </c>
@@ -25052,7 +25049,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
         <v>591</v>
       </c>
@@ -25072,7 +25069,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>591</v>
       </c>
@@ -25092,7 +25089,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="67" t="s">
         <v>591</v>
       </c>
@@ -25112,7 +25109,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
         <v>591</v>
       </c>
@@ -25132,7 +25129,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="67" t="s">
         <v>591</v>
       </c>
@@ -25152,7 +25149,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="67" t="s">
         <v>591</v>
       </c>
@@ -25172,7 +25169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="67" t="s">
         <v>591</v>
       </c>
@@ -25192,7 +25189,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="67" t="s">
         <v>591</v>
       </c>
@@ -25212,7 +25209,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
         <v>591</v>
       </c>
@@ -25232,7 +25229,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>591</v>
       </c>
@@ -25252,7 +25249,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="67" t="s">
         <v>591</v>
       </c>
@@ -25272,7 +25269,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="67" t="s">
         <v>591</v>
       </c>
@@ -25292,7 +25289,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="67" t="s">
         <v>591</v>
       </c>
@@ -25312,7 +25309,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="67" t="s">
         <v>591</v>
       </c>
@@ -25332,7 +25329,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="67" t="s">
         <v>591</v>
       </c>
@@ -25352,7 +25349,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="67" t="s">
         <v>591</v>
       </c>
@@ -25372,7 +25369,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="67" t="s">
         <v>591</v>
       </c>
@@ -25392,7 +25389,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="67" t="s">
         <v>591</v>
       </c>
@@ -25412,7 +25409,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="67" t="s">
         <v>591</v>
       </c>
@@ -25432,7 +25429,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="67" t="s">
         <v>591</v>
       </c>
@@ -25452,7 +25449,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="67" t="s">
         <v>591</v>
       </c>
@@ -25472,7 +25469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="67" t="s">
         <v>591</v>
       </c>
@@ -25492,7 +25489,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="67" t="s">
         <v>591</v>
       </c>
@@ -25512,7 +25509,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="67" t="s">
         <v>591</v>
       </c>
@@ -25532,7 +25529,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="67" t="s">
         <v>591</v>
       </c>
@@ -25552,7 +25549,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
         <v>591</v>
       </c>
@@ -25572,7 +25569,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="67" t="s">
         <v>591</v>
       </c>
@@ -25592,7 +25589,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="67" t="s">
         <v>591</v>
       </c>
@@ -25612,7 +25609,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="67" t="s">
         <v>591</v>
       </c>
@@ -25632,7 +25629,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="67" t="s">
         <v>591</v>
       </c>
@@ -25652,7 +25649,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="67" t="s">
         <v>591</v>
       </c>
@@ -25672,7 +25669,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
         <v>591</v>
       </c>
@@ -25692,7 +25689,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="67" t="s">
         <v>591</v>
       </c>
@@ -25712,7 +25709,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="67" t="s">
         <v>591</v>
       </c>
@@ -25732,7 +25729,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="67" t="s">
         <v>591</v>
       </c>
@@ -25752,7 +25749,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="67" t="s">
         <v>591</v>
       </c>
@@ -25772,7 +25769,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="67" t="s">
         <v>591</v>
       </c>
@@ -25792,7 +25789,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="67" t="s">
         <v>591</v>
       </c>
@@ -25812,7 +25809,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="67" t="s">
         <v>591</v>
       </c>
@@ -25832,7 +25829,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="67" t="s">
         <v>591</v>
       </c>
@@ -25852,7 +25849,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="67" t="s">
         <v>591</v>
       </c>
@@ -25872,7 +25869,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="67" t="s">
         <v>591</v>
       </c>
@@ -25892,7 +25889,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="67" t="s">
         <v>591</v>
       </c>
@@ -25912,7 +25909,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="67" t="s">
         <v>591</v>
       </c>
@@ -25932,7 +25929,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="67" t="s">
         <v>591</v>
       </c>
@@ -25952,7 +25949,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="67" t="s">
         <v>591</v>
       </c>
@@ -25972,7 +25969,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="67" t="s">
         <v>591</v>
       </c>
@@ -25992,7 +25989,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="67" t="s">
         <v>591</v>
       </c>
@@ -26012,7 +26009,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="67" t="s">
         <v>591</v>
       </c>
@@ -26032,7 +26029,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="67" t="s">
         <v>591</v>
       </c>
@@ -26052,7 +26049,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="67" t="s">
         <v>591</v>
       </c>
@@ -26072,7 +26069,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="67" t="s">
         <v>591</v>
       </c>
@@ -26092,7 +26089,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="67" t="s">
         <v>591</v>
       </c>
@@ -26112,7 +26109,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="67" t="s">
         <v>591</v>
       </c>
@@ -26132,7 +26129,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="67" t="s">
         <v>591</v>
       </c>
@@ -26152,7 +26149,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="67" t="s">
         <v>591</v>
       </c>
@@ -26172,7 +26169,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="67" t="s">
         <v>591</v>
       </c>
@@ -26192,7 +26189,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="67" t="s">
         <v>591</v>
       </c>
@@ -26212,7 +26209,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="67" t="s">
         <v>591</v>
       </c>
@@ -26232,7 +26229,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="67" t="s">
         <v>591</v>
       </c>
@@ -26252,7 +26249,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="67" t="s">
         <v>591</v>
       </c>
@@ -26272,7 +26269,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="67" t="s">
         <v>591</v>
       </c>
@@ -26292,7 +26289,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="67" t="s">
         <v>591</v>
       </c>
@@ -26312,7 +26309,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="67" t="s">
         <v>591</v>
       </c>
@@ -26332,7 +26329,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="67" t="s">
         <v>591</v>
       </c>
@@ -26352,7 +26349,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="67" t="s">
         <v>591</v>
       </c>
@@ -26372,7 +26369,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="67" t="s">
         <v>591</v>
       </c>
@@ -26392,7 +26389,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="67" t="s">
         <v>591</v>
       </c>
@@ -26412,7 +26409,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A93" s="67" t="s">
         <v>591</v>
       </c>
@@ -26432,7 +26429,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="67" t="s">
         <v>591</v>
       </c>
@@ -26452,7 +26449,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="67" t="s">
         <v>591</v>
       </c>
@@ -26472,7 +26469,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="67" t="s">
         <v>591</v>
       </c>
@@ -26492,7 +26489,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A97" s="67" t="s">
         <v>591</v>
       </c>
@@ -26512,7 +26509,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="67" t="s">
         <v>591</v>
       </c>
@@ -26532,7 +26529,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="67" t="s">
         <v>591</v>
       </c>
@@ -26552,7 +26549,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A100" s="67" t="s">
         <v>591</v>
       </c>
@@ -26572,7 +26569,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A101" s="67" t="s">
         <v>591</v>
       </c>
@@ -26592,7 +26589,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A102" s="67" t="s">
         <v>591</v>
       </c>
@@ -26612,7 +26609,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="67" t="s">
         <v>591</v>
       </c>
@@ -26632,7 +26629,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A104" s="67" t="s">
         <v>591</v>
       </c>
@@ -26652,7 +26649,7 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="67" t="s">
         <v>591</v>
       </c>
@@ -26672,7 +26669,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="67" t="s">
         <v>591</v>
       </c>
@@ -26692,7 +26689,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A107" s="67" t="s">
         <v>591</v>
       </c>
@@ -26712,7 +26709,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A108" s="67" t="s">
         <v>591</v>
       </c>
@@ -26732,7 +26729,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A109" s="67" t="s">
         <v>591</v>
       </c>
@@ -26752,7 +26749,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="67" t="s">
         <v>591</v>
       </c>
@@ -26772,7 +26769,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="67" t="s">
         <v>591</v>
       </c>
@@ -26792,7 +26789,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="67" t="s">
         <v>591</v>
       </c>
@@ -26812,7 +26809,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A113" s="67" t="s">
         <v>591</v>
       </c>
@@ -26832,7 +26829,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A114" s="67" t="s">
         <v>591</v>
       </c>
@@ -26852,7 +26849,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A115" s="67" t="s">
         <v>591</v>
       </c>
@@ -26872,7 +26869,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="67" t="s">
         <v>592</v>
       </c>
@@ -26892,7 +26889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A117" s="67" t="s">
         <v>592</v>
       </c>
@@ -26912,7 +26909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="67" t="s">
         <v>592</v>
       </c>
@@ -26932,7 +26929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="67" t="s">
         <v>592</v>
       </c>
@@ -26952,7 +26949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A120" s="67" t="s">
         <v>592</v>
       </c>
@@ -26972,7 +26969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="67" t="s">
         <v>592</v>
       </c>
@@ -26992,7 +26989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="67" t="s">
         <v>592</v>
       </c>
@@ -27012,7 +27009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A123" s="67" t="s">
         <v>592</v>
       </c>
@@ -27032,7 +27029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A124" s="67" t="s">
         <v>592</v>
       </c>
@@ -27052,7 +27049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A125" s="67" t="s">
         <v>592</v>
       </c>
@@ -27072,7 +27069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="67" t="s">
         <v>592</v>
       </c>
@@ -27092,7 +27089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A127" s="67" t="s">
         <v>592</v>
       </c>
@@ -27112,7 +27109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="67" t="s">
         <v>592</v>
       </c>
@@ -27132,7 +27129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A129" s="67" t="s">
         <v>592</v>
       </c>
@@ -27152,7 +27149,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A130" s="67" t="s">
         <v>592</v>
       </c>
@@ -27172,7 +27169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A131" s="67" t="s">
         <v>592</v>
       </c>
@@ -27192,7 +27189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A132" s="67" t="s">
         <v>592</v>
       </c>
@@ -27212,7 +27209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A133" s="67" t="s">
         <v>592</v>
       </c>
@@ -27232,7 +27229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A134" s="67" t="s">
         <v>592</v>
       </c>
@@ -27252,7 +27249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="67" t="s">
         <v>592</v>
       </c>
@@ -27272,7 +27269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A136" s="67" t="s">
         <v>592</v>
       </c>
@@ -27292,7 +27289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="67" t="s">
         <v>592</v>
       </c>
@@ -27312,7 +27309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A138" s="67" t="s">
         <v>592</v>
       </c>
@@ -27332,7 +27329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="67" t="s">
         <v>592</v>
       </c>
@@ -27352,7 +27349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="67" t="s">
         <v>592</v>
       </c>
@@ -27372,7 +27369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="67" t="s">
         <v>592</v>
       </c>
@@ -27392,7 +27389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A142" s="67" t="s">
         <v>592</v>
       </c>
@@ -27412,7 +27409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A143" s="67" t="s">
         <v>592</v>
       </c>
@@ -27432,7 +27429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A144" s="67" t="s">
         <v>592</v>
       </c>
@@ -27452,7 +27449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A145" s="67" t="s">
         <v>592</v>
       </c>
@@ -27472,7 +27469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A146" s="67" t="s">
         <v>592</v>
       </c>
@@ -27492,7 +27489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A147" s="67" t="s">
         <v>592</v>
       </c>
@@ -27512,7 +27509,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A148" s="67" t="s">
         <v>592</v>
       </c>
@@ -27532,7 +27529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A149" s="67" t="s">
         <v>592</v>
       </c>
@@ -27552,7 +27549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A150" s="67" t="s">
         <v>599</v>
       </c>
@@ -27572,7 +27569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A151" s="67" t="s">
         <v>599</v>
       </c>
@@ -27592,7 +27589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A152" s="67" t="s">
         <v>599</v>
       </c>
@@ -27612,7 +27609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A153" s="67" t="s">
         <v>599</v>
       </c>
@@ -27632,7 +27629,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A154" s="67" t="s">
         <v>599</v>
       </c>
@@ -27652,7 +27649,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A155" s="67" t="s">
         <v>599</v>
       </c>
@@ -27672,7 +27669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A156" s="67" t="s">
         <v>599</v>
       </c>
@@ -27692,7 +27689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A157" s="67" t="s">
         <v>599</v>
       </c>
@@ -27712,7 +27709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A158" s="67" t="s">
         <v>599</v>
       </c>
@@ -27732,7 +27729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A159" s="67" t="s">
         <v>599</v>
       </c>
@@ -27752,7 +27749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A160" s="67" t="s">
         <v>599</v>
       </c>
@@ -27772,7 +27769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A161" s="67" t="s">
         <v>599</v>
       </c>
@@ -27792,7 +27789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="67" t="s">
         <v>599</v>
       </c>
@@ -27812,7 +27809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="67" t="s">
         <v>599</v>
       </c>
@@ -27832,7 +27829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A164" s="67" t="s">
         <v>599</v>
       </c>
@@ -27852,7 +27849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="67" t="s">
         <v>599</v>
       </c>
@@ -27872,7 +27869,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="67" t="s">
         <v>599</v>
       </c>
@@ -27892,7 +27889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="67" t="s">
         <v>599</v>
       </c>
@@ -27912,7 +27909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A168" s="67" t="s">
         <v>599</v>
       </c>
@@ -27932,7 +27929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A169" s="67" t="s">
         <v>599</v>
       </c>
@@ -27952,7 +27949,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A170" s="67" t="s">
         <v>599</v>
       </c>
@@ -27972,7 +27969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A171" s="67" t="s">
         <v>599</v>
       </c>
@@ -27992,7 +27989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A172" s="67" t="s">
         <v>599</v>
       </c>
@@ -28012,7 +28009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A173" s="67" t="s">
         <v>599</v>
       </c>
@@ -28032,7 +28029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A174" s="67" t="s">
         <v>599</v>
       </c>
@@ -28052,7 +28049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A175" s="67" t="s">
         <v>599</v>
       </c>
@@ -28072,7 +28069,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A176" s="67" t="s">
         <v>599</v>
       </c>
@@ -28092,7 +28089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A177" s="67" t="s">
         <v>599</v>
       </c>
@@ -28112,7 +28109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A178" s="67" t="s">
         <v>599</v>
       </c>
@@ -28132,7 +28129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A179" s="67" t="s">
         <v>599</v>
       </c>
@@ -28152,7 +28149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A180" s="67" t="s">
         <v>599</v>
       </c>
@@ -28172,7 +28169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A181" s="67" t="s">
         <v>599</v>
       </c>
@@ -28192,7 +28189,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A182" s="67" t="s">
         <v>599</v>
       </c>
@@ -28212,7 +28209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A183" s="67" t="s">
         <v>599</v>
       </c>
@@ -28232,7 +28229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A184" s="67" t="s">
         <v>599</v>
       </c>
@@ -28252,7 +28249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A185" s="67" t="s">
         <v>599</v>
       </c>
@@ -28272,7 +28269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A186" s="67" t="s">
         <v>599</v>
       </c>
@@ -28292,7 +28289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A187" s="67" t="s">
         <v>599</v>
       </c>
@@ -28312,7 +28309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A188" s="67" t="s">
         <v>599</v>
       </c>
@@ -28332,7 +28329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A189" s="67" t="s">
         <v>599</v>
       </c>
@@ -28352,7 +28349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A190" s="67" t="s">
         <v>599</v>
       </c>
@@ -28372,7 +28369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A191" s="67" t="s">
         <v>599</v>
       </c>
@@ -28392,7 +28389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A192" s="67" t="s">
         <v>599</v>
       </c>
@@ -28412,7 +28409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A193" s="67" t="s">
         <v>599</v>
       </c>
@@ -28432,7 +28429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A194" s="79" t="s">
         <v>600</v>
       </c>
@@ -28452,7 +28449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A195" s="79" t="s">
         <v>600</v>
       </c>
@@ -28472,7 +28469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A196" s="79" t="s">
         <v>600</v>
       </c>
@@ -28492,7 +28489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A197" s="79" t="s">
         <v>600</v>
       </c>
@@ -28512,7 +28509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A198" s="79" t="s">
         <v>601</v>
       </c>
@@ -28532,7 +28529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A199" s="79" t="s">
         <v>601</v>
       </c>
@@ -28552,7 +28549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A200" s="79" t="s">
         <v>601</v>
       </c>
@@ -28572,7 +28569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A201" s="79" t="s">
         <v>601</v>
       </c>
@@ -28592,7 +28589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A202" s="79" t="s">
         <v>601</v>
       </c>
@@ -28612,7 +28609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A203" s="79" t="s">
         <v>601</v>
       </c>
@@ -28632,7 +28629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A204" s="79" t="s">
         <v>601</v>
       </c>
@@ -28652,7 +28649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A205" s="79" t="s">
         <v>601</v>
       </c>
@@ -28672,7 +28669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" s="100" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="80" t="s">
         <v>617</v>
       </c>
@@ -28692,7 +28689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="100" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" s="100" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="80" t="s">
         <v>617</v>
       </c>
@@ -28728,20 +28725,20 @@
       <selection activeCell="B20" sqref="B20:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="s">
         <v>533</v>
       </c>
@@ -28773,7 +28770,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
         <v>591</v>
       </c>
@@ -28805,7 +28802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>591</v>
       </c>
@@ -28837,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>591</v>
       </c>
@@ -28869,7 +28866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>591</v>
       </c>
@@ -28901,7 +28898,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>591</v>
       </c>
@@ -28933,7 +28930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>591</v>
       </c>
@@ -28965,7 +28962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
         <v>591</v>
       </c>
@@ -28997,7 +28994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>592</v>
       </c>
@@ -29030,7 +29027,7 @@
       </c>
       <c r="K9" s="81"/>
     </row>
-    <row r="10" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>592</v>
       </c>
@@ -29063,7 +29060,7 @@
       </c>
       <c r="K10" s="81"/>
     </row>
-    <row r="11" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>592</v>
       </c>
@@ -29096,7 +29093,7 @@
       </c>
       <c r="K11" s="81"/>
     </row>
-    <row r="12" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>592</v>
       </c>
@@ -29129,7 +29126,7 @@
       </c>
       <c r="K12" s="81"/>
     </row>
-    <row r="13" spans="1:11" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>592</v>
       </c>
@@ -29162,7 +29159,7 @@
       </c>
       <c r="K13" s="81"/>
     </row>
-    <row r="14" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
         <v>599</v>
       </c>
@@ -29194,7 +29191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>599</v>
       </c>
@@ -29226,7 +29223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A16" s="84" t="s">
         <v>599</v>
       </c>
@@ -29258,7 +29255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
         <v>599</v>
       </c>
@@ -29290,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>600</v>
       </c>
@@ -29322,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>601</v>
       </c>
@@ -29354,7 +29351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
         <v>617</v>
       </c>
@@ -29386,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
         <v>617</v>
       </c>
